--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1017"/>
+  <dimension ref="A1:T1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79884,32 +79884,32 @@
         </is>
       </c>
       <c r="M994" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="N994" t="n">
-        <v>13000</v>
+        <v>3700</v>
       </c>
       <c r="O994" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P994" t="n">
-        <v>13000</v>
+        <v>3843</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>650</v>
+        <v>214</v>
       </c>
       <c r="T994" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="995">
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79964,16 +79964,16 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="N995" t="n">
-        <v>11000</v>
+        <v>3700</v>
       </c>
       <c r="O995" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P995" t="n">
-        <v>11000</v>
+        <v>3874</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79982,11 +79982,11 @@
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>611</v>
+        <v>215</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80044,16 +80044,16 @@
         </is>
       </c>
       <c r="M996" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N996" t="n">
-        <v>8000</v>
+        <v>2700</v>
       </c>
       <c r="O996" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P996" t="n">
-        <v>8000</v>
+        <v>2833</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80062,11 +80062,11 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>444</v>
+        <v>157</v>
       </c>
       <c r="T996" t="n">
         <v>18</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80120,20 +80120,20 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="N997" t="n">
-        <v>5000</v>
+        <v>2700</v>
       </c>
       <c r="O997" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P997" t="n">
-        <v>5000</v>
+        <v>2871</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="T997" t="n">
         <v>18</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80200,20 +80200,20 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="N998" t="n">
-        <v>16000</v>
+        <v>1700</v>
       </c>
       <c r="O998" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P998" t="n">
-        <v>16000</v>
+        <v>1868</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>889</v>
+        <v>104</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="N999" t="n">
-        <v>16000</v>
+        <v>1800</v>
       </c>
       <c r="O999" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P999" t="n">
-        <v>16000</v>
+        <v>1911</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>889</v>
+        <v>106</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,36 +80360,36 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N1000" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O1000" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P1000" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>944</v>
+        <v>650</v>
       </c>
       <c r="T1000" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1001" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O1001" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P1001" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80524,16 +80524,16 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N1002" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O1002" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P1002" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80600,20 +80600,20 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="N1003" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O1003" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P1003" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>833</v>
+        <v>278</v>
       </c>
       <c r="T1003" t="n">
         <v>18</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N1004" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O1004" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1004" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T1004" t="n">
         <v>18</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1005" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O1005" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1005" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80840,20 +80840,20 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N1006" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O1006" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P1006" t="n">
-        <v>4280</v>
+        <v>17000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80866,7 +80866,7 @@
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>238</v>
+        <v>944</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80920,20 +80920,20 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>520</v>
+        <v>150</v>
       </c>
       <c r="N1007" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1007" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P1007" t="n">
-        <v>4231</v>
+        <v>14000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>235</v>
+        <v>778</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -81004,16 +81004,16 @@
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N1008" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O1008" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P1008" t="n">
-        <v>3289</v>
+        <v>14000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81026,7 +81026,7 @@
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>183</v>
+        <v>778</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>620</v>
+        <v>75</v>
       </c>
       <c r="N1009" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1009" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P1009" t="n">
-        <v>3274</v>
+        <v>15000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>182</v>
+        <v>833</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81164,16 +81164,16 @@
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="N1010" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="O1010" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="P1010" t="n">
-        <v>2292</v>
+        <v>12000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>127</v>
+        <v>667</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N1011" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="O1011" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="P1011" t="n">
-        <v>2293</v>
+        <v>12000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>127</v>
+        <v>667</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81324,7 +81324,7 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="N1012" t="n">
         <v>4000</v>
@@ -81333,7 +81333,7 @@
         <v>4500</v>
       </c>
       <c r="P1012" t="n">
-        <v>4200</v>
+        <v>4280</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81404,7 +81404,7 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="N1013" t="n">
         <v>4000</v>
@@ -81413,7 +81413,7 @@
         <v>4500</v>
       </c>
       <c r="P1013" t="n">
-        <v>4271</v>
+        <v>4231</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81484,7 +81484,7 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="N1014" t="n">
         <v>3000</v>
@@ -81493,7 +81493,7 @@
         <v>3500</v>
       </c>
       <c r="P1014" t="n">
-        <v>3241</v>
+        <v>3289</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81573,7 +81573,7 @@
         <v>3500</v>
       </c>
       <c r="P1015" t="n">
-        <v>3226</v>
+        <v>3274</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81582,11 +81582,11 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81644,7 +81644,7 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N1016" t="n">
         <v>2000</v>
@@ -81653,7 +81653,7 @@
         <v>2500</v>
       </c>
       <c r="P1016" t="n">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81666,7 +81666,7 @@
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81724,7 +81724,7 @@
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="N1017" t="n">
         <v>2000</v>
@@ -81733,7 +81733,7 @@
         <v>2500</v>
       </c>
       <c r="P1017" t="n">
-        <v>2284</v>
+        <v>2293</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,13 +81742,493 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
         <v>127</v>
       </c>
       <c r="T1017" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1018" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1018" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1018" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1018" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1018" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1018" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>4200</v>
+      </c>
+      <c r="Q1018" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1018" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1018" t="n">
+        <v>233</v>
+      </c>
+      <c r="T1018" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1019" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1019" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1019" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1019" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1019" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1019" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1019" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1019" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>4271</v>
+      </c>
+      <c r="Q1019" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1019" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1019" t="n">
+        <v>237</v>
+      </c>
+      <c r="T1019" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1020" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1020" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1020" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1020" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1020" t="n">
+        <v>540</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>3241</v>
+      </c>
+      <c r="Q1020" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1020" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1020" t="n">
+        <v>180</v>
+      </c>
+      <c r="T1020" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1021" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1021" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1021" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1021" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1021" t="n">
+        <v>620</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>3226</v>
+      </c>
+      <c r="Q1021" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1021" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1021" t="n">
+        <v>179</v>
+      </c>
+      <c r="T1021" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1022" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1022" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1022" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1022" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1022" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1022" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1022" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1022" t="n">
+        <v>128</v>
+      </c>
+      <c r="T1022" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1023" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1023" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1023" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1023" t="n">
+        <v>440</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>2284</v>
+      </c>
+      <c r="Q1023" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1023" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1023" t="n">
+        <v>127</v>
+      </c>
+      <c r="T1023" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1023"/>
+  <dimension ref="A1:T1032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -74684,16 +74684,16 @@
         </is>
       </c>
       <c r="M929" t="n">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="N929" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="O929" t="n">
-        <v>9500</v>
+        <v>3800</v>
       </c>
       <c r="P929" t="n">
-        <v>9283</v>
+        <v>3647</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
@@ -74706,7 +74706,7 @@
         </is>
       </c>
       <c r="S929" t="n">
-        <v>516</v>
+        <v>203</v>
       </c>
       <c r="T929" t="n">
         <v>18</v>
@@ -74727,7 +74727,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -74760,20 +74760,20 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M930" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="N930" t="n">
-        <v>7000</v>
+        <v>3600</v>
       </c>
       <c r="O930" t="n">
-        <v>7500</v>
+        <v>3800</v>
       </c>
       <c r="P930" t="n">
-        <v>7222</v>
+        <v>3703</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
@@ -74782,11 +74782,11 @@
       </c>
       <c r="R930" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S930" t="n">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="T930" t="n">
         <v>18</v>
@@ -74807,7 +74807,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -74840,20 +74840,20 @@
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M931" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N931" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O931" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="P931" t="n">
-        <v>5778</v>
+        <v>3680</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
@@ -74862,11 +74862,11 @@
       </c>
       <c r="R931" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S931" t="n">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="T931" t="n">
         <v>18</v>
@@ -74887,7 +74887,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -74915,41 +74915,41 @@
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M932" t="n">
-        <v>35</v>
+        <v>520</v>
       </c>
       <c r="N932" t="n">
-        <v>30000</v>
+        <v>2800</v>
       </c>
       <c r="O932" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="P932" t="n">
-        <v>30000</v>
+        <v>2892</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>1250</v>
+        <v>161</v>
       </c>
       <c r="T932" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="933">
@@ -74967,7 +74967,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -75000,20 +75000,20 @@
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M933" t="n">
-        <v>215</v>
+        <v>520</v>
       </c>
       <c r="N933" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="O933" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P933" t="n">
-        <v>3912</v>
+        <v>2908</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
@@ -75022,11 +75022,11 @@
       </c>
       <c r="R933" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S933" t="n">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="T933" t="n">
         <v>18</v>
@@ -75047,7 +75047,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -75080,20 +75080,20 @@
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N934" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="O934" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="P934" t="n">
-        <v>3107</v>
+        <v>2677</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
@@ -75102,11 +75102,11 @@
       </c>
       <c r="R934" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S934" t="n">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="T934" t="n">
         <v>18</v>
@@ -75127,7 +75127,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -75164,16 +75164,16 @@
         </is>
       </c>
       <c r="M935" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="N935" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O935" t="n">
         <v>2000</v>
       </c>
       <c r="P935" t="n">
-        <v>1890</v>
+        <v>1874</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
@@ -75182,11 +75182,11 @@
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S935" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T935" t="n">
         <v>18</v>
@@ -75207,7 +75207,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -75235,41 +75235,41 @@
       </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M936" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="N936" t="n">
-        <v>32000</v>
+        <v>1800</v>
       </c>
       <c r="O936" t="n">
-        <v>32000</v>
+        <v>2000</v>
       </c>
       <c r="P936" t="n">
-        <v>32000</v>
+        <v>1896</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R936" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S936" t="n">
-        <v>1333</v>
+        <v>105</v>
       </c>
       <c r="T936" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="937">
@@ -75287,7 +75287,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -75320,20 +75320,20 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N937" t="n">
-        <v>19000</v>
+        <v>1800</v>
       </c>
       <c r="O937" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="P937" t="n">
-        <v>19484</v>
+        <v>1930</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
@@ -75342,11 +75342,11 @@
       </c>
       <c r="R937" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S937" t="n">
-        <v>1082</v>
+        <v>107</v>
       </c>
       <c r="T937" t="n">
         <v>18</v>
@@ -75367,7 +75367,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -75400,20 +75400,20 @@
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M938" t="n">
-        <v>255</v>
+        <v>460</v>
       </c>
       <c r="N938" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O938" t="n">
-        <v>17000</v>
+        <v>9500</v>
       </c>
       <c r="P938" t="n">
-        <v>16529</v>
+        <v>9283</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
@@ -75426,7 +75426,7 @@
         </is>
       </c>
       <c r="S938" t="n">
-        <v>918</v>
+        <v>516</v>
       </c>
       <c r="T938" t="n">
         <v>18</v>
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -75480,11 +75480,11 @@
       </c>
       <c r="L939" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M939" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="N939" t="n">
         <v>7000</v>
@@ -75493,7 +75493,7 @@
         <v>7500</v>
       </c>
       <c r="P939" t="n">
-        <v>7278</v>
+        <v>7222</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
@@ -75506,7 +75506,7 @@
         </is>
       </c>
       <c r="S939" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="T939" t="n">
         <v>18</v>
@@ -75527,7 +75527,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -75560,20 +75560,20 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M940" t="n">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="N940" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="O940" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P940" t="n">
-        <v>3917</v>
+        <v>5778</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
@@ -75586,7 +75586,7 @@
         </is>
       </c>
       <c r="S940" t="n">
-        <v>218</v>
+        <v>321</v>
       </c>
       <c r="T940" t="n">
         <v>18</v>
@@ -75607,7 +75607,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -75635,41 +75635,41 @@
       </c>
       <c r="K941" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L941" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M941" t="n">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="N941" t="n">
-        <v>3800</v>
+        <v>30000</v>
       </c>
       <c r="O941" t="n">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="P941" t="n">
-        <v>3896</v>
+        <v>30000</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>216</v>
+        <v>1250</v>
       </c>
       <c r="T941" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="942">
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -75720,20 +75720,20 @@
       </c>
       <c r="L942" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M942" t="n">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="N942" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="O942" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P942" t="n">
-        <v>2907</v>
+        <v>3912</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75742,11 +75742,11 @@
       </c>
       <c r="R942" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S942" t="n">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="T942" t="n">
         <v>18</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -75804,16 +75804,16 @@
         </is>
       </c>
       <c r="M943" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N943" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="O943" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="P943" t="n">
-        <v>2912</v>
+        <v>3107</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
@@ -75822,11 +75822,11 @@
       </c>
       <c r="R943" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S943" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="T943" t="n">
         <v>18</v>
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -75884,7 +75884,7 @@
         </is>
       </c>
       <c r="M944" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N944" t="n">
         <v>1800</v>
@@ -75893,7 +75893,7 @@
         <v>2000</v>
       </c>
       <c r="P944" t="n">
-        <v>1903</v>
+        <v>1890</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
@@ -75902,11 +75902,11 @@
       </c>
       <c r="R944" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S944" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T944" t="n">
         <v>18</v>
@@ -75927,7 +75927,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -75955,41 +75955,41 @@
       </c>
       <c r="K945" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M945" t="n">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="N945" t="n">
-        <v>1800</v>
+        <v>32000</v>
       </c>
       <c r="O945" t="n">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="P945" t="n">
-        <v>1909</v>
+        <v>32000</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R945" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S945" t="n">
-        <v>106</v>
+        <v>1333</v>
       </c>
       <c r="T945" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="946">
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -76044,16 +76044,16 @@
         </is>
       </c>
       <c r="M946" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="N946" t="n">
-        <v>3800</v>
+        <v>19000</v>
       </c>
       <c r="O946" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P946" t="n">
-        <v>3889</v>
+        <v>19484</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76066,7 +76066,7 @@
         </is>
       </c>
       <c r="S946" t="n">
-        <v>216</v>
+        <v>1082</v>
       </c>
       <c r="T946" t="n">
         <v>18</v>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -76120,20 +76120,20 @@
       </c>
       <c r="L947" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M947" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="N947" t="n">
-        <v>3800</v>
+        <v>16000</v>
       </c>
       <c r="O947" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P947" t="n">
-        <v>3908</v>
+        <v>16529</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76142,11 +76142,11 @@
       </c>
       <c r="R947" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S947" t="n">
-        <v>217</v>
+        <v>918</v>
       </c>
       <c r="T947" t="n">
         <v>18</v>
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -76200,20 +76200,20 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M948" t="n">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="N948" t="n">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="O948" t="n">
-        <v>3800</v>
+        <v>7500</v>
       </c>
       <c r="P948" t="n">
-        <v>3235</v>
+        <v>7278</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
@@ -76226,7 +76226,7 @@
         </is>
       </c>
       <c r="S948" t="n">
-        <v>180</v>
+        <v>404</v>
       </c>
       <c r="T948" t="n">
         <v>18</v>
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -76280,20 +76280,20 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M949" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="N949" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="O949" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P949" t="n">
-        <v>2914</v>
+        <v>3917</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
@@ -76302,11 +76302,11 @@
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="T949" t="n">
         <v>18</v>
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -76360,20 +76360,20 @@
       </c>
       <c r="L950" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M950" t="n">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="N950" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="O950" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P950" t="n">
-        <v>1891</v>
+        <v>3896</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76382,11 +76382,11 @@
       </c>
       <c r="R950" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S950" t="n">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="T950" t="n">
         <v>18</v>
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -76440,20 +76440,20 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M951" t="n">
         <v>410</v>
       </c>
       <c r="N951" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="O951" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P951" t="n">
-        <v>1907</v>
+        <v>2907</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
@@ -76462,11 +76462,11 @@
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="T951" t="n">
         <v>18</v>
@@ -76487,7 +76487,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -76515,41 +76515,41 @@
       </c>
       <c r="K952" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M952" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="N952" t="n">
-        <v>28000</v>
+        <v>2800</v>
       </c>
       <c r="O952" t="n">
-        <v>28000</v>
+        <v>3000</v>
       </c>
       <c r="P952" t="n">
-        <v>28000</v>
+        <v>2912</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R952" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S952" t="n">
-        <v>1167</v>
+        <v>162</v>
       </c>
       <c r="T952" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="953">
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -76600,20 +76600,20 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M953" t="n">
-        <v>2870</v>
+        <v>350</v>
       </c>
       <c r="N953" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="O953" t="n">
-        <v>4200</v>
+        <v>2000</v>
       </c>
       <c r="P953" t="n">
-        <v>4038</v>
+        <v>1903</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
@@ -76626,7 +76626,7 @@
         </is>
       </c>
       <c r="S953" t="n">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="T953" t="n">
         <v>18</v>
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -76680,20 +76680,20 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M954" t="n">
-        <v>560</v>
+        <v>285</v>
       </c>
       <c r="N954" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="O954" t="n">
-        <v>4200</v>
+        <v>2000</v>
       </c>
       <c r="P954" t="n">
-        <v>4086</v>
+        <v>1909</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
@@ -76702,11 +76702,11 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S954" t="n">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="T954" t="n">
         <v>18</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -76764,16 +76764,16 @@
         </is>
       </c>
       <c r="M955" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="N955" t="n">
         <v>3800</v>
       </c>
       <c r="O955" t="n">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="P955" t="n">
-        <v>4061</v>
+        <v>3889</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
@@ -76782,11 +76782,11 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="T955" t="n">
         <v>18</v>
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -76840,20 +76840,20 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M956" t="n">
-        <v>3195</v>
+        <v>500</v>
       </c>
       <c r="N956" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="O956" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="P956" t="n">
-        <v>3068</v>
+        <v>3908</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
@@ -76862,11 +76862,11 @@
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S956" t="n">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="T956" t="n">
         <v>18</v>
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -76924,16 +76924,16 @@
         </is>
       </c>
       <c r="M957" t="n">
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="N957" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="O957" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="P957" t="n">
-        <v>3112</v>
+        <v>3235</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76942,11 +76942,11 @@
       </c>
       <c r="R957" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S957" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="T957" t="n">
         <v>18</v>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -77004,16 +77004,16 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>2510</v>
+        <v>440</v>
       </c>
       <c r="N958" t="n">
+        <v>2800</v>
+      </c>
+      <c r="O958" t="n">
         <v>3000</v>
       </c>
-      <c r="O958" t="n">
-        <v>3300</v>
-      </c>
       <c r="P958" t="n">
-        <v>3133</v>
+        <v>2914</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77026,7 +77026,7 @@
         </is>
       </c>
       <c r="S958" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="T958" t="n">
         <v>18</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -77084,16 +77084,16 @@
         </is>
       </c>
       <c r="M959" t="n">
-        <v>2055</v>
+        <v>460</v>
       </c>
       <c r="N959" t="n">
         <v>1800</v>
       </c>
       <c r="O959" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="P959" t="n">
-        <v>1995</v>
+        <v>1891</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77106,7 +77106,7 @@
         </is>
       </c>
       <c r="S959" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="T959" t="n">
         <v>18</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -77164,7 +77164,7 @@
         </is>
       </c>
       <c r="M960" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="N960" t="n">
         <v>1800</v>
@@ -77173,7 +77173,7 @@
         <v>2000</v>
       </c>
       <c r="P960" t="n">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77182,7 +77182,7 @@
       </c>
       <c r="R960" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S960" t="n">
@@ -77235,41 +77235,41 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M961" t="n">
-        <v>1860</v>
+        <v>30</v>
       </c>
       <c r="N961" t="n">
-        <v>1800</v>
+        <v>28000</v>
       </c>
       <c r="O961" t="n">
-        <v>2200</v>
+        <v>28000</v>
       </c>
       <c r="P961" t="n">
-        <v>1995</v>
+        <v>28000</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R961" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S961" t="n">
-        <v>111</v>
+        <v>1167</v>
       </c>
       <c r="T961" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="962">
@@ -77315,41 +77315,41 @@
       </c>
       <c r="K962" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M962" t="n">
-        <v>40</v>
+        <v>2870</v>
       </c>
       <c r="N962" t="n">
-        <v>30000</v>
+        <v>3800</v>
       </c>
       <c r="O962" t="n">
-        <v>30000</v>
+        <v>4200</v>
       </c>
       <c r="P962" t="n">
-        <v>30000</v>
+        <v>4038</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R962" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S962" t="n">
-        <v>1250</v>
+        <v>224</v>
       </c>
       <c r="T962" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="963">
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -77395,41 +77395,41 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>30</v>
+        <v>560</v>
       </c>
       <c r="N963" t="n">
-        <v>34000</v>
+        <v>4000</v>
       </c>
       <c r="O963" t="n">
-        <v>34000</v>
+        <v>4200</v>
       </c>
       <c r="P963" t="n">
-        <v>34000</v>
+        <v>4086</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>1417</v>
+        <v>227</v>
       </c>
       <c r="T963" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="964">
@@ -77447,7 +77447,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -77484,16 +77484,16 @@
         </is>
       </c>
       <c r="M964" t="n">
-        <v>80</v>
+        <v>2200</v>
       </c>
       <c r="N964" t="n">
-        <v>16000</v>
+        <v>3800</v>
       </c>
       <c r="O964" t="n">
-        <v>16000</v>
+        <v>4300</v>
       </c>
       <c r="P964" t="n">
-        <v>16000</v>
+        <v>4061</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>889</v>
+        <v>226</v>
       </c>
       <c r="T964" t="n">
         <v>18</v>
@@ -77527,7 +77527,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -77564,16 +77564,16 @@
         </is>
       </c>
       <c r="M965" t="n">
-        <v>110</v>
+        <v>3195</v>
       </c>
       <c r="N965" t="n">
-        <v>14000</v>
+        <v>2800</v>
       </c>
       <c r="O965" t="n">
-        <v>14000</v>
+        <v>3300</v>
       </c>
       <c r="P965" t="n">
-        <v>14000</v>
+        <v>3068</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>778</v>
+        <v>170</v>
       </c>
       <c r="T965" t="n">
         <v>18</v>
@@ -77607,7 +77607,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -77640,20 +77640,20 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>145</v>
+        <v>640</v>
       </c>
       <c r="N966" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O966" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P966" t="n">
-        <v>12000</v>
+        <v>3112</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77662,11 +77662,11 @@
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>667</v>
+        <v>173</v>
       </c>
       <c r="T966" t="n">
         <v>18</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -77715,38 +77715,38 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>70</v>
+        <v>2510</v>
       </c>
       <c r="N967" t="n">
-        <v>32000</v>
+        <v>3000</v>
       </c>
       <c r="O967" t="n">
-        <v>32000</v>
+        <v>3300</v>
       </c>
       <c r="P967" t="n">
-        <v>32000</v>
+        <v>3133</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S967" t="n">
-        <v>1778</v>
+        <v>174</v>
       </c>
       <c r="T967" t="n">
         <v>18</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -77800,20 +77800,20 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>420</v>
+        <v>2055</v>
       </c>
       <c r="N968" t="n">
-        <v>11500</v>
+        <v>1800</v>
       </c>
       <c r="O968" t="n">
-        <v>12000</v>
+        <v>2200</v>
       </c>
       <c r="P968" t="n">
-        <v>11786</v>
+        <v>1995</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77822,11 +77822,11 @@
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>655</v>
+        <v>111</v>
       </c>
       <c r="T968" t="n">
         <v>18</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -77880,20 +77880,20 @@
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M969" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N969" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="O969" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="P969" t="n">
-        <v>7714</v>
+        <v>1909</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>429</v>
+        <v>106</v>
       </c>
       <c r="T969" t="n">
         <v>18</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -77960,20 +77960,20 @@
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>155</v>
+        <v>1860</v>
       </c>
       <c r="N970" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="O970" t="n">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="P970" t="n">
-        <v>4242</v>
+        <v>1995</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="T970" t="n">
         <v>18</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -78035,41 +78035,41 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N971" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="O971" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="P971" t="n">
-        <v>6429</v>
+        <v>30000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>357</v>
+        <v>1250</v>
       </c>
       <c r="T971" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="972">
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -78115,41 +78115,41 @@
       </c>
       <c r="K972" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N972" t="n">
-        <v>5000</v>
+        <v>34000</v>
       </c>
       <c r="O972" t="n">
-        <v>5500</v>
+        <v>34000</v>
       </c>
       <c r="P972" t="n">
-        <v>5292</v>
+        <v>34000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>294</v>
+        <v>1417</v>
       </c>
       <c r="T972" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="973">
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -78200,20 +78200,20 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="N973" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O973" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="P973" t="n">
-        <v>5237</v>
+        <v>16000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78222,11 +78222,11 @@
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>291</v>
+        <v>889</v>
       </c>
       <c r="T973" t="n">
         <v>18</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -78284,16 +78284,16 @@
         </is>
       </c>
       <c r="M974" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N974" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O974" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P974" t="n">
-        <v>4262</v>
+        <v>14000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>237</v>
+        <v>778</v>
       </c>
       <c r="T974" t="n">
         <v>18</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -78360,20 +78360,20 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>590</v>
+        <v>145</v>
       </c>
       <c r="N975" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O975" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P975" t="n">
-        <v>4246</v>
+        <v>12000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78382,11 +78382,11 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>236</v>
+        <v>667</v>
       </c>
       <c r="T975" t="n">
         <v>18</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78435,38 +78435,38 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M976" t="n">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="N976" t="n">
-        <v>3000</v>
+        <v>32000</v>
       </c>
       <c r="O976" t="n">
-        <v>3500</v>
+        <v>32000</v>
       </c>
       <c r="P976" t="n">
-        <v>3230</v>
+        <v>32000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>179</v>
+        <v>1778</v>
       </c>
       <c r="T976" t="n">
         <v>18</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="N977" t="n">
-        <v>3000</v>
+        <v>11500</v>
       </c>
       <c r="O977" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P977" t="n">
-        <v>3268</v>
+        <v>11786</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78542,11 +78542,11 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>182</v>
+        <v>655</v>
       </c>
       <c r="T977" t="n">
         <v>18</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="N978" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="O978" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P978" t="n">
-        <v>17556</v>
+        <v>7714</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78622,11 +78622,11 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>975</v>
+        <v>429</v>
       </c>
       <c r="T978" t="n">
         <v>18</v>
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -78680,20 +78680,20 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="N979" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O979" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P979" t="n">
-        <v>13459</v>
+        <v>4242</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>748</v>
+        <v>236</v>
       </c>
       <c r="T979" t="n">
         <v>18</v>
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -78760,20 +78760,20 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="N980" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O980" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P980" t="n">
-        <v>8607</v>
+        <v>6429</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>478</v>
+        <v>357</v>
       </c>
       <c r="T980" t="n">
         <v>18</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -78844,16 +78844,16 @@
         </is>
       </c>
       <c r="M981" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="N981" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O981" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="P981" t="n">
-        <v>4144</v>
+        <v>5292</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78862,11 +78862,11 @@
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="T981" t="n">
         <v>18</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -78920,20 +78920,20 @@
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="N982" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O982" t="n">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="P982" t="n">
-        <v>4162</v>
+        <v>5237</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78942,11 +78942,11 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="T982" t="n">
         <v>18</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -79004,16 +79004,16 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>580</v>
+        <v>400</v>
       </c>
       <c r="N983" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O983" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="P983" t="n">
-        <v>3103</v>
+        <v>4262</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="T983" t="n">
         <v>18</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79080,20 +79080,20 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="N984" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O984" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="P984" t="n">
-        <v>3110</v>
+        <v>4246</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="T984" t="n">
         <v>18</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79164,16 +79164,16 @@
         </is>
       </c>
       <c r="M985" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="N985" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O985" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="P985" t="n">
-        <v>2116</v>
+        <v>3230</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79182,11 +79182,11 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="T985" t="n">
         <v>18</v>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79240,20 +79240,20 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="N986" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O986" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="P986" t="n">
-        <v>2121</v>
+        <v>3268</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="T986" t="n">
         <v>18</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79320,33 +79320,33 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N987" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O987" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P987" t="n">
-        <v>24000</v>
+        <v>17556</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>1333</v>
+        <v>975</v>
       </c>
       <c r="T987" t="n">
         <v>18</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79400,20 +79400,20 @@
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="N988" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O988" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P988" t="n">
-        <v>20529</v>
+        <v>13459</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>1140</v>
+        <v>748</v>
       </c>
       <c r="T988" t="n">
         <v>18</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79480,20 +79480,20 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N989" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O989" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P989" t="n">
-        <v>17478</v>
+        <v>8607</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>971</v>
+        <v>478</v>
       </c>
       <c r="T989" t="n">
         <v>18</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79560,20 +79560,20 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>110</v>
+        <v>540</v>
       </c>
       <c r="N990" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O990" t="n">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="P990" t="n">
-        <v>8636</v>
+        <v>4144</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79586,7 +79586,7 @@
         </is>
       </c>
       <c r="S990" t="n">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="T990" t="n">
         <v>18</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79644,16 +79644,16 @@
         </is>
       </c>
       <c r="M991" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="N991" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O991" t="n">
-        <v>15000</v>
+        <v>4300</v>
       </c>
       <c r="P991" t="n">
-        <v>14556</v>
+        <v>4162</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>809</v>
+        <v>231</v>
       </c>
       <c r="T991" t="n">
         <v>18</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79724,16 +79724,16 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="N992" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O992" t="n">
-        <v>13000</v>
+        <v>3200</v>
       </c>
       <c r="P992" t="n">
-        <v>12422</v>
+        <v>3103</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>690</v>
+        <v>172</v>
       </c>
       <c r="T992" t="n">
         <v>18</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79800,20 +79800,20 @@
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>630</v>
+        <v>490</v>
       </c>
       <c r="N993" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="O993" t="n">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="P993" t="n">
-        <v>7278</v>
+        <v>3110</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79822,11 +79822,11 @@
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>404</v>
+        <v>173</v>
       </c>
       <c r="T993" t="n">
         <v>18</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,20 +79880,20 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="N994" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="O994" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P994" t="n">
-        <v>3843</v>
+        <v>2116</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79902,11 +79902,11 @@
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="T994" t="n">
         <v>18</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79960,20 +79960,20 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="N995" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="O995" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P995" t="n">
-        <v>3874</v>
+        <v>2121</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80040,33 +80040,33 @@
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N996" t="n">
-        <v>2700</v>
+        <v>24000</v>
       </c>
       <c r="O996" t="n">
-        <v>3000</v>
+        <v>24000</v>
       </c>
       <c r="P996" t="n">
-        <v>2833</v>
+        <v>24000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>157</v>
+        <v>1333</v>
       </c>
       <c r="T996" t="n">
         <v>18</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80120,20 +80120,20 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="N997" t="n">
-        <v>2700</v>
+        <v>20000</v>
       </c>
       <c r="O997" t="n">
-        <v>3000</v>
+        <v>21000</v>
       </c>
       <c r="P997" t="n">
-        <v>2871</v>
+        <v>20529</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>160</v>
+        <v>1140</v>
       </c>
       <c r="T997" t="n">
         <v>18</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80200,20 +80200,20 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N998" t="n">
-        <v>1700</v>
+        <v>17000</v>
       </c>
       <c r="O998" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P998" t="n">
-        <v>1868</v>
+        <v>17478</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>104</v>
+        <v>971</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="N999" t="n">
-        <v>1800</v>
+        <v>8000</v>
       </c>
       <c r="O999" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="P999" t="n">
-        <v>1911</v>
+        <v>8636</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>106</v>
+        <v>480</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80364,32 +80364,32 @@
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N1000" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1000" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1000" t="n">
-        <v>13000</v>
+        <v>14556</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>650</v>
+        <v>809</v>
       </c>
       <c r="T1000" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1001">
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N1001" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1001" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1001" t="n">
-        <v>11000</v>
+        <v>12422</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80520,20 +80520,20 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="N1002" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O1002" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P1002" t="n">
-        <v>8000</v>
+        <v>7278</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80600,20 +80600,20 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>180</v>
+        <v>460</v>
       </c>
       <c r="N1003" t="n">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="O1003" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1003" t="n">
-        <v>5000</v>
+        <v>3843</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="T1003" t="n">
         <v>18</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80684,16 +80684,16 @@
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>125</v>
+        <v>430</v>
       </c>
       <c r="N1004" t="n">
-        <v>16000</v>
+        <v>3700</v>
       </c>
       <c r="O1004" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P1004" t="n">
-        <v>16000</v>
+        <v>3874</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>889</v>
+        <v>215</v>
       </c>
       <c r="T1004" t="n">
         <v>18</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="N1005" t="n">
-        <v>16000</v>
+        <v>2700</v>
       </c>
       <c r="O1005" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="P1005" t="n">
-        <v>16000</v>
+        <v>2833</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>889</v>
+        <v>157</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80840,20 +80840,20 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="N1006" t="n">
-        <v>17000</v>
+        <v>2700</v>
       </c>
       <c r="O1006" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P1006" t="n">
-        <v>17000</v>
+        <v>2871</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>944</v>
+        <v>160</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80920,20 +80920,20 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N1007" t="n">
-        <v>14000</v>
+        <v>1700</v>
       </c>
       <c r="O1007" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P1007" t="n">
-        <v>14000</v>
+        <v>1868</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>778</v>
+        <v>104</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="N1008" t="n">
-        <v>14000</v>
+        <v>1800</v>
       </c>
       <c r="O1008" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="P1008" t="n">
-        <v>14000</v>
+        <v>1911</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>778</v>
+        <v>106</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81080,36 +81080,36 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="N1009" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O1009" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P1009" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>833</v>
+        <v>650</v>
       </c>
       <c r="T1009" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1010">
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N1010" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O1010" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P1010" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N1011" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1011" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1011" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81320,20 +81320,20 @@
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="N1012" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1012" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="P1012" t="n">
-        <v>4280</v>
+        <v>5000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81404,16 +81404,16 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>520</v>
+        <v>125</v>
       </c>
       <c r="N1013" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O1013" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="P1013" t="n">
-        <v>4231</v>
+        <v>16000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>235</v>
+        <v>889</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81480,20 +81480,20 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="N1014" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="O1014" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P1014" t="n">
-        <v>3289</v>
+        <v>16000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>183</v>
+        <v>889</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81560,20 +81560,20 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="N1015" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="O1015" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P1015" t="n">
-        <v>3274</v>
+        <v>17000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81582,11 +81582,11 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>182</v>
+        <v>944</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81640,20 +81640,20 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N1016" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="O1016" t="n">
-        <v>2500</v>
+        <v>14000</v>
       </c>
       <c r="P1016" t="n">
-        <v>2292</v>
+        <v>14000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>127</v>
+        <v>778</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81720,20 +81720,20 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="N1017" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="O1017" t="n">
-        <v>2500</v>
+        <v>14000</v>
       </c>
       <c r="P1017" t="n">
-        <v>2293</v>
+        <v>14000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,11 +81742,11 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>127</v>
+        <v>778</v>
       </c>
       <c r="T1017" t="n">
         <v>18</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="N1018" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O1018" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P1018" t="n">
-        <v>4200</v>
+        <v>15000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81826,7 +81826,7 @@
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>233</v>
+        <v>833</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81880,20 +81880,20 @@
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N1019" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O1019" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P1019" t="n">
-        <v>4271</v>
+        <v>12000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>237</v>
+        <v>667</v>
       </c>
       <c r="T1019" t="n">
         <v>18</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81960,20 +81960,20 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="N1020" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1020" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P1020" t="n">
-        <v>3241</v>
+        <v>12000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>180</v>
+        <v>667</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="N1021" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1021" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P1021" t="n">
-        <v>3226</v>
+        <v>4280</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="T1021" t="n">
         <v>18</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="N1022" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1022" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1022" t="n">
-        <v>2300</v>
+        <v>4231</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="T1022" t="n">
         <v>18</v>
@@ -82167,68 +82167,788 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1023" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1023" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1023" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1023" t="n">
+        <v>450</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>3289</v>
+      </c>
+      <c r="Q1023" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1023" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1023" t="n">
+        <v>183</v>
+      </c>
+      <c r="T1023" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1024" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1024" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1024" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1024" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1024" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1024" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1024" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1024" t="n">
+        <v>620</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>3274</v>
+      </c>
+      <c r="Q1024" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1024" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1024" t="n">
+        <v>182</v>
+      </c>
+      <c r="T1024" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1025" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1025" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1025" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1025" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1025" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1025" t="n">
+        <v>360</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>2292</v>
+      </c>
+      <c r="Q1025" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1025" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1025" t="n">
+        <v>127</v>
+      </c>
+      <c r="T1025" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1026" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1026" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1026" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1026" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1026" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1026" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1026" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1026" t="n">
+        <v>410</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>2293</v>
+      </c>
+      <c r="Q1026" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1026" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1026" t="n">
+        <v>127</v>
+      </c>
+      <c r="T1026" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1027" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1023" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1023" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1023" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1023" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1023" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1023" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1023" t="inlineStr">
+      <c r="E1027" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1027" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1027" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1027" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1027" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1027" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1027" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1027" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>4200</v>
+      </c>
+      <c r="Q1027" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1027" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1027" t="n">
+        <v>233</v>
+      </c>
+      <c r="T1027" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1028" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1028" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1028" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1028" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1028" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1028" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1028" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1028" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>4271</v>
+      </c>
+      <c r="Q1028" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1028" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1028" t="n">
+        <v>237</v>
+      </c>
+      <c r="T1028" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1029" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1029" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1029" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1029" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1029" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1029" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1029" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1029" t="n">
+        <v>540</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>3241</v>
+      </c>
+      <c r="Q1029" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1029" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1029" t="n">
+        <v>180</v>
+      </c>
+      <c r="T1029" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1030" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1030" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1030" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1030" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1030" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1030" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1030" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1030" t="n">
+        <v>620</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>3226</v>
+      </c>
+      <c r="Q1030" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1030" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1030" t="n">
+        <v>179</v>
+      </c>
+      <c r="T1030" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1031" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1031" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1031" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1031" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1031" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1031" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1031" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1023" t="n">
+      <c r="M1031" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q1031" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1031" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1031" t="n">
+        <v>128</v>
+      </c>
+      <c r="T1031" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1032" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1032" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1032" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1032" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1032" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1032" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1032" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1032" t="n">
         <v>440</v>
       </c>
-      <c r="N1023" t="n">
+      <c r="N1032" t="n">
         <v>2000</v>
       </c>
-      <c r="O1023" t="n">
+      <c r="O1032" t="n">
         <v>2500</v>
       </c>
-      <c r="P1023" t="n">
+      <c r="P1032" t="n">
         <v>2284</v>
       </c>
-      <c r="Q1023" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1023" t="inlineStr">
+      <c r="Q1032" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1032" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S1023" t="n">
+      <c r="S1032" t="n">
         <v>127</v>
       </c>
-      <c r="T1023" t="n">
+      <c r="T1032" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1064"/>
+  <dimension ref="A1:T1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78444,16 +78444,16 @@
         </is>
       </c>
       <c r="M976" t="n">
-        <v>250</v>
+        <v>730</v>
       </c>
       <c r="N976" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O976" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P976" t="n">
-        <v>7000</v>
+        <v>4260</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78462,11 +78462,11 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="T976" t="n">
         <v>18</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N977" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="O977" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P977" t="n">
-        <v>6750</v>
+        <v>3231</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78546,7 +78546,7 @@
         </is>
       </c>
       <c r="S977" t="n">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="T977" t="n">
         <v>18</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="N978" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="O978" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P978" t="n">
-        <v>8000</v>
+        <v>2269</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78622,11 +78622,11 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>444</v>
+        <v>126</v>
       </c>
       <c r="T978" t="n">
         <v>18</v>
@@ -78680,11 +78680,11 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N979" t="n">
         <v>7000</v>
@@ -78702,7 +78702,7 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S979" t="n">
@@ -78760,20 +78760,20 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N980" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O980" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P980" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="T980" t="n">
         <v>18</v>
@@ -78840,20 +78840,20 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N981" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O981" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P981" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78862,11 +78862,11 @@
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T981" t="n">
         <v>18</v>
@@ -78920,11 +78920,11 @@
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N982" t="n">
         <v>7000</v>
@@ -78942,7 +78942,7 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S982" t="n">
@@ -79000,20 +79000,20 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M983" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N983" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O983" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P983" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T983" t="n">
         <v>18</v>
@@ -79080,20 +79080,20 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N984" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O984" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P984" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="T984" t="n">
         <v>18</v>
@@ -79160,20 +79160,20 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N985" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O985" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P985" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79182,11 +79182,11 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="T985" t="n">
         <v>18</v>
@@ -79240,11 +79240,11 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N986" t="n">
         <v>6000</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79320,20 +79320,20 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N987" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O987" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="P987" t="n">
-        <v>18459</v>
+        <v>4000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79342,11 +79342,11 @@
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>1026</v>
+        <v>222</v>
       </c>
       <c r="T987" t="n">
         <v>18</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79400,20 +79400,20 @@
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="N988" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O988" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="P988" t="n">
-        <v>16455</v>
+        <v>4000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>914</v>
+        <v>222</v>
       </c>
       <c r="T988" t="n">
         <v>18</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79480,20 +79480,20 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N989" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O989" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P989" t="n">
-        <v>7722</v>
+        <v>6000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="T989" t="n">
         <v>18</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79560,20 +79560,20 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="N990" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O990" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="P990" t="n">
-        <v>9286</v>
+        <v>18459</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79582,11 +79582,11 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>516</v>
+        <v>1026</v>
       </c>
       <c r="T990" t="n">
         <v>18</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79640,20 +79640,20 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="N991" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O991" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P991" t="n">
-        <v>7758</v>
+        <v>16455</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>431</v>
+        <v>914</v>
       </c>
       <c r="T991" t="n">
         <v>18</v>
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79724,16 +79724,16 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N992" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O992" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P992" t="n">
-        <v>6714</v>
+        <v>7722</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79746,7 +79746,7 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="T992" t="n">
         <v>18</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79795,41 +79795,41 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M993" t="n">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="N993" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="O993" t="n">
-        <v>36000</v>
+        <v>9500</v>
       </c>
       <c r="P993" t="n">
-        <v>36000</v>
+        <v>9286</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>1500</v>
+        <v>516</v>
       </c>
       <c r="T993" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="994">
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,20 +79880,20 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="N994" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="O994" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P994" t="n">
-        <v>4500</v>
+        <v>7758</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79906,7 +79906,7 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="T994" t="n">
         <v>18</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79960,20 +79960,20 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N995" t="n">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="O995" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P995" t="n">
-        <v>3500</v>
+        <v>6714</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>194</v>
+        <v>373</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80035,41 +80035,41 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N996" t="n">
-        <v>2500</v>
+        <v>36000</v>
       </c>
       <c r="O996" t="n">
-        <v>2500</v>
+        <v>36000</v>
       </c>
       <c r="P996" t="n">
-        <v>2500</v>
+        <v>36000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>139</v>
+        <v>1500</v>
       </c>
       <c r="T996" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="997">
@@ -80115,41 +80115,41 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N997" t="n">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="O997" t="n">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="P997" t="n">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>1458</v>
+        <v>250</v>
       </c>
       <c r="T997" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="998">
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80200,20 +80200,20 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="N998" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O998" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="P998" t="n">
-        <v>4120</v>
+        <v>3500</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N999" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O999" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="P999" t="n">
-        <v>4133</v>
+        <v>2500</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80355,41 +80355,41 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="N1000" t="n">
-        <v>3000</v>
+        <v>35000</v>
       </c>
       <c r="O1000" t="n">
-        <v>3300</v>
+        <v>35000</v>
       </c>
       <c r="P1000" t="n">
-        <v>3135</v>
+        <v>35000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>174</v>
+        <v>1458</v>
       </c>
       <c r="T1000" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1001">
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="N1001" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1001" t="n">
-        <v>3300</v>
+        <v>4200</v>
       </c>
       <c r="P1001" t="n">
-        <v>3135</v>
+        <v>4120</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80520,20 +80520,20 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1002" t="n">
         <v>450</v>
       </c>
       <c r="N1002" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1002" t="n">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="P1002" t="n">
-        <v>2116</v>
+        <v>4133</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80600,20 +80600,20 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="N1003" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1003" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="P1003" t="n">
-        <v>2177</v>
+        <v>3135</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="T1003" t="n">
         <v>18</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="N1004" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O1004" t="n">
-        <v>18000</v>
+        <v>3300</v>
       </c>
       <c r="P1004" t="n">
-        <v>17545</v>
+        <v>3135</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>975</v>
+        <v>174</v>
       </c>
       <c r="T1004" t="n">
         <v>18</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="N1005" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="O1005" t="n">
-        <v>19000</v>
+        <v>2200</v>
       </c>
       <c r="P1005" t="n">
-        <v>18538</v>
+        <v>2116</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80782,11 +80782,11 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>1030</v>
+        <v>118</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80840,20 +80840,20 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="N1006" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O1006" t="n">
-        <v>15000</v>
+        <v>2300</v>
       </c>
       <c r="P1006" t="n">
-        <v>14487</v>
+        <v>2177</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>805</v>
+        <v>121</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80920,20 +80920,20 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="N1007" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O1007" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P1007" t="n">
-        <v>15536</v>
+        <v>17545</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>863</v>
+        <v>975</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>235</v>
+        <v>520</v>
       </c>
       <c r="N1008" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O1008" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P1008" t="n">
-        <v>9596</v>
+        <v>18538</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>533</v>
+        <v>1030</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="N1009" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1009" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1009" t="n">
-        <v>10491</v>
+        <v>14487</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>583</v>
+        <v>805</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81160,24 +81160,24 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="N1010" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O1010" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P1010" t="n">
-        <v>22000</v>
+        <v>15536</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1010" t="inlineStr">
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>1222</v>
+        <v>863</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N1011" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O1011" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1011" t="n">
-        <v>19583</v>
+        <v>9596</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>1088</v>
+        <v>533</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81320,20 +81320,20 @@
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N1012" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O1012" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P1012" t="n">
-        <v>17533</v>
+        <v>10491</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>974</v>
+        <v>583</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81400,24 +81400,24 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N1013" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O1013" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P1013" t="n">
-        <v>10514</v>
+        <v>22000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>584</v>
+        <v>1222</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81480,33 +81480,33 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N1014" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O1014" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P1014" t="n">
-        <v>25000</v>
+        <v>19583</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>1389</v>
+        <v>1088</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81560,33 +81560,33 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1015" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O1015" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P1015" t="n">
-        <v>25000</v>
+        <v>17533</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>1389</v>
+        <v>974</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81640,11 +81640,11 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N1016" t="n">
         <v>10000</v>
@@ -81653,7 +81653,7 @@
         <v>11000</v>
       </c>
       <c r="P1016" t="n">
-        <v>10541</v>
+        <v>10514</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81720,33 +81720,33 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N1017" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="O1017" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P1017" t="n">
-        <v>7189</v>
+        <v>25000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>399</v>
+        <v>1389</v>
       </c>
       <c r="T1017" t="n">
         <v>18</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,33 +81800,33 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="N1018" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="O1018" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P1018" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>889</v>
+        <v>1389</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81884,16 +81884,16 @@
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="N1019" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O1019" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P1019" t="n">
-        <v>16000</v>
+        <v>10541</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>889</v>
+        <v>586</v>
       </c>
       <c r="T1019" t="n">
         <v>18</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81960,20 +81960,20 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="N1020" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O1020" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="P1020" t="n">
-        <v>17000</v>
+        <v>7189</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>944</v>
+        <v>399</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N1021" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O1021" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P1021" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82066,7 +82066,7 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T1021" t="n">
         <v>18</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="N1022" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O1022" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P1022" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="T1022" t="n">
         <v>18</v>
@@ -82200,20 +82200,20 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N1023" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O1023" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P1023" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82226,7 +82226,7 @@
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T1023" t="n">
         <v>18</v>
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N1024" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1024" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1024" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82306,7 +82306,7 @@
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T1024" t="n">
         <v>18</v>
@@ -82360,20 +82360,20 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N1025" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1025" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P1025" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T1025" t="n">
         <v>18</v>
@@ -82440,20 +82440,20 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1026" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1026" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1026" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82466,7 +82466,7 @@
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T1026" t="n">
         <v>18</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N1027" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O1027" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1027" t="n">
-        <v>6429</v>
+        <v>10000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82542,11 +82542,11 @@
       </c>
       <c r="R1027" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>357</v>
+        <v>556</v>
       </c>
       <c r="T1027" t="n">
         <v>18</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82600,20 +82600,20 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N1028" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O1028" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="P1028" t="n">
-        <v>5292</v>
+        <v>10000</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>294</v>
+        <v>556</v>
       </c>
       <c r="T1028" t="n">
         <v>18</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82680,20 +82680,20 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="N1029" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O1029" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="P1029" t="n">
-        <v>5237</v>
+        <v>12000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>291</v>
+        <v>667</v>
       </c>
       <c r="T1029" t="n">
         <v>18</v>
@@ -82760,20 +82760,20 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="N1030" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1030" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P1030" t="n">
-        <v>4262</v>
+        <v>6429</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82782,11 +82782,11 @@
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="T1030" t="n">
         <v>18</v>
@@ -82840,20 +82840,20 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>590</v>
+        <v>240</v>
       </c>
       <c r="N1031" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1031" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P1031" t="n">
-        <v>4246</v>
+        <v>5292</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82862,11 +82862,11 @@
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="T1031" t="n">
         <v>18</v>
@@ -82920,20 +82920,20 @@
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>370</v>
+        <v>570</v>
       </c>
       <c r="N1032" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O1032" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="P1032" t="n">
-        <v>3230</v>
+        <v>5237</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82942,11 +82942,11 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="T1032" t="n">
         <v>18</v>
@@ -83000,20 +83000,20 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>560</v>
+        <v>400</v>
       </c>
       <c r="N1033" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1033" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P1033" t="n">
-        <v>3268</v>
+        <v>4262</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="T1033" t="n">
         <v>18</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83080,33 +83080,33 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="N1034" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O1034" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="P1034" t="n">
-        <v>18000</v>
+        <v>4246</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>1000</v>
+        <v>236</v>
       </c>
       <c r="T1034" t="n">
         <v>18</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83160,20 +83160,20 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="N1035" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1035" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P1035" t="n">
-        <v>15545</v>
+        <v>3230</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>864</v>
+        <v>179</v>
       </c>
       <c r="T1035" t="n">
         <v>18</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="N1036" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O1036" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1036" t="n">
-        <v>12560</v>
+        <v>3268</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>698</v>
+        <v>182</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83320,24 +83320,24 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="N1037" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O1037" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P1037" t="n">
-        <v>8532</v>
+        <v>18000</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1037" t="inlineStr">
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>474</v>
+        <v>1000</v>
       </c>
       <c r="T1037" t="n">
         <v>18</v>
@@ -83400,33 +83400,33 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="N1038" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O1038" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P1038" t="n">
-        <v>20000</v>
+        <v>15545</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>1111</v>
+        <v>864</v>
       </c>
       <c r="T1038" t="n">
         <v>18</v>
@@ -83480,33 +83480,33 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N1039" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O1039" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P1039" t="n">
-        <v>20000</v>
+        <v>12560</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>1111</v>
+        <v>698</v>
       </c>
       <c r="T1039" t="n">
         <v>18</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83560,20 +83560,20 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>200</v>
+        <v>470</v>
       </c>
       <c r="N1040" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1040" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1040" t="n">
-        <v>7500</v>
+        <v>8532</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="T1040" t="n">
         <v>18</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83640,33 +83640,33 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N1041" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O1041" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P1041" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>389</v>
+        <v>1111</v>
       </c>
       <c r="T1041" t="n">
         <v>18</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83720,33 +83720,33 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N1042" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O1042" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P1042" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>444</v>
+        <v>1111</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1043" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1043" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P1043" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83826,7 +83826,7 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="T1043" t="n">
         <v>18</v>
@@ -83880,20 +83880,20 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N1044" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O1044" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1044" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83906,7 +83906,7 @@
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="T1044" t="n">
         <v>18</v>
@@ -83960,20 +83960,20 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="N1045" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O1045" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P1045" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83986,7 +83986,7 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T1045" t="n">
         <v>18</v>
@@ -84040,20 +84040,20 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N1046" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1046" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P1046" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84066,7 +84066,7 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T1046" t="n">
         <v>18</v>
@@ -84120,11 +84120,11 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1047" t="n">
         <v>5000</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84200,20 +84200,20 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="N1048" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O1048" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P1048" t="n">
-        <v>17472</v>
+        <v>6000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>971</v>
+        <v>333</v>
       </c>
       <c r="T1048" t="n">
         <v>18</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84280,20 +84280,20 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="N1049" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O1049" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="P1049" t="n">
-        <v>18429</v>
+        <v>4000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>1024</v>
+        <v>222</v>
       </c>
       <c r="T1049" t="n">
         <v>18</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84360,20 +84360,20 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="N1050" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O1050" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P1050" t="n">
-        <v>14412</v>
+        <v>5000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>801</v>
+        <v>278</v>
       </c>
       <c r="T1050" t="n">
         <v>18</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>210</v>
+        <v>530</v>
       </c>
       <c r="N1051" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O1051" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P1051" t="n">
-        <v>15429</v>
+        <v>17472</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>857</v>
+        <v>971</v>
       </c>
       <c r="T1051" t="n">
         <v>18</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>680</v>
+        <v>175</v>
       </c>
       <c r="N1052" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O1052" t="n">
-        <v>7500</v>
+        <v>19000</v>
       </c>
       <c r="P1052" t="n">
-        <v>7279</v>
+        <v>18429</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84542,11 +84542,11 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>404</v>
+        <v>1024</v>
       </c>
       <c r="T1052" t="n">
         <v>18</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="N1053" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="O1053" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P1053" t="n">
-        <v>3779</v>
+        <v>14412</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>210</v>
+        <v>801</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>440</v>
+        <v>210</v>
       </c>
       <c r="N1054" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O1054" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P1054" t="n">
-        <v>3795</v>
+        <v>15429</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>211</v>
+        <v>857</v>
       </c>
       <c r="T1054" t="n">
         <v>18</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,20 +84760,20 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="N1055" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O1055" t="n">
-        <v>3200</v>
+        <v>7500</v>
       </c>
       <c r="P1055" t="n">
-        <v>3104</v>
+        <v>7279</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>172</v>
+        <v>404</v>
       </c>
       <c r="T1055" t="n">
         <v>18</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>490</v>
+        <v>680</v>
       </c>
       <c r="N1056" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="O1056" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1056" t="n">
-        <v>2894</v>
+        <v>3779</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84862,11 +84862,11 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="N1057" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="O1057" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P1057" t="n">
-        <v>1914</v>
+        <v>3795</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84942,11 +84942,11 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="T1057" t="n">
         <v>18</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="N1058" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="O1058" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="P1058" t="n">
-        <v>1917</v>
+        <v>3104</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="T1058" t="n">
         <v>18</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,20 +85080,20 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="N1059" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="O1059" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P1059" t="n">
-        <v>15000</v>
+        <v>2894</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>833</v>
+        <v>161</v>
       </c>
       <c r="T1059" t="n">
         <v>18</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85160,20 +85160,20 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="N1060" t="n">
-        <v>16000</v>
+        <v>1800</v>
       </c>
       <c r="O1060" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="P1060" t="n">
-        <v>16000</v>
+        <v>1914</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>889</v>
+        <v>106</v>
       </c>
       <c r="T1060" t="n">
         <v>18</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,20 +85240,20 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N1061" t="n">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="O1061" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1061" t="n">
-        <v>13000</v>
+        <v>1917</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85262,11 +85262,11 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>722</v>
+        <v>106</v>
       </c>
       <c r="T1061" t="n">
         <v>18</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="N1062" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1062" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1062" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T1062" t="n">
         <v>18</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="N1063" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O1063" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P1063" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85480,35 +85480,275 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1064" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q1064" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1064" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1064" t="n">
+        <v>722</v>
+      </c>
+      <c r="T1064" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1065" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1065" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1065" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1065" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1065" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1065" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1065" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1065" t="n">
+        <v>170</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1065" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1065" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1065" t="n">
+        <v>778</v>
+      </c>
+      <c r="T1065" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1066" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1066" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1066" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1066" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1066" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1066" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1066" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1066" t="n">
+        <v>280</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q1066" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1066" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1066" t="n">
+        <v>444</v>
+      </c>
+      <c r="T1066" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1067" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1067" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1067" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1067" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1067" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1067" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1067" t="inlineStr">
+        <is>
           <t>3a plateado</t>
         </is>
       </c>
-      <c r="M1064" t="n">
+      <c r="M1067" t="n">
         <v>200</v>
       </c>
-      <c r="N1064" t="n">
+      <c r="N1067" t="n">
         <v>9000</v>
       </c>
-      <c r="O1064" t="n">
+      <c r="O1067" t="n">
         <v>9000</v>
       </c>
-      <c r="P1064" t="n">
+      <c r="P1067" t="n">
         <v>9000</v>
       </c>
-      <c r="Q1064" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1064" t="inlineStr">
+      <c r="Q1067" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1067" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S1064" t="n">
+      <c r="S1067" t="n">
         <v>500</v>
       </c>
-      <c r="T1064" t="n">
+      <c r="T1067" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1096"/>
+  <dimension ref="A1:T1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -75475,41 +75475,41 @@
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M939" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="N939" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="O939" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="P939" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R939" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S939" t="n">
-        <v>1250</v>
+        <v>333</v>
       </c>
       <c r="T939" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="940">
@@ -75527,7 +75527,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -75564,16 +75564,16 @@
         </is>
       </c>
       <c r="M940" t="n">
-        <v>215</v>
+        <v>580</v>
       </c>
       <c r="N940" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="O940" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P940" t="n">
-        <v>3912</v>
+        <v>4741</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
@@ -75582,11 +75582,11 @@
       </c>
       <c r="R940" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S940" t="n">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="T940" t="n">
         <v>18</v>
@@ -75607,7 +75607,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -75644,29 +75644,29 @@
         </is>
       </c>
       <c r="M941" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N941" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O941" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="P941" t="n">
-        <v>3107</v>
+        <v>4000</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="T941" t="n">
         <v>18</v>
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -75720,20 +75720,20 @@
       </c>
       <c r="L942" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M942" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N942" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="O942" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="P942" t="n">
-        <v>1890</v>
+        <v>3300</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75742,11 +75742,11 @@
       </c>
       <c r="R942" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S942" t="n">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="T942" t="n">
         <v>18</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -75795,41 +75795,41 @@
       </c>
       <c r="K943" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M943" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="N943" t="n">
-        <v>32000</v>
+        <v>3000</v>
       </c>
       <c r="O943" t="n">
-        <v>32000</v>
+        <v>3000</v>
       </c>
       <c r="P943" t="n">
-        <v>32000</v>
+        <v>3000</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R943" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S943" t="n">
-        <v>1333</v>
+        <v>167</v>
       </c>
       <c r="T943" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="944">
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -75880,20 +75880,20 @@
       </c>
       <c r="L944" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M944" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="N944" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="O944" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P944" t="n">
-        <v>5778</v>
+        <v>2250</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
@@ -75902,11 +75902,11 @@
       </c>
       <c r="R944" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S944" t="n">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="T944" t="n">
         <v>18</v>
@@ -75927,7 +75927,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -75955,41 +75955,41 @@
       </c>
       <c r="K945" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L945" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M945" t="n">
-        <v>480</v>
+        <v>35</v>
       </c>
       <c r="N945" t="n">
-        <v>5500</v>
+        <v>30000</v>
       </c>
       <c r="O945" t="n">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="P945" t="n">
-        <v>5792</v>
+        <v>30000</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R945" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S945" t="n">
-        <v>322</v>
+        <v>1250</v>
       </c>
       <c r="T945" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="946">
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -76040,20 +76040,20 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M946" t="n">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="N946" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="O946" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P946" t="n">
-        <v>4779</v>
+        <v>3912</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76062,11 +76062,11 @@
       </c>
       <c r="R946" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S946" t="n">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="T946" t="n">
         <v>18</v>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -76120,20 +76120,20 @@
       </c>
       <c r="L947" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M947" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N947" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O947" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P947" t="n">
-        <v>4727</v>
+        <v>3107</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76142,11 +76142,11 @@
       </c>
       <c r="R947" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S947" t="n">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="T947" t="n">
         <v>18</v>
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -76204,16 +76204,16 @@
         </is>
       </c>
       <c r="M948" t="n">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="N948" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="O948" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="P948" t="n">
-        <v>3278</v>
+        <v>1890</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
@@ -76222,11 +76222,11 @@
       </c>
       <c r="R948" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S948" t="n">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="T948" t="n">
         <v>18</v>
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -76275,41 +76275,41 @@
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M949" t="n">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="N949" t="n">
-        <v>3000</v>
+        <v>32000</v>
       </c>
       <c r="O949" t="n">
-        <v>3500</v>
+        <v>32000</v>
       </c>
       <c r="P949" t="n">
-        <v>3206</v>
+        <v>32000</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>178</v>
+        <v>1333</v>
       </c>
       <c r="T949" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="950">
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -76364,16 +76364,16 @@
         </is>
       </c>
       <c r="M950" t="n">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="N950" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="O950" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P950" t="n">
-        <v>13615</v>
+        <v>5778</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76382,11 +76382,11 @@
       </c>
       <c r="R950" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S950" t="n">
-        <v>756</v>
+        <v>321</v>
       </c>
       <c r="T950" t="n">
         <v>18</v>
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -76444,29 +76444,29 @@
         </is>
       </c>
       <c r="M951" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="N951" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O951" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P951" t="n">
-        <v>19455</v>
+        <v>5792</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>1081</v>
+        <v>322</v>
       </c>
       <c r="T951" t="n">
         <v>18</v>
@@ -76487,7 +76487,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -76520,20 +76520,20 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M952" t="n">
-        <v>630</v>
+        <v>340</v>
       </c>
       <c r="N952" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O952" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P952" t="n">
-        <v>14556</v>
+        <v>4779</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
@@ -76542,11 +76542,11 @@
       </c>
       <c r="R952" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S952" t="n">
-        <v>809</v>
+        <v>266</v>
       </c>
       <c r="T952" t="n">
         <v>18</v>
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -76600,20 +76600,20 @@
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M953" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="N953" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O953" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P953" t="n">
-        <v>10559</v>
+        <v>4727</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
@@ -76622,11 +76622,11 @@
       </c>
       <c r="R953" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S953" t="n">
-        <v>587</v>
+        <v>263</v>
       </c>
       <c r="T953" t="n">
         <v>18</v>
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -76680,20 +76680,20 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M954" t="n">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="N954" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O954" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P954" t="n">
-        <v>11517</v>
+        <v>3278</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
@@ -76702,11 +76702,11 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S954" t="n">
-        <v>640</v>
+        <v>182</v>
       </c>
       <c r="T954" t="n">
         <v>18</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -76760,20 +76760,20 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N955" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O955" t="n">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="P955" t="n">
-        <v>6433</v>
+        <v>3206</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
@@ -76782,11 +76782,11 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>357</v>
+        <v>178</v>
       </c>
       <c r="T955" t="n">
         <v>18</v>
@@ -76840,20 +76840,20 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M956" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="N956" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O956" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P956" t="n">
-        <v>7591</v>
+        <v>13615</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
@@ -76862,11 +76862,11 @@
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S956" t="n">
-        <v>422</v>
+        <v>756</v>
       </c>
       <c r="T956" t="n">
         <v>18</v>
@@ -76920,20 +76920,20 @@
       </c>
       <c r="L957" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M957" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N957" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O957" t="n">
         <v>20000</v>
       </c>
       <c r="P957" t="n">
-        <v>20000</v>
+        <v>19455</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76942,11 +76942,11 @@
       </c>
       <c r="R957" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S957" t="n">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="T957" t="n">
         <v>18</v>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -77000,20 +77000,20 @@
       </c>
       <c r="L958" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M958" t="n">
-        <v>240</v>
+        <v>630</v>
       </c>
       <c r="N958" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O958" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P958" t="n">
-        <v>17583</v>
+        <v>14556</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77022,11 +77022,11 @@
       </c>
       <c r="R958" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S958" t="n">
-        <v>977</v>
+        <v>809</v>
       </c>
       <c r="T958" t="n">
         <v>18</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -77080,33 +77080,33 @@
       </c>
       <c r="L959" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M959" t="n">
-        <v>100</v>
+        <v>680</v>
       </c>
       <c r="N959" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O959" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P959" t="n">
-        <v>20000</v>
+        <v>10559</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R959" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S959" t="n">
-        <v>1111</v>
+        <v>587</v>
       </c>
       <c r="T959" t="n">
         <v>18</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -77160,20 +77160,20 @@
       </c>
       <c r="L960" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M960" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="N960" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O960" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P960" t="n">
-        <v>18550</v>
+        <v>11517</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77186,7 +77186,7 @@
         </is>
       </c>
       <c r="S960" t="n">
-        <v>1031</v>
+        <v>640</v>
       </c>
       <c r="T960" t="n">
         <v>18</v>
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -77240,20 +77240,20 @@
       </c>
       <c r="L961" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M961" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N961" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O961" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P961" t="n">
-        <v>14455</v>
+        <v>6433</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77262,11 +77262,11 @@
       </c>
       <c r="R961" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S961" t="n">
-        <v>803</v>
+        <v>357</v>
       </c>
       <c r="T961" t="n">
         <v>18</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -77320,20 +77320,20 @@
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M962" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="N962" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O962" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P962" t="n">
-        <v>15556</v>
+        <v>7591</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77346,7 +77346,7 @@
         </is>
       </c>
       <c r="S962" t="n">
-        <v>864</v>
+        <v>422</v>
       </c>
       <c r="T962" t="n">
         <v>18</v>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -77400,33 +77400,33 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N963" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O963" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P963" t="n">
-        <v>7280</v>
+        <v>20000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>404</v>
+        <v>1111</v>
       </c>
       <c r="T963" t="n">
         <v>18</v>
@@ -77480,20 +77480,20 @@
       </c>
       <c r="L964" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M964" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N964" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O964" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="P964" t="n">
-        <v>8273</v>
+        <v>17583</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>460</v>
+        <v>977</v>
       </c>
       <c r="T964" t="n">
         <v>18</v>
@@ -77560,33 +77560,33 @@
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N965" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O965" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P965" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>1389</v>
+        <v>1111</v>
       </c>
       <c r="T965" t="n">
         <v>18</v>
@@ -77640,33 +77640,33 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="N966" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="O966" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P966" t="n">
-        <v>25000</v>
+        <v>18550</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>1389</v>
+        <v>1031</v>
       </c>
       <c r="T966" t="n">
         <v>18</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -77720,20 +77720,20 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="N967" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O967" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P967" t="n">
-        <v>7000</v>
+        <v>14455</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77742,11 +77742,11 @@
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S967" t="n">
-        <v>389</v>
+        <v>803</v>
       </c>
       <c r="T967" t="n">
         <v>18</v>
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -77800,20 +77800,20 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N968" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O968" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P968" t="n">
-        <v>7000</v>
+        <v>15556</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77822,11 +77822,11 @@
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>389</v>
+        <v>864</v>
       </c>
       <c r="T968" t="n">
         <v>18</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -77880,7 +77880,7 @@
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M969" t="n">
@@ -77890,10 +77890,10 @@
         <v>7000</v>
       </c>
       <c r="O969" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P969" t="n">
-        <v>7000</v>
+        <v>7280</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77902,11 +77902,11 @@
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S969" t="n">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="T969" t="n">
         <v>18</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -77960,20 +77960,20 @@
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N970" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O970" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="P970" t="n">
-        <v>5000</v>
+        <v>8273</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>278</v>
+        <v>460</v>
       </c>
       <c r="T970" t="n">
         <v>18</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -78040,33 +78040,33 @@
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N971" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O971" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="P971" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>278</v>
+        <v>1389</v>
       </c>
       <c r="T971" t="n">
         <v>18</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -78120,33 +78120,33 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N972" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O972" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="P972" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>278</v>
+        <v>1389</v>
       </c>
       <c r="T972" t="n">
         <v>18</v>
@@ -78200,20 +78200,20 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N973" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O973" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P973" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78226,7 +78226,7 @@
         </is>
       </c>
       <c r="S973" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="T973" t="n">
         <v>18</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -78284,16 +78284,16 @@
         </is>
       </c>
       <c r="M974" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N974" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O974" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="P974" t="n">
-        <v>8281</v>
+        <v>7000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78302,11 +78302,11 @@
       </c>
       <c r="R974" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S974" t="n">
-        <v>460</v>
+        <v>389</v>
       </c>
       <c r="T974" t="n">
         <v>18</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -78364,16 +78364,16 @@
         </is>
       </c>
       <c r="M975" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="N975" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O975" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P975" t="n">
-        <v>9291</v>
+        <v>7000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78382,11 +78382,11 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S975" t="n">
-        <v>516</v>
+        <v>389</v>
       </c>
       <c r="T975" t="n">
         <v>18</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78444,16 +78444,16 @@
         </is>
       </c>
       <c r="M976" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="N976" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O976" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="P976" t="n">
-        <v>6237</v>
+        <v>5000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78462,11 +78462,11 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="T976" t="n">
         <v>18</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M977" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="N977" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O977" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P977" t="n">
-        <v>6833</v>
+        <v>5000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78542,11 +78542,11 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>380</v>
+        <v>278</v>
       </c>
       <c r="T977" t="n">
         <v>18</v>
@@ -78567,7 +78567,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N978" t="n">
         <v>5000</v>
       </c>
       <c r="O978" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="P978" t="n">
-        <v>5291</v>
+        <v>5000</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78622,11 +78622,11 @@
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="T978" t="n">
         <v>18</v>
@@ -78647,7 +78647,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -78680,20 +78680,20 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="N979" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="O979" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P979" t="n">
-        <v>9791</v>
+        <v>4000</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>544</v>
+        <v>222</v>
       </c>
       <c r="T979" t="n">
         <v>18</v>
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -78760,20 +78760,20 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="N980" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O980" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P980" t="n">
-        <v>10000</v>
+        <v>8281</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>556</v>
+        <v>460</v>
       </c>
       <c r="T980" t="n">
         <v>18</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -78840,20 +78840,20 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="N981" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="O981" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="P981" t="n">
-        <v>6726</v>
+        <v>9291</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78862,11 +78862,11 @@
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>374</v>
+        <v>516</v>
       </c>
       <c r="T981" t="n">
         <v>18</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -78920,20 +78920,20 @@
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N982" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O982" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P982" t="n">
-        <v>8000</v>
+        <v>6237</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78942,11 +78942,11 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="T982" t="n">
         <v>18</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -79000,20 +79000,20 @@
       </c>
       <c r="L983" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M983" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="N983" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="O983" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P983" t="n">
-        <v>4770</v>
+        <v>6833</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="T983" t="n">
         <v>18</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79080,20 +79080,20 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="N984" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O984" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P984" t="n">
-        <v>6000</v>
+        <v>5291</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Provincia de Petorca</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="T984" t="n">
         <v>18</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79164,16 +79164,16 @@
         </is>
       </c>
       <c r="M985" t="n">
-        <v>150</v>
+        <v>670</v>
       </c>
       <c r="N985" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="O985" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P985" t="n">
-        <v>6000</v>
+        <v>9791</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79182,11 +79182,11 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>333</v>
+        <v>544</v>
       </c>
       <c r="T985" t="n">
         <v>18</v>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79240,20 +79240,20 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="N986" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O986" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P986" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T986" t="n">
         <v>18</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79320,20 +79320,20 @@
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>140</v>
+        <v>620</v>
       </c>
       <c r="N987" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O987" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P987" t="n">
-        <v>6000</v>
+        <v>6726</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
@@ -79342,11 +79342,11 @@
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="T987" t="n">
         <v>18</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79400,20 +79400,20 @@
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M988" t="n">
         <v>150</v>
       </c>
       <c r="N988" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O988" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P988" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T988" t="n">
         <v>18</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79480,20 +79480,20 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="N989" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O989" t="n">
         <v>5000</v>
       </c>
       <c r="P989" t="n">
-        <v>5000</v>
+        <v>4770</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="T989" t="n">
         <v>18</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79560,20 +79560,20 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N990" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O990" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P990" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79582,11 +79582,11 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>278</v>
+        <v>333</v>
       </c>
       <c r="T990" t="n">
         <v>18</v>
@@ -79640,20 +79640,20 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N991" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O991" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P991" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T991" t="n">
         <v>18</v>
@@ -79720,20 +79720,20 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N992" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O992" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P992" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T992" t="n">
         <v>18</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79804,16 +79804,16 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="N993" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O993" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P993" t="n">
-        <v>15526</v>
+        <v>6000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
@@ -79822,11 +79822,11 @@
       </c>
       <c r="R993" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S993" t="n">
-        <v>863</v>
+        <v>333</v>
       </c>
       <c r="T993" t="n">
         <v>18</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79884,16 +79884,16 @@
         </is>
       </c>
       <c r="M994" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="N994" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O994" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P994" t="n">
-        <v>13562</v>
+        <v>5000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79906,7 +79906,7 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>753</v>
+        <v>278</v>
       </c>
       <c r="T994" t="n">
         <v>18</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79960,20 +79960,20 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M995" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N995" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O995" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P995" t="n">
-        <v>8571</v>
+        <v>5000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79982,11 +79982,11 @@
       </c>
       <c r="R995" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S995" t="n">
-        <v>476</v>
+        <v>278</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80040,33 +80040,33 @@
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N996" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O996" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P996" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>1000</v>
+        <v>278</v>
       </c>
       <c r="T996" t="n">
         <v>18</v>
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80120,20 +80120,20 @@
       </c>
       <c r="L997" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M997" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="N997" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O997" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="P997" t="n">
-        <v>17556</v>
+        <v>4000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80142,11 +80142,11 @@
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>975</v>
+        <v>222</v>
       </c>
       <c r="T997" t="n">
         <v>18</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80200,20 +80200,20 @@
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N998" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O998" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="P998" t="n">
-        <v>18429</v>
+        <v>4000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>1024</v>
+        <v>222</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="N999" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O999" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P999" t="n">
-        <v>14579</v>
+        <v>15526</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>810</v>
+        <v>863</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,20 +80360,20 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="N1000" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O1000" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P1000" t="n">
-        <v>15560</v>
+        <v>13562</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80386,7 +80386,7 @@
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="T1000" t="n">
         <v>18</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80444,16 +80444,16 @@
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N1001" t="n">
         <v>8000</v>
       </c>
       <c r="O1001" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="P1001" t="n">
-        <v>8222</v>
+        <v>8571</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80520,33 +80520,33 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="N1002" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O1002" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P1002" t="n">
-        <v>11786</v>
+        <v>18000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>655</v>
+        <v>1000</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80600,20 +80600,20 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>210</v>
+        <v>450</v>
       </c>
       <c r="N1003" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O1003" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P1003" t="n">
-        <v>7714</v>
+        <v>17556</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>429</v>
+        <v>975</v>
       </c>
       <c r="T1003" t="n">
         <v>18</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="N1004" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O1004" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="P1004" t="n">
-        <v>4242</v>
+        <v>18429</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>236</v>
+        <v>1024</v>
       </c>
       <c r="T1004" t="n">
         <v>18</v>
@@ -80727,7 +80727,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>730</v>
+        <v>190</v>
       </c>
       <c r="N1005" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1005" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P1005" t="n">
-        <v>4260</v>
+        <v>14579</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80782,11 +80782,11 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>237</v>
+        <v>810</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80807,7 +80807,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -80840,20 +80840,20 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="N1006" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1006" t="n">
-        <v>3500</v>
+        <v>16000</v>
       </c>
       <c r="P1006" t="n">
-        <v>3231</v>
+        <v>15560</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>180</v>
+        <v>864</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80924,16 +80924,16 @@
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>650</v>
+        <v>180</v>
       </c>
       <c r="N1007" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="O1007" t="n">
-        <v>2500</v>
+        <v>8500</v>
       </c>
       <c r="P1007" t="n">
-        <v>2269</v>
+        <v>8222</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80942,11 +80942,11 @@
       </c>
       <c r="R1007" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>126</v>
+        <v>457</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="N1008" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="O1008" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P1008" t="n">
-        <v>7000</v>
+        <v>11786</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>389</v>
+        <v>655</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N1009" t="n">
-        <v>6500</v>
+        <v>7500</v>
       </c>
       <c r="O1009" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1009" t="n">
-        <v>6750</v>
+        <v>7714</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="N1010" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O1010" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P1010" t="n">
-        <v>8000</v>
+        <v>4242</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81186,7 +81186,7 @@
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>444</v>
+        <v>236</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>200</v>
+        <v>730</v>
       </c>
       <c r="N1011" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O1011" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="P1011" t="n">
-        <v>7000</v>
+        <v>4260</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81324,16 +81324,16 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N1012" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O1012" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P1012" t="n">
-        <v>5000</v>
+        <v>3231</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81400,20 +81400,20 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="N1013" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="O1013" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="P1013" t="n">
-        <v>5000</v>
+        <v>2269</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>278</v>
+        <v>126</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81480,11 +81480,11 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1014" t="n">
         <v>7000</v>
@@ -81502,7 +81502,7 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1014" t="n">
@@ -81560,20 +81560,20 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1015" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O1015" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P1015" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81640,20 +81640,20 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1016" t="n">
         <v>150</v>
       </c>
       <c r="N1016" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O1016" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P1016" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81720,20 +81720,20 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N1017" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1017" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1017" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81746,7 +81746,7 @@
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="T1017" t="n">
         <v>18</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N1018" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1018" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P1018" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81880,20 +81880,20 @@
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="N1019" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O1019" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="P1019" t="n">
-        <v>18459</v>
+        <v>5000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>1026</v>
+        <v>278</v>
       </c>
       <c r="T1019" t="n">
         <v>18</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81964,16 +81964,16 @@
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="N1020" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O1020" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P1020" t="n">
-        <v>16455</v>
+        <v>7000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>914</v>
+        <v>389</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N1021" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O1021" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P1021" t="n">
-        <v>7722</v>
+        <v>6000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="T1021" t="n">
         <v>18</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N1022" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O1022" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="P1022" t="n">
-        <v>9286</v>
+        <v>4000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>516</v>
+        <v>222</v>
       </c>
       <c r="T1022" t="n">
         <v>18</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82200,20 +82200,20 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="N1023" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O1023" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P1023" t="n">
-        <v>7758</v>
+        <v>4000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82222,11 +82222,11 @@
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="T1023" t="n">
         <v>18</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N1024" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="O1024" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P1024" t="n">
-        <v>6714</v>
+        <v>6000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82302,11 +82302,11 @@
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="T1024" t="n">
         <v>18</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82355,41 +82355,41 @@
       </c>
       <c r="K1025" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="N1025" t="n">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="O1025" t="n">
-        <v>36000</v>
+        <v>19000</v>
       </c>
       <c r="P1025" t="n">
-        <v>36000</v>
+        <v>18459</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>1500</v>
+        <v>1026</v>
       </c>
       <c r="T1025" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1026">
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82440,20 +82440,20 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="N1026" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O1026" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P1026" t="n">
-        <v>4500</v>
+        <v>16455</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>250</v>
+        <v>914</v>
       </c>
       <c r="T1026" t="n">
         <v>18</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N1027" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O1027" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P1027" t="n">
-        <v>3500</v>
+        <v>7722</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="T1027" t="n">
         <v>18</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82600,20 +82600,20 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="N1028" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="O1028" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="P1028" t="n">
-        <v>2500</v>
+        <v>9286</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>139</v>
+        <v>516</v>
       </c>
       <c r="T1028" t="n">
         <v>18</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82675,41 +82675,41 @@
       </c>
       <c r="K1029" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="N1029" t="n">
-        <v>35000</v>
+        <v>7500</v>
       </c>
       <c r="O1029" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="P1029" t="n">
-        <v>35000</v>
+        <v>7758</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>1458</v>
+        <v>431</v>
       </c>
       <c r="T1029" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1030">
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82760,20 +82760,20 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="N1030" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O1030" t="n">
-        <v>4200</v>
+        <v>7000</v>
       </c>
       <c r="P1030" t="n">
-        <v>4120</v>
+        <v>6714</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="T1030" t="n">
         <v>18</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82835,41 +82835,41 @@
       </c>
       <c r="K1031" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="N1031" t="n">
-        <v>4000</v>
+        <v>36000</v>
       </c>
       <c r="O1031" t="n">
-        <v>4300</v>
+        <v>36000</v>
       </c>
       <c r="P1031" t="n">
-        <v>4133</v>
+        <v>36000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>230</v>
+        <v>1500</v>
       </c>
       <c r="T1031" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1032">
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82920,20 +82920,20 @@
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N1032" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O1032" t="n">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="P1032" t="n">
-        <v>3135</v>
+        <v>4500</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="T1032" t="n">
         <v>18</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -83004,16 +83004,16 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N1033" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="O1033" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="P1033" t="n">
-        <v>3135</v>
+        <v>3500</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="T1033" t="n">
         <v>18</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83084,16 +83084,16 @@
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N1034" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="O1034" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="P1034" t="n">
-        <v>2116</v>
+        <v>2500</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="T1034" t="n">
         <v>18</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,41 +83155,41 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="N1035" t="n">
-        <v>2000</v>
+        <v>35000</v>
       </c>
       <c r="O1035" t="n">
-        <v>2300</v>
+        <v>35000</v>
       </c>
       <c r="P1035" t="n">
-        <v>2177</v>
+        <v>35000</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>121</v>
+        <v>1458</v>
       </c>
       <c r="T1035" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1036">
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83244,16 +83244,16 @@
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="N1036" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O1036" t="n">
-        <v>18000</v>
+        <v>4200</v>
       </c>
       <c r="P1036" t="n">
-        <v>17545</v>
+        <v>4120</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>975</v>
+        <v>229</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83320,20 +83320,20 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="N1037" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O1037" t="n">
-        <v>19000</v>
+        <v>4300</v>
       </c>
       <c r="P1037" t="n">
-        <v>18538</v>
+        <v>4133</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>1030</v>
+        <v>230</v>
       </c>
       <c r="T1037" t="n">
         <v>18</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83404,16 +83404,16 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="N1038" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1038" t="n">
-        <v>15000</v>
+        <v>3300</v>
       </c>
       <c r="P1038" t="n">
-        <v>14487</v>
+        <v>3135</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83422,11 +83422,11 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>805</v>
+        <v>174</v>
       </c>
       <c r="T1038" t="n">
         <v>18</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83480,20 +83480,20 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="N1039" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1039" t="n">
-        <v>16000</v>
+        <v>3300</v>
       </c>
       <c r="P1039" t="n">
-        <v>15536</v>
+        <v>3135</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83502,11 +83502,11 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>863</v>
+        <v>174</v>
       </c>
       <c r="T1039" t="n">
         <v>18</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>235</v>
+        <v>450</v>
       </c>
       <c r="N1040" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="O1040" t="n">
-        <v>10000</v>
+        <v>2200</v>
       </c>
       <c r="P1040" t="n">
-        <v>9596</v>
+        <v>2116</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>533</v>
+        <v>118</v>
       </c>
       <c r="T1040" t="n">
         <v>18</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83640,20 +83640,20 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>550</v>
+        <v>440</v>
       </c>
       <c r="N1041" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="O1041" t="n">
-        <v>11000</v>
+        <v>2300</v>
       </c>
       <c r="P1041" t="n">
-        <v>10491</v>
+        <v>2177</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>583</v>
+        <v>121</v>
       </c>
       <c r="T1041" t="n">
         <v>18</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83720,33 +83720,33 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N1042" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O1042" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P1042" t="n">
-        <v>22000</v>
+        <v>17545</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>1222</v>
+        <v>975</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83804,16 +83804,16 @@
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>240</v>
+        <v>520</v>
       </c>
       <c r="N1043" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O1043" t="n">
         <v>19000</v>
       </c>
-      <c r="O1043" t="n">
-        <v>20000</v>
-      </c>
       <c r="P1043" t="n">
-        <v>19583</v>
+        <v>18538</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83826,7 +83826,7 @@
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>1088</v>
+        <v>1030</v>
       </c>
       <c r="T1043" t="n">
         <v>18</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83880,20 +83880,20 @@
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="N1044" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O1044" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P1044" t="n">
-        <v>17533</v>
+        <v>14487</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>974</v>
+        <v>805</v>
       </c>
       <c r="T1044" t="n">
         <v>18</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83960,20 +83960,20 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>175</v>
+        <v>560</v>
       </c>
       <c r="N1045" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1045" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P1045" t="n">
-        <v>10514</v>
+        <v>15536</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83986,7 +83986,7 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>584</v>
+        <v>863</v>
       </c>
       <c r="T1045" t="n">
         <v>18</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84040,33 +84040,33 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="N1046" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O1046" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P1046" t="n">
-        <v>25000</v>
+        <v>9596</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>1389</v>
+        <v>533</v>
       </c>
       <c r="T1046" t="n">
         <v>18</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84120,33 +84120,33 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N1047" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O1047" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P1047" t="n">
-        <v>25000</v>
+        <v>10491</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>1389</v>
+        <v>583</v>
       </c>
       <c r="T1047" t="n">
         <v>18</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84200,33 +84200,33 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="N1048" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O1048" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P1048" t="n">
-        <v>10541</v>
+        <v>22000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>586</v>
+        <v>1222</v>
       </c>
       <c r="T1048" t="n">
         <v>18</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84280,20 +84280,20 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="N1049" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O1049" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P1049" t="n">
-        <v>7189</v>
+        <v>19583</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>399</v>
+        <v>1088</v>
       </c>
       <c r="T1049" t="n">
         <v>18</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84360,20 +84360,20 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="N1050" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O1050" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P1050" t="n">
-        <v>16000</v>
+        <v>17533</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>889</v>
+        <v>974</v>
       </c>
       <c r="T1050" t="n">
         <v>18</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="N1051" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O1051" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P1051" t="n">
-        <v>16000</v>
+        <v>10514</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>889</v>
+        <v>584</v>
       </c>
       <c r="T1051" t="n">
         <v>18</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84520,33 +84520,33 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1052" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O1052" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P1052" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>944</v>
+        <v>1389</v>
       </c>
       <c r="T1052" t="n">
         <v>18</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,33 +84600,33 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N1053" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O1053" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P1053" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>722</v>
+        <v>1389</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N1054" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O1054" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P1054" t="n">
-        <v>13000</v>
+        <v>10541</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>722</v>
+        <v>586</v>
       </c>
       <c r="T1054" t="n">
         <v>18</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,20 +84760,20 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="N1055" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O1055" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P1055" t="n">
-        <v>14000</v>
+        <v>7189</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84782,11 +84782,11 @@
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>778</v>
+        <v>399</v>
       </c>
       <c r="T1055" t="n">
         <v>18</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N1056" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1056" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1056" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N1057" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1057" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1057" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T1057" t="n">
         <v>18</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1058" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1058" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1058" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T1058" t="n">
         <v>18</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,20 +85080,20 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N1059" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O1059" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P1059" t="n">
-        <v>6429</v>
+        <v>13000</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>357</v>
+        <v>722</v>
       </c>
       <c r="T1059" t="n">
         <v>18</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85160,20 +85160,20 @@
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N1060" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O1060" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="P1060" t="n">
-        <v>5292</v>
+        <v>13000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85186,7 +85186,7 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>294</v>
+        <v>722</v>
       </c>
       <c r="T1060" t="n">
         <v>18</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,20 +85240,20 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>570</v>
+        <v>120</v>
       </c>
       <c r="N1061" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O1061" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="P1061" t="n">
-        <v>5237</v>
+        <v>14000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85262,11 +85262,11 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>291</v>
+        <v>778</v>
       </c>
       <c r="T1061" t="n">
         <v>18</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N1062" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1062" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1062" t="n">
-        <v>4262</v>
+        <v>10000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>237</v>
+        <v>556</v>
       </c>
       <c r="T1062" t="n">
         <v>18</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>590</v>
+        <v>120</v>
       </c>
       <c r="N1063" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1063" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1063" t="n">
-        <v>4246</v>
+        <v>10000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>236</v>
+        <v>556</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85480,20 +85480,20 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="N1064" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1064" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P1064" t="n">
-        <v>3230</v>
+        <v>12000</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>179</v>
+        <v>667</v>
       </c>
       <c r="T1064" t="n">
         <v>18</v>
@@ -85560,20 +85560,20 @@
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>560</v>
+        <v>70</v>
       </c>
       <c r="N1065" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O1065" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="P1065" t="n">
-        <v>3268</v>
+        <v>6429</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85582,11 +85582,11 @@
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="T1065" t="n">
         <v>18</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,33 +85640,33 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="N1066" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O1066" t="n">
-        <v>18000</v>
+        <v>5500</v>
       </c>
       <c r="P1066" t="n">
-        <v>18000</v>
+        <v>5292</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>1000</v>
+        <v>294</v>
       </c>
       <c r="T1066" t="n">
         <v>18</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85724,16 +85724,16 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="N1067" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O1067" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="P1067" t="n">
-        <v>15545</v>
+        <v>5237</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85742,11 +85742,11 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>864</v>
+        <v>291</v>
       </c>
       <c r="T1067" t="n">
         <v>18</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N1068" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O1068" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="P1068" t="n">
-        <v>12560</v>
+        <v>4262</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>698</v>
+        <v>237</v>
       </c>
       <c r="T1068" t="n">
         <v>18</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85880,20 +85880,20 @@
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>470</v>
+        <v>590</v>
       </c>
       <c r="N1069" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O1069" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P1069" t="n">
-        <v>8532</v>
+        <v>4246</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>474</v>
+        <v>236</v>
       </c>
       <c r="T1069" t="n">
         <v>18</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85960,33 +85960,33 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="N1070" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O1070" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P1070" t="n">
-        <v>20000</v>
+        <v>3230</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>1111</v>
+        <v>179</v>
       </c>
       <c r="T1070" t="n">
         <v>18</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86040,33 +86040,33 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="N1071" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O1071" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="P1071" t="n">
-        <v>20000</v>
+        <v>3268</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>1111</v>
+        <v>182</v>
       </c>
       <c r="T1071" t="n">
         <v>18</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86120,33 +86120,33 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N1072" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O1072" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P1072" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>417</v>
+        <v>1000</v>
       </c>
       <c r="T1072" t="n">
         <v>18</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>180</v>
+        <v>550</v>
       </c>
       <c r="N1073" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O1073" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P1073" t="n">
-        <v>7000</v>
+        <v>15545</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>389</v>
+        <v>864</v>
       </c>
       <c r="T1073" t="n">
         <v>18</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86280,20 +86280,20 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="N1074" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O1074" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P1074" t="n">
-        <v>8000</v>
+        <v>12560</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>444</v>
+        <v>698</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="N1075" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O1075" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1075" t="n">
-        <v>6000</v>
+        <v>8532</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>333</v>
+        <v>474</v>
       </c>
       <c r="T1075" t="n">
         <v>18</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86440,33 +86440,33 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1076" t="n">
         <v>150</v>
       </c>
       <c r="N1076" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O1076" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P1076" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>278</v>
+        <v>1111</v>
       </c>
       <c r="T1076" t="n">
         <v>18</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,33 +86520,33 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N1077" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O1077" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P1077" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>333</v>
+        <v>1111</v>
       </c>
       <c r="T1077" t="n">
         <v>18</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N1078" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1078" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P1078" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86626,7 +86626,7 @@
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="T1078" t="n">
         <v>18</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1079" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O1079" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1079" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="T1079" t="n">
         <v>18</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>530</v>
+        <v>125</v>
       </c>
       <c r="N1080" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O1080" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P1080" t="n">
-        <v>17472</v>
+        <v>8000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>971</v>
+        <v>444</v>
       </c>
       <c r="T1080" t="n">
         <v>18</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N1081" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O1081" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="P1081" t="n">
-        <v>18429</v>
+        <v>6000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>1024</v>
+        <v>333</v>
       </c>
       <c r="T1081" t="n">
         <v>18</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86924,16 +86924,16 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="N1082" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O1082" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P1082" t="n">
-        <v>14412</v>
+        <v>5000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>801</v>
+        <v>278</v>
       </c>
       <c r="T1082" t="n">
         <v>18</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87004,16 +87004,16 @@
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N1083" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O1083" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P1083" t="n">
-        <v>15429</v>
+        <v>6000</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>857</v>
+        <v>333</v>
       </c>
       <c r="T1083" t="n">
         <v>18</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87084,16 +87084,16 @@
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>680</v>
+        <v>125</v>
       </c>
       <c r="N1084" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O1084" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P1084" t="n">
-        <v>7279</v>
+        <v>4000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="T1084" t="n">
         <v>18</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>680</v>
+        <v>80</v>
       </c>
       <c r="N1085" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1085" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1085" t="n">
-        <v>3779</v>
+        <v>5000</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="T1085" t="n">
         <v>18</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87244,16 +87244,16 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>440</v>
+        <v>530</v>
       </c>
       <c r="N1086" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O1086" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P1086" t="n">
-        <v>3795</v>
+        <v>17472</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>211</v>
+        <v>971</v>
       </c>
       <c r="T1086" t="n">
         <v>18</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87320,20 +87320,20 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>520</v>
+        <v>175</v>
       </c>
       <c r="N1087" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="O1087" t="n">
-        <v>3200</v>
+        <v>19000</v>
       </c>
       <c r="P1087" t="n">
-        <v>3104</v>
+        <v>18429</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87342,11 +87342,11 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>172</v>
+        <v>1024</v>
       </c>
       <c r="T1087" t="n">
         <v>18</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87404,16 +87404,16 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="N1088" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="O1088" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P1088" t="n">
-        <v>2894</v>
+        <v>14412</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>161</v>
+        <v>801</v>
       </c>
       <c r="T1088" t="n">
         <v>18</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87480,20 +87480,20 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>510</v>
+        <v>210</v>
       </c>
       <c r="N1089" t="n">
-        <v>1800</v>
+        <v>15000</v>
       </c>
       <c r="O1089" t="n">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="P1089" t="n">
-        <v>1914</v>
+        <v>15429</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,11 +87502,11 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>106</v>
+        <v>857</v>
       </c>
       <c r="T1089" t="n">
         <v>18</v>
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87564,16 +87564,16 @@
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>410</v>
+        <v>680</v>
       </c>
       <c r="N1090" t="n">
-        <v>1800</v>
+        <v>7000</v>
       </c>
       <c r="O1090" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="P1090" t="n">
-        <v>1917</v>
+        <v>7279</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87582,11 +87582,11 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="T1090" t="n">
         <v>18</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87644,16 +87644,16 @@
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>240</v>
+        <v>680</v>
       </c>
       <c r="N1091" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O1091" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P1091" t="n">
-        <v>15000</v>
+        <v>3779</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87666,7 +87666,7 @@
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>833</v>
+        <v>210</v>
       </c>
       <c r="T1091" t="n">
         <v>18</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87720,20 +87720,20 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="N1092" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O1092" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P1092" t="n">
-        <v>16000</v>
+        <v>3795</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>889</v>
+        <v>211</v>
       </c>
       <c r="T1092" t="n">
         <v>18</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87804,16 +87804,16 @@
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>300</v>
+        <v>520</v>
       </c>
       <c r="N1093" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O1093" t="n">
-        <v>13000</v>
+        <v>3200</v>
       </c>
       <c r="P1093" t="n">
-        <v>13000</v>
+        <v>3104</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>722</v>
+        <v>172</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>170</v>
+        <v>490</v>
       </c>
       <c r="N1094" t="n">
-        <v>14000</v>
+        <v>2800</v>
       </c>
       <c r="O1094" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P1094" t="n">
-        <v>14000</v>
+        <v>2894</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87902,11 +87902,11 @@
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>778</v>
+        <v>161</v>
       </c>
       <c r="T1094" t="n">
         <v>18</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87964,16 +87964,16 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="N1095" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="O1095" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="P1095" t="n">
-        <v>8000</v>
+        <v>1914</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="T1095" t="n">
         <v>18</v>
@@ -88007,68 +88007,548 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1096" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1096" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1096" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1096" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1096" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1096" t="n">
+        <v>410</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>1800</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>1917</v>
+      </c>
+      <c r="Q1096" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1096" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1096" t="n">
+        <v>106</v>
+      </c>
+      <c r="T1096" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1097" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E1096" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1096" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1096" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1096" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1096" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1096" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1096" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1096" t="inlineStr">
+      <c r="E1097" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1097" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1097" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1097" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1097" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1097" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1097" t="n">
+        <v>240</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q1097" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1097" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1097" t="n">
+        <v>833</v>
+      </c>
+      <c r="T1097" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1098" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1098" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1098" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1098" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1098" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1098" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1098" t="n">
+        <v>110</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>16000</v>
+      </c>
+      <c r="Q1098" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1098" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1098" t="n">
+        <v>889</v>
+      </c>
+      <c r="T1098" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1099" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1099" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1099" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1099" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1099" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1099" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1099" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q1099" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1099" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1099" t="n">
+        <v>722</v>
+      </c>
+      <c r="T1099" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1100" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1100" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1100" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1100" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1100" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1100" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1100" t="n">
+        <v>170</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1100" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1100" t="n">
+        <v>778</v>
+      </c>
+      <c r="T1100" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1101" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1101" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1101" t="n">
+        <v>280</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q1101" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1101" t="n">
+        <v>444</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1102" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1102" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1102" t="inlineStr">
         <is>
           <t>3a plateado</t>
         </is>
       </c>
-      <c r="M1096" t="n">
+      <c r="M1102" t="n">
         <v>200</v>
       </c>
-      <c r="N1096" t="n">
+      <c r="N1102" t="n">
         <v>9000</v>
       </c>
-      <c r="O1096" t="n">
+      <c r="O1102" t="n">
         <v>9000</v>
       </c>
-      <c r="P1096" t="n">
+      <c r="P1102" t="n">
         <v>9000</v>
       </c>
-      <c r="Q1096" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1096" t="inlineStr">
+      <c r="Q1102" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1102" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S1096" t="n">
+      <c r="S1102" t="n">
         <v>500</v>
       </c>
-      <c r="T1096" t="n">
+      <c r="T1102" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1105"/>
+  <dimension ref="A1:T1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73047,7 +73047,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -73084,29 +73084,29 @@
         </is>
       </c>
       <c r="M909" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="N909" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O909" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="P909" t="n">
-        <v>4500</v>
+        <v>5234</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="T909" t="n">
         <v>18</v>
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -73160,20 +73160,20 @@
       </c>
       <c r="L910" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M910" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N910" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O910" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P910" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73182,11 +73182,11 @@
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S910" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="T910" t="n">
         <v>18</v>
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -73240,33 +73240,33 @@
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="N911" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O911" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P911" t="n">
-        <v>2500</v>
+        <v>4333</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="T911" t="n">
         <v>18</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -73320,20 +73320,20 @@
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="N912" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O912" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="P912" t="n">
-        <v>5207</v>
+        <v>4000</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73342,11 +73342,11 @@
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S912" t="n">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="T912" t="n">
         <v>18</v>
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -73400,24 +73400,24 @@
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N913" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O913" t="n">
-        <v>5300</v>
+        <v>3000</v>
       </c>
       <c r="P913" t="n">
-        <v>5170</v>
+        <v>2750</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
@@ -73426,7 +73426,7 @@
         </is>
       </c>
       <c r="S913" t="n">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="T913" t="n">
         <v>18</v>
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -73480,20 +73480,20 @@
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="N914" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O914" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="P914" t="n">
-        <v>4587</v>
+        <v>2500</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
@@ -73502,11 +73502,11 @@
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S914" t="n">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="T914" t="n">
         <v>18</v>
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -73560,20 +73560,20 @@
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="N915" t="n">
         <v>4500</v>
       </c>
       <c r="O915" t="n">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="P915" t="n">
-        <v>4545</v>
+        <v>4500</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
@@ -73582,11 +73582,11 @@
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T915" t="n">
         <v>18</v>
@@ -73607,7 +73607,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -73640,20 +73640,20 @@
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M916" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N916" t="n">
         <v>3500</v>
       </c>
       <c r="O916" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P916" t="n">
-        <v>3720</v>
+        <v>3500</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
@@ -73662,11 +73662,11 @@
       </c>
       <c r="R916" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S916" t="n">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="T916" t="n">
         <v>18</v>
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -73720,20 +73720,20 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N917" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="O917" t="n">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="P917" t="n">
-        <v>3611</v>
+        <v>2500</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
@@ -73742,11 +73742,11 @@
       </c>
       <c r="R917" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S917" t="n">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="T917" t="n">
         <v>18</v>
@@ -73767,7 +73767,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -73804,32 +73804,32 @@
         </is>
       </c>
       <c r="M918" t="n">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="N918" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="O918" t="n">
-        <v>110000</v>
+        <v>5500</v>
       </c>
       <c r="P918" t="n">
-        <v>105000</v>
+        <v>5207</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S918" t="n">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="T918" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="919">
@@ -73847,7 +73847,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -73880,20 +73880,20 @@
       </c>
       <c r="L919" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M919" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N919" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O919" t="n">
-        <v>6000</v>
+        <v>5300</v>
       </c>
       <c r="P919" t="n">
-        <v>5750</v>
+        <v>5170</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
@@ -73902,11 +73902,11 @@
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S919" t="n">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="T919" t="n">
         <v>18</v>
@@ -73927,7 +73927,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -73960,20 +73960,20 @@
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="N920" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="O920" t="n">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="P920" t="n">
-        <v>5830</v>
+        <v>4587</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
@@ -73982,11 +73982,11 @@
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="T920" t="n">
         <v>18</v>
@@ -74007,7 +74007,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -74040,20 +74040,20 @@
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M921" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="N921" t="n">
         <v>4500</v>
       </c>
       <c r="O921" t="n">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="P921" t="n">
-        <v>4750</v>
+        <v>4545</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
@@ -74062,11 +74062,11 @@
       </c>
       <c r="R921" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S921" t="n">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="T921" t="n">
         <v>18</v>
@@ -74087,7 +74087,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -74120,20 +74120,20 @@
       </c>
       <c r="L922" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M922" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N922" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O922" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P922" t="n">
-        <v>4846</v>
+        <v>3720</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
@@ -74142,11 +74142,11 @@
       </c>
       <c r="R922" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S922" t="n">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="T922" t="n">
         <v>18</v>
@@ -74167,7 +74167,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -74200,20 +74200,20 @@
       </c>
       <c r="L923" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M923" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N923" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O923" t="n">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="P923" t="n">
-        <v>4000</v>
+        <v>3611</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
@@ -74222,11 +74222,11 @@
       </c>
       <c r="R923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S923" t="n">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="T923" t="n">
         <v>18</v>
@@ -74280,36 +74280,36 @@
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="N924" t="n">
-        <v>3500</v>
+        <v>100000</v>
       </c>
       <c r="O924" t="n">
-        <v>4000</v>
+        <v>110000</v>
       </c>
       <c r="P924" t="n">
-        <v>3850</v>
+        <v>105000</v>
       </c>
       <c r="Q924" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R924" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S924" t="n">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="T924" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="925">
@@ -74327,7 +74327,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -74355,41 +74355,41 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M925" t="n">
         <v>200</v>
       </c>
       <c r="N925" t="n">
-        <v>20000</v>
+        <v>5500</v>
       </c>
       <c r="O925" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="P925" t="n">
-        <v>22000</v>
+        <v>5750</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R925" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S925" t="n">
-        <v>917</v>
+        <v>319</v>
       </c>
       <c r="T925" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="926">
@@ -74407,7 +74407,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -74444,16 +74444,16 @@
         </is>
       </c>
       <c r="M926" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N926" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O926" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="P926" t="n">
-        <v>19000</v>
+        <v>5830</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
@@ -74462,11 +74462,11 @@
       </c>
       <c r="R926" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S926" t="n">
-        <v>1056</v>
+        <v>324</v>
       </c>
       <c r="T926" t="n">
         <v>18</v>
@@ -74487,7 +74487,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -74520,20 +74520,20 @@
       </c>
       <c r="L927" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M927" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N927" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O927" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P927" t="n">
-        <v>17000</v>
+        <v>4750</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
@@ -74546,7 +74546,7 @@
         </is>
       </c>
       <c r="S927" t="n">
-        <v>944</v>
+        <v>264</v>
       </c>
       <c r="T927" t="n">
         <v>18</v>
@@ -74567,7 +74567,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -74600,20 +74600,20 @@
       </c>
       <c r="L928" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M928" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="N928" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O928" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="P928" t="n">
-        <v>17000</v>
+        <v>4846</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
@@ -74626,7 +74626,7 @@
         </is>
       </c>
       <c r="S928" t="n">
-        <v>944</v>
+        <v>269</v>
       </c>
       <c r="T928" t="n">
         <v>18</v>
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -74680,20 +74680,20 @@
       </c>
       <c r="L929" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M929" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N929" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="O929" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="P929" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
@@ -74702,11 +74702,11 @@
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>1056</v>
+        <v>222</v>
       </c>
       <c r="T929" t="n">
         <v>18</v>
@@ -74727,7 +74727,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -74760,20 +74760,20 @@
       </c>
       <c r="L930" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M930" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N930" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O930" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P930" t="n">
-        <v>20000</v>
+        <v>3850</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
@@ -74782,11 +74782,11 @@
       </c>
       <c r="R930" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S930" t="n">
-        <v>1111</v>
+        <v>214</v>
       </c>
       <c r="T930" t="n">
         <v>18</v>
@@ -74835,41 +74835,41 @@
       </c>
       <c r="K931" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L931" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M931" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N931" t="n">
         <v>20000</v>
       </c>
       <c r="O931" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P931" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R931" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S931" t="n">
-        <v>1111</v>
+        <v>917</v>
       </c>
       <c r="T931" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="932">
@@ -74920,20 +74920,20 @@
       </c>
       <c r="L932" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M932" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N932" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O932" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P932" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
@@ -74942,11 +74942,11 @@
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>722</v>
+        <v>1056</v>
       </c>
       <c r="T932" t="n">
         <v>18</v>
@@ -75000,20 +75000,20 @@
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M933" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N933" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O933" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P933" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q933" t="inlineStr">
         <is>
@@ -75022,11 +75022,11 @@
       </c>
       <c r="R933" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S933" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="T933" t="n">
         <v>18</v>
@@ -75080,20 +75080,20 @@
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N934" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="O934" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P934" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
@@ -75102,11 +75102,11 @@
       </c>
       <c r="R934" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S934" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="T934" t="n">
         <v>18</v>
@@ -75160,20 +75160,20 @@
       </c>
       <c r="L935" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M935" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N935" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="O935" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P935" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
@@ -75182,11 +75182,11 @@
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S935" t="n">
-        <v>889</v>
+        <v>1056</v>
       </c>
       <c r="T935" t="n">
         <v>18</v>
@@ -75240,20 +75240,20 @@
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M936" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N936" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O936" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P936" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
@@ -75266,7 +75266,7 @@
         </is>
       </c>
       <c r="S936" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="T936" t="n">
         <v>18</v>
@@ -75320,20 +75320,20 @@
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N937" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O937" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P937" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
@@ -75342,11 +75342,11 @@
       </c>
       <c r="R937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S937" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="T937" t="n">
         <v>18</v>
@@ -75395,41 +75395,41 @@
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M938" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N938" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O938" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P938" t="n">
-        <v>24500</v>
+        <v>13000</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R938" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S938" t="n">
-        <v>1021</v>
+        <v>722</v>
       </c>
       <c r="T938" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="939">
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -75480,20 +75480,20 @@
       </c>
       <c r="L939" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M939" t="n">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="N939" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O939" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P939" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
@@ -75502,11 +75502,11 @@
       </c>
       <c r="R939" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S939" t="n">
-        <v>361</v>
+        <v>833</v>
       </c>
       <c r="T939" t="n">
         <v>18</v>
@@ -75527,7 +75527,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -75560,20 +75560,20 @@
       </c>
       <c r="L940" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M940" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="N940" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O940" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P940" t="n">
-        <v>6545</v>
+        <v>16000</v>
       </c>
       <c r="Q940" t="inlineStr">
         <is>
@@ -75582,11 +75582,11 @@
       </c>
       <c r="R940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S940" t="n">
-        <v>364</v>
+        <v>889</v>
       </c>
       <c r="T940" t="n">
         <v>18</v>
@@ -75607,7 +75607,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -75640,20 +75640,20 @@
       </c>
       <c r="L941" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M941" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N941" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="O941" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P941" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
@@ -75662,11 +75662,11 @@
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>278</v>
+        <v>889</v>
       </c>
       <c r="T941" t="n">
         <v>18</v>
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -75720,20 +75720,20 @@
       </c>
       <c r="L942" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M942" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N942" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O942" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P942" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75742,11 +75742,11 @@
       </c>
       <c r="R942" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S942" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="T942" t="n">
         <v>18</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -75800,20 +75800,20 @@
       </c>
       <c r="L943" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M943" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N943" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O943" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P943" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
@@ -75826,7 +75826,7 @@
         </is>
       </c>
       <c r="S943" t="n">
-        <v>222</v>
+        <v>722</v>
       </c>
       <c r="T943" t="n">
         <v>18</v>
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -75875,41 +75875,41 @@
       </c>
       <c r="K944" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L944" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M944" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N944" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="O944" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="P944" t="n">
-        <v>4000</v>
+        <v>24500</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R944" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S944" t="n">
-        <v>222</v>
+        <v>1021</v>
       </c>
       <c r="T944" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="945">
@@ -75927,7 +75927,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -75964,16 +75964,16 @@
         </is>
       </c>
       <c r="M945" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="N945" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O945" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P945" t="n">
-        <v>15526</v>
+        <v>6500</v>
       </c>
       <c r="Q945" t="inlineStr">
         <is>
@@ -75982,11 +75982,11 @@
       </c>
       <c r="R945" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S945" t="n">
-        <v>863</v>
+        <v>361</v>
       </c>
       <c r="T945" t="n">
         <v>18</v>
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -76040,20 +76040,20 @@
       </c>
       <c r="L946" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M946" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="N946" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O946" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P946" t="n">
-        <v>13562</v>
+        <v>6545</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76062,11 +76062,11 @@
       </c>
       <c r="R946" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S946" t="n">
-        <v>753</v>
+        <v>364</v>
       </c>
       <c r="T946" t="n">
         <v>18</v>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -76120,20 +76120,20 @@
       </c>
       <c r="L947" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M947" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="N947" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O947" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P947" t="n">
-        <v>8571</v>
+        <v>5000</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76142,11 +76142,11 @@
       </c>
       <c r="R947" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S947" t="n">
-        <v>476</v>
+        <v>278</v>
       </c>
       <c r="T947" t="n">
         <v>18</v>
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -76200,33 +76200,33 @@
       </c>
       <c r="L948" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M948" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N948" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O948" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P948" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R948" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S948" t="n">
-        <v>1000</v>
+        <v>278</v>
       </c>
       <c r="T948" t="n">
         <v>18</v>
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -76280,20 +76280,20 @@
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M949" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="N949" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O949" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P949" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
@@ -76302,11 +76302,11 @@
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T949" t="n">
         <v>18</v>
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -76360,20 +76360,20 @@
       </c>
       <c r="L950" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M950" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N950" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O950" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P950" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76386,7 +76386,7 @@
         </is>
       </c>
       <c r="S950" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T950" t="n">
         <v>18</v>
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -76440,20 +76440,20 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M951" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="N951" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O951" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P951" t="n">
-        <v>5000</v>
+        <v>15526</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
@@ -76462,11 +76462,11 @@
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>278</v>
+        <v>863</v>
       </c>
       <c r="T951" t="n">
         <v>18</v>
@@ -76487,7 +76487,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -76524,16 +76524,16 @@
         </is>
       </c>
       <c r="M952" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="N952" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O952" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P952" t="n">
-        <v>5000</v>
+        <v>13562</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
@@ -76542,11 +76542,11 @@
       </c>
       <c r="R952" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S952" t="n">
-        <v>278</v>
+        <v>753</v>
       </c>
       <c r="T952" t="n">
         <v>18</v>
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -76604,16 +76604,16 @@
         </is>
       </c>
       <c r="M953" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N953" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O953" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P953" t="n">
-        <v>4000</v>
+        <v>8571</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
@@ -76622,11 +76622,11 @@
       </c>
       <c r="R953" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S953" t="n">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="T953" t="n">
         <v>18</v>
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -76680,33 +76680,33 @@
       </c>
       <c r="L954" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M954" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N954" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O954" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P954" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S954" t="n">
-        <v>222</v>
+        <v>1000</v>
       </c>
       <c r="T954" t="n">
         <v>18</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -76760,20 +76760,20 @@
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="N955" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O955" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P955" t="n">
-        <v>12636</v>
+        <v>6000</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
@@ -76782,11 +76782,11 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>702</v>
+        <v>333</v>
       </c>
       <c r="T955" t="n">
         <v>18</v>
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -76840,20 +76840,20 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M956" t="n">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="N956" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O956" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P956" t="n">
-        <v>9556</v>
+        <v>6000</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
@@ -76862,11 +76862,11 @@
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S956" t="n">
-        <v>531</v>
+        <v>333</v>
       </c>
       <c r="T956" t="n">
         <v>18</v>
@@ -76887,7 +76887,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -76920,20 +76920,20 @@
       </c>
       <c r="L957" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M957" t="n">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="N957" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O957" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P957" t="n">
-        <v>6571</v>
+        <v>5000</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76942,11 +76942,11 @@
       </c>
       <c r="R957" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S957" t="n">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="T957" t="n">
         <v>18</v>
@@ -76967,7 +76967,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -77000,20 +77000,20 @@
       </c>
       <c r="L958" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M958" t="n">
-        <v>145</v>
+        <v>340</v>
       </c>
       <c r="N958" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O958" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P958" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77022,11 +77022,11 @@
       </c>
       <c r="R958" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S958" t="n">
-        <v>778</v>
+        <v>278</v>
       </c>
       <c r="T958" t="n">
         <v>18</v>
@@ -77047,7 +77047,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -77080,20 +77080,20 @@
       </c>
       <c r="L959" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M959" t="n">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="N959" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O959" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P959" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77102,11 +77102,11 @@
       </c>
       <c r="R959" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S959" t="n">
-        <v>778</v>
+        <v>222</v>
       </c>
       <c r="T959" t="n">
         <v>18</v>
@@ -77127,7 +77127,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -77160,20 +77160,20 @@
       </c>
       <c r="L960" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M960" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N960" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O960" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P960" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77182,11 +77182,11 @@
       </c>
       <c r="R960" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S960" t="n">
-        <v>833</v>
+        <v>222</v>
       </c>
       <c r="T960" t="n">
         <v>18</v>
@@ -77207,7 +77207,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -77244,16 +77244,16 @@
         </is>
       </c>
       <c r="M961" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N961" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O961" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P961" t="n">
-        <v>15000</v>
+        <v>12636</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77262,11 +77262,11 @@
       </c>
       <c r="R961" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S961" t="n">
-        <v>833</v>
+        <v>702</v>
       </c>
       <c r="T961" t="n">
         <v>18</v>
@@ -77287,7 +77287,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -77320,20 +77320,20 @@
       </c>
       <c r="L962" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M962" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N962" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O962" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P962" t="n">
-        <v>12000</v>
+        <v>9556</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77342,11 +77342,11 @@
       </c>
       <c r="R962" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S962" t="n">
-        <v>667</v>
+        <v>531</v>
       </c>
       <c r="T962" t="n">
         <v>18</v>
@@ -77367,7 +77367,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -77400,20 +77400,20 @@
       </c>
       <c r="L963" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M963" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="N963" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O963" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P963" t="n">
-        <v>12000</v>
+        <v>6571</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77422,11 +77422,11 @@
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>667</v>
+        <v>365</v>
       </c>
       <c r="T963" t="n">
         <v>18</v>
@@ -77480,20 +77480,20 @@
       </c>
       <c r="L964" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M964" t="n">
         <v>145</v>
       </c>
       <c r="N964" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O964" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P964" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T964" t="n">
         <v>18</v>
@@ -77560,20 +77560,20 @@
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N965" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O965" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P965" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T965" t="n">
         <v>18</v>
@@ -77640,20 +77640,20 @@
       </c>
       <c r="L966" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M966" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N966" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O966" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P966" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77662,11 +77662,11 @@
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T966" t="n">
         <v>18</v>
@@ -77720,20 +77720,20 @@
       </c>
       <c r="L967" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M967" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N967" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O967" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P967" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
@@ -77742,11 +77742,11 @@
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S967" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T967" t="n">
         <v>18</v>
@@ -77800,20 +77800,20 @@
       </c>
       <c r="L968" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M968" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N968" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O968" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P968" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
@@ -77822,11 +77822,11 @@
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T968" t="n">
         <v>18</v>
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -77880,20 +77880,20 @@
       </c>
       <c r="L969" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M969" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N969" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O969" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P969" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77906,7 +77906,7 @@
         </is>
       </c>
       <c r="S969" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="T969" t="n">
         <v>18</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -77960,20 +77960,20 @@
       </c>
       <c r="L970" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M970" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="N970" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="O970" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P970" t="n">
-        <v>6750</v>
+        <v>13000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
@@ -77982,11 +77982,11 @@
       </c>
       <c r="R970" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S970" t="n">
-        <v>375</v>
+        <v>722</v>
       </c>
       <c r="T970" t="n">
         <v>18</v>
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -78040,20 +78040,20 @@
       </c>
       <c r="L971" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M971" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N971" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O971" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P971" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
@@ -78062,11 +78062,11 @@
       </c>
       <c r="R971" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S971" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T971" t="n">
         <v>18</v>
@@ -78087,7 +78087,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -78120,20 +78120,20 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N972" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O972" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P972" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78142,11 +78142,11 @@
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T972" t="n">
         <v>18</v>
@@ -78167,7 +78167,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -78200,20 +78200,20 @@
       </c>
       <c r="L973" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M973" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N973" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O973" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P973" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78226,7 +78226,7 @@
         </is>
       </c>
       <c r="S973" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="T973" t="n">
         <v>18</v>
@@ -78247,7 +78247,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -78280,20 +78280,20 @@
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N974" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="O974" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P974" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78306,7 +78306,7 @@
         </is>
       </c>
       <c r="S974" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="T974" t="n">
         <v>18</v>
@@ -78360,11 +78360,11 @@
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N975" t="n">
         <v>7000</v>
@@ -78382,7 +78382,7 @@
       </c>
       <c r="R975" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S975" t="n">
@@ -78440,20 +78440,20 @@
       </c>
       <c r="L976" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M976" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N976" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O976" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P976" t="n">
-        <v>6000</v>
+        <v>6750</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78466,7 +78466,7 @@
         </is>
       </c>
       <c r="S976" t="n">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="T976" t="n">
         <v>18</v>
@@ -78520,20 +78520,20 @@
       </c>
       <c r="L977" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M977" t="n">
         <v>150</v>
       </c>
       <c r="N977" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O977" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P977" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78542,11 +78542,11 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T977" t="n">
         <v>18</v>
@@ -78600,20 +78600,20 @@
       </c>
       <c r="L978" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M978" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N978" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O978" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P978" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
@@ -78626,7 +78626,7 @@
         </is>
       </c>
       <c r="S978" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="T978" t="n">
         <v>18</v>
@@ -78680,20 +78680,20 @@
       </c>
       <c r="L979" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M979" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P979" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T979" t="n">
         <v>18</v>
@@ -78727,7 +78727,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -78760,20 +78760,20 @@
       </c>
       <c r="L980" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M980" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N980" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O980" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P980" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q980" t="inlineStr">
         <is>
@@ -78782,11 +78782,11 @@
       </c>
       <c r="R980" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S980" t="n">
-        <v>833</v>
+        <v>278</v>
       </c>
       <c r="T980" t="n">
         <v>18</v>
@@ -78807,7 +78807,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -78840,20 +78840,20 @@
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="N981" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O981" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P981" t="n">
-        <v>11186</v>
+        <v>7000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
@@ -78862,11 +78862,11 @@
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>621</v>
+        <v>389</v>
       </c>
       <c r="T981" t="n">
         <v>18</v>
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -78920,20 +78920,20 @@
       </c>
       <c r="L982" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M982" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N982" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O982" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P982" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78942,11 +78942,11 @@
       </c>
       <c r="R982" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S982" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="T982" t="n">
         <v>18</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -79004,16 +79004,16 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N983" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O983" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P983" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79022,11 +79022,11 @@
       </c>
       <c r="R983" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S983" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="T983" t="n">
         <v>18</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79080,20 +79080,20 @@
       </c>
       <c r="L984" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M984" t="n">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="N984" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O984" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P984" t="n">
-        <v>14548</v>
+        <v>4000</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>808</v>
+        <v>222</v>
       </c>
       <c r="T984" t="n">
         <v>18</v>
@@ -79127,7 +79127,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -79160,20 +79160,20 @@
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="N985" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O985" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P985" t="n">
-        <v>11545</v>
+        <v>6000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
@@ -79182,11 +79182,11 @@
       </c>
       <c r="R985" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S985" t="n">
-        <v>641</v>
+        <v>333</v>
       </c>
       <c r="T985" t="n">
         <v>18</v>
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79240,20 +79240,20 @@
       </c>
       <c r="L986" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M986" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="N986" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O986" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P986" t="n">
-        <v>7796</v>
+        <v>15000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>433</v>
+        <v>833</v>
       </c>
       <c r="T986" t="n">
         <v>18</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79324,29 +79324,29 @@
         </is>
       </c>
       <c r="M987" t="n">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="N987" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O987" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P987" t="n">
-        <v>24000</v>
+        <v>11186</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>1333</v>
+        <v>621</v>
       </c>
       <c r="T987" t="n">
         <v>18</v>
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79400,20 +79400,20 @@
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="N988" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O988" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P988" t="n">
-        <v>20529</v>
+        <v>13000</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
@@ -79422,11 +79422,11 @@
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>1140</v>
+        <v>722</v>
       </c>
       <c r="T988" t="n">
         <v>18</v>
@@ -79447,7 +79447,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -79480,20 +79480,20 @@
       </c>
       <c r="L989" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M989" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N989" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O989" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P989" t="n">
-        <v>17478</v>
+        <v>8000</v>
       </c>
       <c r="Q989" t="inlineStr">
         <is>
@@ -79502,11 +79502,11 @@
       </c>
       <c r="R989" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S989" t="n">
-        <v>971</v>
+        <v>444</v>
       </c>
       <c r="T989" t="n">
         <v>18</v>
@@ -79527,7 +79527,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -79560,20 +79560,20 @@
       </c>
       <c r="L990" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M990" t="n">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="N990" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O990" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P990" t="n">
-        <v>8636</v>
+        <v>14548</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
@@ -79582,11 +79582,11 @@
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>480</v>
+        <v>808</v>
       </c>
       <c r="T990" t="n">
         <v>18</v>
@@ -79607,7 +79607,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -79635,41 +79635,41 @@
       </c>
       <c r="K991" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="N991" t="n">
-        <v>33000</v>
+        <v>11000</v>
       </c>
       <c r="O991" t="n">
-        <v>34000</v>
+        <v>12000</v>
       </c>
       <c r="P991" t="n">
-        <v>33500</v>
+        <v>11545</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>1396</v>
+        <v>641</v>
       </c>
       <c r="T991" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="992">
@@ -79687,7 +79687,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -79720,20 +79720,20 @@
       </c>
       <c r="L992" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M992" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N992" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O992" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P992" t="n">
-        <v>15000</v>
+        <v>7796</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79742,11 +79742,11 @@
       </c>
       <c r="R992" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S992" t="n">
-        <v>833</v>
+        <v>433</v>
       </c>
       <c r="T992" t="n">
         <v>18</v>
@@ -79767,7 +79767,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -79804,20 +79804,20 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N993" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="O993" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P993" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
@@ -79826,7 +79826,7 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>889</v>
+        <v>1333</v>
       </c>
       <c r="T993" t="n">
         <v>18</v>
@@ -79847,7 +79847,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -79880,20 +79880,20 @@
       </c>
       <c r="L994" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M994" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N994" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O994" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P994" t="n">
-        <v>12000</v>
+        <v>20529</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79902,11 +79902,11 @@
       </c>
       <c r="R994" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S994" t="n">
-        <v>667</v>
+        <v>1140</v>
       </c>
       <c r="T994" t="n">
         <v>18</v>
@@ -79927,7 +79927,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -79964,16 +79964,16 @@
         </is>
       </c>
       <c r="M995" t="n">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="N995" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O995" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P995" t="n">
-        <v>13000</v>
+        <v>17478</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>722</v>
+        <v>971</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80040,20 +80040,20 @@
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N996" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O996" t="n">
         <v>9000</v>
       </c>
       <c r="P996" t="n">
-        <v>9000</v>
+        <v>8636</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
@@ -80062,11 +80062,11 @@
       </c>
       <c r="R996" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S996" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="T996" t="n">
         <v>18</v>
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,16 +80124,16 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N997" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="O997" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="P997" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
@@ -80146,7 +80146,7 @@
         </is>
       </c>
       <c r="S997" t="n">
-        <v>1354</v>
+        <v>1396</v>
       </c>
       <c r="T997" t="n">
         <v>24</v>
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80204,16 +80204,16 @@
         </is>
       </c>
       <c r="M998" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N998" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O998" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P998" t="n">
-        <v>4280</v>
+        <v>15000</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80222,11 +80222,11 @@
       </c>
       <c r="R998" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S998" t="n">
-        <v>238</v>
+        <v>833</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N999" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="O999" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="P999" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>250</v>
+        <v>889</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,20 +80360,20 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="N1000" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O1000" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P1000" t="n">
-        <v>4278</v>
+        <v>12000</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>238</v>
+        <v>667</v>
       </c>
       <c r="T1000" t="n">
         <v>18</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>370</v>
+        <v>125</v>
       </c>
       <c r="N1001" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="O1001" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P1001" t="n">
-        <v>3230</v>
+        <v>13000</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>179</v>
+        <v>722</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80520,20 +80520,20 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="N1002" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O1002" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P1002" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>194</v>
+        <v>500</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,41 +80595,41 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="N1003" t="n">
-        <v>3000</v>
+        <v>32000</v>
       </c>
       <c r="O1003" t="n">
-        <v>3500</v>
+        <v>33000</v>
       </c>
       <c r="P1003" t="n">
-        <v>3245</v>
+        <v>32500</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>180</v>
+        <v>1354</v>
       </c>
       <c r="T1003" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1004">
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="N1004" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1004" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1004" t="n">
-        <v>2214</v>
+        <v>4280</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80706,7 +80706,7 @@
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="T1004" t="n">
         <v>18</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="N1005" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="O1005" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1005" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80840,20 +80840,20 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="N1006" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1006" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1006" t="n">
-        <v>2285</v>
+        <v>4278</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80866,7 +80866,7 @@
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80887,7 +80887,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -80920,20 +80920,20 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="N1007" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O1007" t="n">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="P1007" t="n">
-        <v>4164</v>
+        <v>3230</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80946,7 +80946,7 @@
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -80967,7 +80967,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="N1008" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O1008" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="P1008" t="n">
-        <v>4120</v>
+        <v>3500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81026,7 +81026,7 @@
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>830</v>
+        <v>550</v>
       </c>
       <c r="N1009" t="n">
         <v>3000</v>
       </c>
       <c r="O1009" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="P1009" t="n">
-        <v>3108</v>
+        <v>3245</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="N1010" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O1010" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="P1010" t="n">
-        <v>3106</v>
+        <v>2214</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81244,16 +81244,16 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="N1011" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="O1011" t="n">
         <v>2500</v>
       </c>
       <c r="P1011" t="n">
-        <v>2278</v>
+        <v>2500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81320,20 +81320,20 @@
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="N1012" t="n">
         <v>2000</v>
       </c>
       <c r="O1012" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="P1012" t="n">
-        <v>2090</v>
+        <v>2285</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81395,41 +81395,41 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="N1013" t="n">
-        <v>27000</v>
+        <v>4000</v>
       </c>
       <c r="O1013" t="n">
-        <v>27000</v>
+        <v>4300</v>
       </c>
       <c r="P1013" t="n">
-        <v>27000</v>
+        <v>4164</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>1125</v>
+        <v>231</v>
       </c>
       <c r="T1013" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1014">
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81484,16 +81484,16 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N1014" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1014" t="n">
-        <v>15000</v>
+        <v>4200</v>
       </c>
       <c r="P1014" t="n">
-        <v>15000</v>
+        <v>4120</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>833</v>
+        <v>229</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81564,16 +81564,16 @@
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>200</v>
+        <v>830</v>
       </c>
       <c r="N1015" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O1015" t="n">
-        <v>13000</v>
+        <v>3200</v>
       </c>
       <c r="P1015" t="n">
-        <v>13000</v>
+        <v>3108</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>722</v>
+        <v>173</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81640,20 +81640,20 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>160</v>
+        <v>510</v>
       </c>
       <c r="N1016" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="O1016" t="n">
-        <v>9000</v>
+        <v>3200</v>
       </c>
       <c r="P1016" t="n">
-        <v>9000</v>
+        <v>3106</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>500</v>
+        <v>173</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,38 +81715,38 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>95</v>
+        <v>450</v>
       </c>
       <c r="N1017" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="O1017" t="n">
-        <v>32000</v>
+        <v>2500</v>
       </c>
       <c r="P1017" t="n">
-        <v>31053</v>
+        <v>2278</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>1725</v>
+        <v>127</v>
       </c>
       <c r="T1017" t="n">
         <v>18</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N1018" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O1018" t="n">
-        <v>15000</v>
+        <v>2200</v>
       </c>
       <c r="P1018" t="n">
-        <v>14556</v>
+        <v>2090</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>809</v>
+        <v>116</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81875,41 +81875,41 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N1019" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="O1019" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P1019" t="n">
-        <v>12422</v>
+        <v>27000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>690</v>
+        <v>1125</v>
       </c>
       <c r="T1019" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1020">
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81960,20 +81960,20 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>630</v>
+        <v>180</v>
       </c>
       <c r="N1020" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O1020" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P1020" t="n">
-        <v>7278</v>
+        <v>15000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81986,7 +81986,7 @@
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>404</v>
+        <v>833</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N1021" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O1021" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P1021" t="n">
-        <v>4273</v>
+        <v>13000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82066,7 +82066,7 @@
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>237</v>
+        <v>722</v>
       </c>
       <c r="T1021" t="n">
         <v>18</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="N1022" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O1022" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P1022" t="n">
-        <v>4292</v>
+        <v>9000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>238</v>
+        <v>500</v>
       </c>
       <c r="T1022" t="n">
         <v>18</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82195,38 +82195,38 @@
       </c>
       <c r="K1023" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>630</v>
+        <v>95</v>
       </c>
       <c r="N1023" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="O1023" t="n">
-        <v>3500</v>
+        <v>32000</v>
       </c>
       <c r="P1023" t="n">
-        <v>3222</v>
+        <v>31053</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>179</v>
+        <v>1725</v>
       </c>
       <c r="T1023" t="n">
         <v>18</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="N1024" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O1024" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P1024" t="n">
-        <v>3265</v>
+        <v>14556</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82302,11 +82302,11 @@
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>181</v>
+        <v>809</v>
       </c>
       <c r="T1024" t="n">
         <v>18</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82360,20 +82360,20 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="N1025" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="O1025" t="n">
-        <v>2500</v>
+        <v>13000</v>
       </c>
       <c r="P1025" t="n">
-        <v>2274</v>
+        <v>12422</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>126</v>
+        <v>690</v>
       </c>
       <c r="T1025" t="n">
         <v>18</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82444,16 +82444,16 @@
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>370</v>
+        <v>630</v>
       </c>
       <c r="N1026" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="O1026" t="n">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="P1026" t="n">
-        <v>2230</v>
+        <v>7278</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="T1026" t="n">
         <v>18</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82524,16 +82524,16 @@
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="N1027" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O1027" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P1027" t="n">
-        <v>3779</v>
+        <v>4273</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="T1027" t="n">
         <v>18</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82604,16 +82604,16 @@
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="N1028" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O1028" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P1028" t="n">
-        <v>3795</v>
+        <v>4292</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82626,7 +82626,7 @@
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="T1028" t="n">
         <v>18</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>520</v>
+        <v>630</v>
       </c>
       <c r="N1029" t="n">
         <v>3000</v>
       </c>
       <c r="O1029" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="P1029" t="n">
-        <v>3104</v>
+        <v>3222</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82706,7 +82706,7 @@
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="T1029" t="n">
         <v>18</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82764,16 +82764,16 @@
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="N1030" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="O1030" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P1030" t="n">
-        <v>2894</v>
+        <v>3265</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82786,7 +82786,7 @@
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="T1030" t="n">
         <v>18</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82844,16 +82844,16 @@
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>510</v>
+        <v>620</v>
       </c>
       <c r="N1031" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="O1031" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="P1031" t="n">
-        <v>1914</v>
+        <v>2274</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82866,7 +82866,7 @@
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="T1031" t="n">
         <v>18</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82924,16 +82924,16 @@
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="N1032" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="O1032" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="P1032" t="n">
-        <v>1917</v>
+        <v>2230</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82946,7 +82946,7 @@
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="T1032" t="n">
         <v>18</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -83004,16 +83004,16 @@
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>970</v>
+        <v>680</v>
       </c>
       <c r="N1033" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O1033" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1033" t="n">
-        <v>4716</v>
+        <v>3779</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83026,7 +83026,7 @@
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="T1033" t="n">
         <v>18</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83080,20 +83080,20 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>830</v>
+        <v>440</v>
       </c>
       <c r="N1034" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O1034" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1034" t="n">
-        <v>4771</v>
+        <v>3795</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="T1034" t="n">
         <v>18</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83164,16 +83164,16 @@
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>780</v>
+        <v>520</v>
       </c>
       <c r="N1035" t="n">
         <v>3000</v>
       </c>
       <c r="O1035" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="P1035" t="n">
-        <v>3288</v>
+        <v>3104</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83186,7 +83186,7 @@
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="T1035" t="n">
         <v>18</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>720</v>
+        <v>490</v>
       </c>
       <c r="N1036" t="n">
+        <v>2800</v>
+      </c>
+      <c r="O1036" t="n">
         <v>3000</v>
       </c>
-      <c r="O1036" t="n">
-        <v>3500</v>
-      </c>
       <c r="P1036" t="n">
-        <v>3222</v>
+        <v>2894</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>590</v>
+        <v>510</v>
       </c>
       <c r="N1037" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="O1037" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="P1037" t="n">
-        <v>2302</v>
+        <v>1914</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="T1037" t="n">
         <v>18</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83400,20 +83400,20 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="N1038" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="O1038" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="P1038" t="n">
-        <v>2411</v>
+        <v>1917</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83422,11 +83422,11 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="T1038" t="n">
         <v>18</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83480,33 +83480,33 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="N1039" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O1039" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P1039" t="n">
-        <v>16000</v>
+        <v>4716</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>889</v>
+        <v>262</v>
       </c>
       <c r="T1039" t="n">
         <v>18</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>340</v>
+        <v>830</v>
       </c>
       <c r="N1040" t="n">
-        <v>13500</v>
+        <v>4500</v>
       </c>
       <c r="O1040" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P1040" t="n">
-        <v>13706</v>
+        <v>4771</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83586,7 +83586,7 @@
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>761</v>
+        <v>265</v>
       </c>
       <c r="T1040" t="n">
         <v>18</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83640,20 +83640,20 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>320</v>
+        <v>780</v>
       </c>
       <c r="N1041" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="O1041" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P1041" t="n">
-        <v>9781</v>
+        <v>3288</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>543</v>
+        <v>183</v>
       </c>
       <c r="T1041" t="n">
         <v>18</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83720,20 +83720,20 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>410</v>
+        <v>720</v>
       </c>
       <c r="N1042" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="O1042" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P1042" t="n">
-        <v>5732</v>
+        <v>3222</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83746,7 +83746,7 @@
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>318</v>
+        <v>179</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83795,41 +83795,41 @@
       </c>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>10</v>
+        <v>590</v>
       </c>
       <c r="N1043" t="n">
-        <v>65000</v>
+        <v>2200</v>
       </c>
       <c r="O1043" t="n">
-        <v>65000</v>
+        <v>2400</v>
       </c>
       <c r="P1043" t="n">
-        <v>65000</v>
+        <v>2302</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>2708</v>
+        <v>128</v>
       </c>
       <c r="T1043" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1044">
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83875,41 +83875,41 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="N1044" t="n">
-        <v>60000</v>
+        <v>2300</v>
       </c>
       <c r="O1044" t="n">
-        <v>60000</v>
+        <v>2500</v>
       </c>
       <c r="P1044" t="n">
-        <v>60000</v>
+        <v>2411</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>2500</v>
+        <v>134</v>
       </c>
       <c r="T1044" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1045">
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83960,33 +83960,33 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="N1045" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O1045" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="P1045" t="n">
-        <v>4273</v>
+        <v>16000</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>237</v>
+        <v>889</v>
       </c>
       <c r="T1045" t="n">
         <v>18</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84040,20 +84040,20 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N1046" t="n">
-        <v>3000</v>
+        <v>13500</v>
       </c>
       <c r="O1046" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P1046" t="n">
-        <v>3275</v>
+        <v>13706</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>182</v>
+        <v>761</v>
       </c>
       <c r="T1046" t="n">
         <v>18</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84120,20 +84120,20 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="N1047" t="n">
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="O1047" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P1047" t="n">
-        <v>2318</v>
+        <v>9781</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>129</v>
+        <v>543</v>
       </c>
       <c r="T1047" t="n">
         <v>18</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84195,41 +84195,41 @@
       </c>
       <c r="K1048" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>30</v>
+        <v>410</v>
       </c>
       <c r="N1048" t="n">
-        <v>36000</v>
+        <v>5500</v>
       </c>
       <c r="O1048" t="n">
-        <v>36000</v>
+        <v>6000</v>
       </c>
       <c r="P1048" t="n">
-        <v>36000</v>
+        <v>5732</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>1500</v>
+        <v>318</v>
       </c>
       <c r="T1048" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1049">
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84284,16 +84284,16 @@
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N1049" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="O1049" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="P1049" t="n">
-        <v>32000</v>
+        <v>65000</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>1333</v>
+        <v>2708</v>
       </c>
       <c r="T1049" t="n">
         <v>24</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84355,41 +84355,41 @@
       </c>
       <c r="K1050" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="N1050" t="n">
-        <v>17000</v>
+        <v>60000</v>
       </c>
       <c r="O1050" t="n">
-        <v>18000</v>
+        <v>60000</v>
       </c>
       <c r="P1050" t="n">
-        <v>17571</v>
+        <v>60000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>976</v>
+        <v>2500</v>
       </c>
       <c r="T1050" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1051">
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="N1051" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O1051" t="n">
-        <v>19000</v>
+        <v>4500</v>
       </c>
       <c r="P1051" t="n">
-        <v>18400</v>
+        <v>4273</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>1022</v>
+        <v>237</v>
       </c>
       <c r="T1051" t="n">
         <v>18</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84524,16 +84524,16 @@
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="N1052" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1052" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P1052" t="n">
-        <v>14556</v>
+        <v>3275</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>809</v>
+        <v>182</v>
       </c>
       <c r="T1052" t="n">
         <v>18</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="N1053" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O1053" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="P1053" t="n">
-        <v>15421</v>
+        <v>2318</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84622,11 +84622,11 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>857</v>
+        <v>129</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84684,16 +84684,16 @@
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N1054" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="O1054" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="P1054" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84706,7 +84706,7 @@
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T1054" t="n">
         <v>24</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84755,41 +84755,41 @@
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N1055" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="O1055" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="P1055" t="n">
-        <v>19487</v>
+        <v>32000</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>1083</v>
+        <v>1333</v>
       </c>
       <c r="T1055" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1056">
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>430</v>
+        <v>140</v>
       </c>
       <c r="N1056" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O1056" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P1056" t="n">
-        <v>20419</v>
+        <v>17571</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84862,11 +84862,11 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>1134</v>
+        <v>976</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="N1057" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O1057" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P1057" t="n">
-        <v>16459</v>
+        <v>18400</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84942,11 +84942,11 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>914</v>
+        <v>1022</v>
       </c>
       <c r="T1057" t="n">
         <v>18</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="N1058" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O1058" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P1058" t="n">
-        <v>17444</v>
+        <v>14556</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>969</v>
+        <v>809</v>
       </c>
       <c r="T1058" t="n">
         <v>18</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,20 +85080,20 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="N1059" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O1059" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P1059" t="n">
-        <v>7548</v>
+        <v>15421</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>419</v>
+        <v>857</v>
       </c>
       <c r="T1059" t="n">
         <v>18</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85155,41 +85155,41 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="N1060" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="O1060" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P1060" t="n">
-        <v>11529</v>
+        <v>30000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>640</v>
+        <v>1250</v>
       </c>
       <c r="T1060" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1061">
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85235,41 +85235,41 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="N1061" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O1061" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="P1061" t="n">
-        <v>30000</v>
+        <v>19487</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>1250</v>
+        <v>1083</v>
       </c>
       <c r="T1061" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1062">
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>215</v>
+        <v>430</v>
       </c>
       <c r="N1062" t="n">
-        <v>3800</v>
+        <v>20000</v>
       </c>
       <c r="O1062" t="n">
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="P1062" t="n">
-        <v>3912</v>
+        <v>20419</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>217</v>
+        <v>1134</v>
       </c>
       <c r="T1062" t="n">
         <v>18</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85404,16 +85404,16 @@
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="N1063" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="O1063" t="n">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="P1063" t="n">
-        <v>3107</v>
+        <v>16459</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>173</v>
+        <v>914</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85480,20 +85480,20 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N1064" t="n">
-        <v>1800</v>
+        <v>17000</v>
       </c>
       <c r="O1064" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="P1064" t="n">
-        <v>1890</v>
+        <v>17444</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85502,11 +85502,11 @@
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>105</v>
+        <v>969</v>
       </c>
       <c r="T1064" t="n">
         <v>18</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85555,41 +85555,41 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="N1065" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="O1065" t="n">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="P1065" t="n">
-        <v>32000</v>
+        <v>7548</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>1333</v>
+        <v>419</v>
       </c>
       <c r="T1065" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1066">
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,24 +85640,24 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N1066" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O1066" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P1066" t="n">
-        <v>21000</v>
+        <v>11529</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1066" t="inlineStr">
@@ -85666,7 +85666,7 @@
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>1167</v>
+        <v>640</v>
       </c>
       <c r="T1066" t="n">
         <v>18</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85715,41 +85715,41 @@
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>450</v>
+        <v>35</v>
       </c>
       <c r="N1067" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="O1067" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P1067" t="n">
-        <v>18556</v>
+        <v>30000</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>1031</v>
+        <v>1250</v>
       </c>
       <c r="T1067" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1068">
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="N1068" t="n">
-        <v>13000</v>
+        <v>3800</v>
       </c>
       <c r="O1068" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P1068" t="n">
-        <v>13308</v>
+        <v>3912</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>739</v>
+        <v>217</v>
       </c>
       <c r="T1068" t="n">
         <v>18</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85880,20 +85880,20 @@
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="N1069" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1069" t="n">
-        <v>17000</v>
+        <v>3200</v>
       </c>
       <c r="P1069" t="n">
-        <v>16551</v>
+        <v>3107</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>920</v>
+        <v>173</v>
       </c>
       <c r="T1069" t="n">
         <v>18</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85964,16 +85964,16 @@
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N1070" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="O1070" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="P1070" t="n">
-        <v>8538</v>
+        <v>1890</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>474</v>
+        <v>105</v>
       </c>
       <c r="T1070" t="n">
         <v>18</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86035,41 +86035,41 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>730</v>
+        <v>20</v>
       </c>
       <c r="N1071" t="n">
-        <v>4000</v>
+        <v>32000</v>
       </c>
       <c r="O1071" t="n">
-        <v>4500</v>
+        <v>32000</v>
       </c>
       <c r="P1071" t="n">
-        <v>4260</v>
+        <v>32000</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>237</v>
+        <v>1333</v>
       </c>
       <c r="T1071" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1072">
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86120,33 +86120,33 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N1072" t="n">
-        <v>3000</v>
+        <v>21000</v>
       </c>
       <c r="O1072" t="n">
-        <v>3500</v>
+        <v>21000</v>
       </c>
       <c r="P1072" t="n">
-        <v>3231</v>
+        <v>21000</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>180</v>
+        <v>1167</v>
       </c>
       <c r="T1072" t="n">
         <v>18</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="N1073" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="O1073" t="n">
-        <v>2500</v>
+        <v>19000</v>
       </c>
       <c r="P1073" t="n">
-        <v>2269</v>
+        <v>18556</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>126</v>
+        <v>1031</v>
       </c>
       <c r="T1073" t="n">
         <v>18</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86280,33 +86280,33 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="N1074" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O1074" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P1074" t="n">
-        <v>18000</v>
+        <v>13308</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>1000</v>
+        <v>739</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,11 +86360,11 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>220</v>
+        <v>490</v>
       </c>
       <c r="N1075" t="n">
         <v>16000</v>
@@ -86373,7 +86373,7 @@
         <v>17000</v>
       </c>
       <c r="P1075" t="n">
-        <v>16636</v>
+        <v>16551</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86386,7 +86386,7 @@
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="T1075" t="n">
         <v>18</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86440,20 +86440,20 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="N1076" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O1076" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1076" t="n">
-        <v>9706</v>
+        <v>8538</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>539</v>
+        <v>474</v>
       </c>
       <c r="T1076" t="n">
         <v>18</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>250</v>
+        <v>730</v>
       </c>
       <c r="N1077" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O1077" t="n">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="P1077" t="n">
-        <v>6200</v>
+        <v>4260</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="T1077" t="n">
         <v>18</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>520</v>
+        <v>650</v>
       </c>
       <c r="N1078" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O1078" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P1078" t="n">
-        <v>13615</v>
+        <v>3231</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>756</v>
+        <v>180</v>
       </c>
       <c r="T1078" t="n">
         <v>18</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86680,33 +86680,33 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="N1079" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="O1079" t="n">
-        <v>20000</v>
+        <v>2500</v>
       </c>
       <c r="P1079" t="n">
-        <v>19455</v>
+        <v>2269</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>1081</v>
+        <v>126</v>
       </c>
       <c r="T1079" t="n">
         <v>18</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86764,20 +86764,20 @@
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>630</v>
+        <v>120</v>
       </c>
       <c r="N1080" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O1080" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P1080" t="n">
-        <v>14556</v>
+        <v>18000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
@@ -86786,7 +86786,7 @@
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>809</v>
+        <v>1000</v>
       </c>
       <c r="T1080" t="n">
         <v>18</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="N1081" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1081" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P1081" t="n">
-        <v>10559</v>
+        <v>16636</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>587</v>
+        <v>924</v>
       </c>
       <c r="T1081" t="n">
         <v>18</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86924,16 +86924,16 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="N1082" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O1082" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1082" t="n">
-        <v>11517</v>
+        <v>9706</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>640</v>
+        <v>539</v>
       </c>
       <c r="T1082" t="n">
         <v>18</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N1083" t="n">
         <v>6000</v>
       </c>
       <c r="O1083" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="P1083" t="n">
-        <v>6433</v>
+        <v>6200</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="T1083" t="n">
         <v>18</v>
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="N1084" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O1084" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P1084" t="n">
-        <v>7591</v>
+        <v>13615</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>422</v>
+        <v>756</v>
       </c>
       <c r="T1084" t="n">
         <v>18</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N1085" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O1085" t="n">
         <v>20000</v>
       </c>
       <c r="P1085" t="n">
-        <v>20000</v>
+        <v>19455</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="T1085" t="n">
         <v>18</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87240,20 +87240,20 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>320</v>
+        <v>630</v>
       </c>
       <c r="N1086" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O1086" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P1086" t="n">
-        <v>5719</v>
+        <v>14556</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>318</v>
+        <v>809</v>
       </c>
       <c r="T1086" t="n">
         <v>18</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87324,16 +87324,16 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>430</v>
+        <v>680</v>
       </c>
       <c r="N1087" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O1087" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P1087" t="n">
-        <v>4767</v>
+        <v>10559</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87342,11 +87342,11 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="T1087" t="n">
         <v>18</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87400,20 +87400,20 @@
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="N1088" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O1088" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P1088" t="n">
-        <v>3278</v>
+        <v>11517</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87422,11 +87422,11 @@
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>182</v>
+        <v>640</v>
       </c>
       <c r="T1088" t="n">
         <v>18</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87475,41 +87475,41 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="N1089" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="O1089" t="n">
-        <v>28000</v>
+        <v>7000</v>
       </c>
       <c r="P1089" t="n">
-        <v>28000</v>
+        <v>6433</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>1167</v>
+        <v>357</v>
       </c>
       <c r="T1089" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>60</v>
+        <v>440</v>
       </c>
       <c r="N1090" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O1090" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P1090" t="n">
-        <v>16000</v>
+        <v>7591</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87582,11 +87582,11 @@
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>889</v>
+        <v>422</v>
       </c>
       <c r="T1090" t="n">
         <v>18</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87640,33 +87640,33 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1091" t="n">
         <v>50</v>
       </c>
       <c r="N1091" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O1091" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P1091" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T1091" t="n">
         <v>18</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87720,20 +87720,20 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="N1092" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O1092" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P1092" t="n">
-        <v>12000</v>
+        <v>5719</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>667</v>
+        <v>318</v>
       </c>
       <c r="T1092" t="n">
         <v>18</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,38 +87795,38 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="N1093" t="n">
-        <v>30000</v>
+        <v>4500</v>
       </c>
       <c r="O1093" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="P1093" t="n">
-        <v>30000</v>
+        <v>4767</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>1667</v>
+        <v>265</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87875,41 +87875,41 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="N1094" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="O1094" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="P1094" t="n">
-        <v>25000</v>
+        <v>3278</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>1042</v>
+        <v>182</v>
       </c>
       <c r="T1094" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1095">
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87960,20 +87960,20 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N1095" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="O1095" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P1095" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>917</v>
+        <v>1167</v>
       </c>
       <c r="T1095" t="n">
         <v>24</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88040,20 +88040,20 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N1096" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O1096" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1096" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88066,7 +88066,7 @@
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T1096" t="n">
         <v>18</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N1097" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1097" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1097" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88146,7 +88146,7 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T1097" t="n">
         <v>18</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,20 +88200,20 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N1098" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1098" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1098" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88226,7 +88226,7 @@
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1098" t="n">
         <v>18</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88284,16 +88284,16 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="N1099" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="O1099" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P1099" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>1444</v>
+        <v>1667</v>
       </c>
       <c r="T1099" t="n">
         <v>18</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,41 +88355,41 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="N1100" t="n">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="O1100" t="n">
-        <v>4200</v>
+        <v>25000</v>
       </c>
       <c r="P1100" t="n">
-        <v>4107</v>
+        <v>25000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>228</v>
+        <v>1042</v>
       </c>
       <c r="T1100" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,41 +88435,41 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="N1101" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="O1101" t="n">
-        <v>4200</v>
+        <v>22000</v>
       </c>
       <c r="P1101" t="n">
-        <v>4110</v>
+        <v>22000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>228</v>
+        <v>917</v>
       </c>
       <c r="T1101" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>560</v>
+        <v>45</v>
       </c>
       <c r="N1102" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1102" t="n">
-        <v>3200</v>
+        <v>15000</v>
       </c>
       <c r="P1102" t="n">
-        <v>3107</v>
+        <v>15000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88542,11 +88542,11 @@
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>173</v>
+        <v>833</v>
       </c>
       <c r="T1102" t="n">
         <v>18</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="N1103" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="O1103" t="n">
-        <v>3300</v>
+        <v>13000</v>
       </c>
       <c r="P1103" t="n">
-        <v>3160</v>
+        <v>13000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>176</v>
+        <v>722</v>
       </c>
       <c r="T1103" t="n">
         <v>18</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88680,20 +88680,20 @@
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>365</v>
+        <v>85</v>
       </c>
       <c r="N1104" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="O1104" t="n">
-        <v>2200</v>
+        <v>10000</v>
       </c>
       <c r="P1104" t="n">
-        <v>2107</v>
+        <v>10000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>117</v>
+        <v>556</v>
       </c>
       <c r="T1104" t="n">
         <v>18</v>
@@ -88727,68 +88727,548 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1105" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1105" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1105" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>Sutil De Gase</t>
+        </is>
+      </c>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1105" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>26000</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>26000</v>
+      </c>
+      <c r="Q1105" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1105" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1105" t="n">
+        <v>1444</v>
+      </c>
+      <c r="T1105" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1106" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E1105" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1105" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1105" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1105" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1105" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1105" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1105" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1105" t="inlineStr">
+      <c r="E1106" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1106" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1106" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1106" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1106" t="n">
+        <v>410</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>4200</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>4107</v>
+      </c>
+      <c r="Q1106" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1106" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1106" t="n">
+        <v>228</v>
+      </c>
+      <c r="T1106" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1107" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1107" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1107" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1107" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1107" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>4200</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>4110</v>
+      </c>
+      <c r="Q1107" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1107" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1107" t="n">
+        <v>228</v>
+      </c>
+      <c r="T1107" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1108" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1108" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1108" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1108" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1108" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1108" t="n">
+        <v>560</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>3107</v>
+      </c>
+      <c r="Q1108" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1108" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1108" t="n">
+        <v>173</v>
+      </c>
+      <c r="T1108" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1109" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1109" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1109" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1109" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1109" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1109" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1109" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>3300</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>3160</v>
+      </c>
+      <c r="Q1109" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1109" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1109" t="n">
+        <v>176</v>
+      </c>
+      <c r="T1109" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1110" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1110" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1110" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1110" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1110" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1110" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1105" t="n">
+      <c r="M1110" t="n">
+        <v>365</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>2107</v>
+      </c>
+      <c r="Q1110" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1110" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1110" t="n">
+        <v>117</v>
+      </c>
+      <c r="T1110" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1111" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1111" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1111" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1111" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1111" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1111" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1111" t="n">
         <v>390</v>
       </c>
-      <c r="N1105" t="n">
+      <c r="N1111" t="n">
         <v>2000</v>
       </c>
-      <c r="O1105" t="n">
+      <c r="O1111" t="n">
         <v>2200</v>
       </c>
-      <c r="P1105" t="n">
+      <c r="P1111" t="n">
         <v>2092</v>
       </c>
-      <c r="Q1105" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1105" t="inlineStr">
+      <c r="Q1111" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1111" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1105" t="n">
+      <c r="S1111" t="n">
         <v>116</v>
       </c>
-      <c r="T1105" t="n">
+      <c r="T1111" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1149"/>
+  <dimension ref="A1:T1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80280,20 +80280,20 @@
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="N999" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="O999" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P999" t="n">
-        <v>12636</v>
+        <v>5731</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
@@ -80302,11 +80302,11 @@
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>702</v>
+        <v>318</v>
       </c>
       <c r="T999" t="n">
         <v>18</v>
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80360,20 +80360,20 @@
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>135</v>
+        <v>640</v>
       </c>
       <c r="N1000" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O1000" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P1000" t="n">
-        <v>9556</v>
+        <v>4258</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
@@ -80382,11 +80382,11 @@
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>531</v>
+        <v>237</v>
       </c>
       <c r="T1000" t="n">
         <v>18</v>
@@ -80407,7 +80407,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -80440,20 +80440,20 @@
       </c>
       <c r="L1001" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="N1001" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O1001" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="P1001" t="n">
-        <v>6571</v>
+        <v>2759</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>365</v>
+        <v>153</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80520,20 +80520,20 @@
       </c>
       <c r="L1002" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="N1002" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1002" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P1002" t="n">
-        <v>14000</v>
+        <v>12636</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>778</v>
+        <v>702</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80600,20 +80600,20 @@
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="N1003" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O1003" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1003" t="n">
-        <v>14000</v>
+        <v>9556</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
@@ -80622,11 +80622,11 @@
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>778</v>
+        <v>531</v>
       </c>
       <c r="T1003" t="n">
         <v>18</v>
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80680,20 +80680,20 @@
       </c>
       <c r="L1004" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="N1004" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O1004" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P1004" t="n">
-        <v>15000</v>
+        <v>6571</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
@@ -80702,11 +80702,11 @@
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>833</v>
+        <v>365</v>
       </c>
       <c r="T1004" t="n">
         <v>18</v>
@@ -80760,20 +80760,20 @@
       </c>
       <c r="L1005" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N1005" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O1005" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P1005" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80782,11 +80782,11 @@
       </c>
       <c r="R1005" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80840,20 +80840,20 @@
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1006" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O1006" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1006" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
@@ -80862,11 +80862,11 @@
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T1006" t="n">
         <v>18</v>
@@ -80920,20 +80920,20 @@
       </c>
       <c r="L1007" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1007" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N1007" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1007" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1007" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q1007" t="inlineStr">
         <is>
@@ -80946,7 +80946,7 @@
         </is>
       </c>
       <c r="S1007" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T1007" t="n">
         <v>18</v>
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N1008" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1008" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1008" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81022,11 +81022,11 @@
       </c>
       <c r="R1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N1009" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O1009" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P1009" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81160,20 +81160,20 @@
       </c>
       <c r="L1010" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="N1010" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1010" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1010" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81240,20 +81240,20 @@
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="N1011" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1011" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1011" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81320,20 +81320,20 @@
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1012" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1012" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1012" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81400,20 +81400,20 @@
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="N1013" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1013" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1013" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81422,11 +81422,11 @@
       </c>
       <c r="R1013" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81480,20 +81480,20 @@
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N1014" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="O1014" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P1014" t="n">
-        <v>6750</v>
+        <v>11000</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81560,20 +81560,20 @@
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N1015" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O1015" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P1015" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81582,11 +81582,11 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81640,11 +81640,11 @@
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1016" t="n">
         <v>7000</v>
@@ -81662,7 +81662,7 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1016" t="n">
@@ -81720,20 +81720,20 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N1017" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O1017" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P1017" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,11 +81742,11 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="T1017" t="n">
         <v>18</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1018" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O1018" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P1018" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>278</v>
+        <v>444</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81880,11 +81880,11 @@
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1019" t="n">
         <v>7000</v>
@@ -81902,7 +81902,7 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1019" t="n">
@@ -81960,20 +81960,20 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1020" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1020" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P1020" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1021" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1021" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1021" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="T1021" t="n">
         <v>18</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N1022" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1022" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1022" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="T1022" t="n">
         <v>18</v>
@@ -82200,11 +82200,11 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1023" t="n">
         <v>6000</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="N1024" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1024" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P1024" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82302,11 +82302,11 @@
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>833</v>
+        <v>222</v>
       </c>
       <c r="T1024" t="n">
         <v>18</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82360,20 +82360,20 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>590</v>
+        <v>180</v>
       </c>
       <c r="N1025" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O1025" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P1025" t="n">
-        <v>11186</v>
+        <v>4000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82382,11 +82382,11 @@
       </c>
       <c r="R1025" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>621</v>
+        <v>222</v>
       </c>
       <c r="T1025" t="n">
         <v>18</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82440,20 +82440,20 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N1026" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O1026" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P1026" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="T1026" t="n">
         <v>18</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N1027" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O1027" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P1027" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="T1027" t="n">
         <v>18</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82600,20 +82600,20 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>310</v>
+        <v>590</v>
       </c>
       <c r="N1028" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O1028" t="n">
         <v>14000</v>
       </c>
-      <c r="O1028" t="n">
-        <v>15000</v>
-      </c>
       <c r="P1028" t="n">
-        <v>14548</v>
+        <v>11186</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82622,11 +82622,11 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>808</v>
+        <v>621</v>
       </c>
       <c r="T1028" t="n">
         <v>18</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="N1029" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1029" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P1029" t="n">
-        <v>11545</v>
+        <v>13000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="T1029" t="n">
         <v>18</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82764,16 +82764,16 @@
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="N1030" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O1030" t="n">
         <v>8000</v>
       </c>
       <c r="P1030" t="n">
-        <v>7796</v>
+        <v>8000</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82782,11 +82782,11 @@
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="T1030" t="n">
         <v>18</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82840,33 +82840,33 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="N1031" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O1031" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P1031" t="n">
-        <v>24000</v>
+        <v>14548</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>1333</v>
+        <v>808</v>
       </c>
       <c r="T1031" t="n">
         <v>18</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82920,20 +82920,20 @@
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="N1032" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O1032" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P1032" t="n">
-        <v>20529</v>
+        <v>11545</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82942,11 +82942,11 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>1140</v>
+        <v>641</v>
       </c>
       <c r="T1032" t="n">
         <v>18</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -83000,20 +83000,20 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N1033" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="O1033" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P1033" t="n">
-        <v>17478</v>
+        <v>7796</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>971</v>
+        <v>433</v>
       </c>
       <c r="T1033" t="n">
         <v>18</v>
@@ -83080,24 +83080,24 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N1034" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O1034" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="P1034" t="n">
-        <v>8636</v>
+        <v>24000</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1034" t="inlineStr">
@@ -83106,7 +83106,7 @@
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>480</v>
+        <v>1333</v>
       </c>
       <c r="T1034" t="n">
         <v>18</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83155,41 +83155,41 @@
       </c>
       <c r="K1035" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="N1035" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="O1035" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="P1035" t="n">
-        <v>33500</v>
+        <v>20529</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>1396</v>
+        <v>1140</v>
       </c>
       <c r="T1035" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1036">
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N1036" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O1036" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P1036" t="n">
-        <v>15000</v>
+        <v>17478</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>833</v>
+        <v>971</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83320,20 +83320,20 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="N1037" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O1037" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P1037" t="n">
-        <v>16000</v>
+        <v>8636</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83346,7 +83346,7 @@
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>889</v>
+        <v>480</v>
       </c>
       <c r="T1037" t="n">
         <v>18</v>
@@ -83395,41 +83395,41 @@
       </c>
       <c r="K1038" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="N1038" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="O1038" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="P1038" t="n">
-        <v>12000</v>
+        <v>33500</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>667</v>
+        <v>1396</v>
       </c>
       <c r="T1038" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1039">
@@ -83480,20 +83480,20 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="N1039" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1039" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1039" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83502,11 +83502,11 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T1039" t="n">
         <v>18</v>
@@ -83560,20 +83560,20 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1040" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O1040" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P1040" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="T1040" t="n">
         <v>18</v>
@@ -83635,41 +83635,41 @@
       </c>
       <c r="K1041" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N1041" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="O1041" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="P1041" t="n">
-        <v>32500</v>
+        <v>12000</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>1354</v>
+        <v>667</v>
       </c>
       <c r="T1041" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1042">
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83720,20 +83720,20 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="N1042" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O1042" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P1042" t="n">
-        <v>4280</v>
+        <v>13000</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>238</v>
+        <v>722</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N1043" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O1043" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P1043" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="T1043" t="n">
         <v>18</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83875,41 +83875,41 @@
       </c>
       <c r="K1044" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="N1044" t="n">
-        <v>4000</v>
+        <v>32000</v>
       </c>
       <c r="O1044" t="n">
-        <v>4500</v>
+        <v>33000</v>
       </c>
       <c r="P1044" t="n">
-        <v>4278</v>
+        <v>32500</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>238</v>
+        <v>1354</v>
       </c>
       <c r="T1044" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1045">
@@ -83960,20 +83960,20 @@
       </c>
       <c r="L1045" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="N1045" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1045" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P1045" t="n">
-        <v>3230</v>
+        <v>4280</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83986,7 +83986,7 @@
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="T1045" t="n">
         <v>18</v>
@@ -84040,20 +84040,20 @@
       </c>
       <c r="L1046" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N1046" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O1046" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P1046" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84066,7 +84066,7 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="T1046" t="n">
         <v>18</v>
@@ -84120,20 +84120,20 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>550</v>
+        <v>270</v>
       </c>
       <c r="N1047" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1047" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P1047" t="n">
-        <v>3245</v>
+        <v>4278</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84146,7 +84146,7 @@
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="T1047" t="n">
         <v>18</v>
@@ -84200,20 +84200,20 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>490</v>
+        <v>370</v>
       </c>
       <c r="N1048" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1048" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1048" t="n">
-        <v>2214</v>
+        <v>3230</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84226,7 +84226,7 @@
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="T1048" t="n">
         <v>18</v>
@@ -84280,20 +84280,20 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="N1049" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O1049" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1049" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84306,7 +84306,7 @@
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="T1049" t="n">
         <v>18</v>
@@ -84360,20 +84360,20 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>325</v>
+        <v>550</v>
       </c>
       <c r="N1050" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1050" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1050" t="n">
-        <v>2285</v>
+        <v>3245</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="T1050" t="n">
         <v>18</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="N1051" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O1051" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="P1051" t="n">
-        <v>4164</v>
+        <v>2214</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="T1051" t="n">
         <v>18</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N1052" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O1052" t="n">
-        <v>4200</v>
+        <v>2500</v>
       </c>
       <c r="P1052" t="n">
-        <v>4120</v>
+        <v>2500</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84546,7 +84546,7 @@
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="T1052" t="n">
         <v>18</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>830</v>
+        <v>325</v>
       </c>
       <c r="N1053" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O1053" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="P1053" t="n">
-        <v>3108</v>
+        <v>2285</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84622,11 +84622,11 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="N1054" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1054" t="n">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="P1054" t="n">
-        <v>3106</v>
+        <v>4164</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="T1054" t="n">
         <v>18</v>
@@ -84760,20 +84760,20 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N1055" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1055" t="n">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="P1055" t="n">
-        <v>2278</v>
+        <v>4120</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84782,11 +84782,11 @@
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="T1055" t="n">
         <v>18</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>400</v>
+        <v>830</v>
       </c>
       <c r="N1056" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1056" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="P1056" t="n">
-        <v>2090</v>
+        <v>3108</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84862,11 +84862,11 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84915,41 +84915,41 @@
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>60</v>
+        <v>510</v>
       </c>
       <c r="N1057" t="n">
-        <v>27000</v>
+        <v>3000</v>
       </c>
       <c r="O1057" t="n">
-        <v>27000</v>
+        <v>3200</v>
       </c>
       <c r="P1057" t="n">
-        <v>27000</v>
+        <v>3106</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>1125</v>
+        <v>173</v>
       </c>
       <c r="T1057" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1058">
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="N1058" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O1058" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="P1058" t="n">
-        <v>15000</v>
+        <v>2278</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>833</v>
+        <v>127</v>
       </c>
       <c r="T1058" t="n">
         <v>18</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,20 +85080,20 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N1059" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="O1059" t="n">
-        <v>13000</v>
+        <v>2200</v>
       </c>
       <c r="P1059" t="n">
-        <v>13000</v>
+        <v>2090</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>722</v>
+        <v>116</v>
       </c>
       <c r="T1059" t="n">
         <v>18</v>
@@ -85155,41 +85155,41 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="N1060" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="O1060" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="P1060" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T1060" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1061">
@@ -85235,38 +85235,38 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N1061" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="O1061" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="P1061" t="n">
-        <v>31053</v>
+        <v>15000</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>1725</v>
+        <v>833</v>
       </c>
       <c r="T1061" t="n">
         <v>18</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N1062" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O1062" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P1062" t="n">
-        <v>14556</v>
+        <v>13000</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85346,7 +85346,7 @@
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>809</v>
+        <v>722</v>
       </c>
       <c r="T1062" t="n">
         <v>18</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="N1063" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O1063" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P1063" t="n">
-        <v>12422</v>
+        <v>9000</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85426,7 +85426,7 @@
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>690</v>
+        <v>500</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85475,38 +85475,38 @@
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>630</v>
+        <v>95</v>
       </c>
       <c r="N1064" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="O1064" t="n">
-        <v>7500</v>
+        <v>32000</v>
       </c>
       <c r="P1064" t="n">
-        <v>7278</v>
+        <v>31053</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>404</v>
+        <v>1725</v>
       </c>
       <c r="T1064" t="n">
         <v>18</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85564,16 +85564,16 @@
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="N1065" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1065" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P1065" t="n">
-        <v>4273</v>
+        <v>14556</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>237</v>
+        <v>809</v>
       </c>
       <c r="T1065" t="n">
         <v>18</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,20 +85640,20 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N1066" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O1066" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P1066" t="n">
-        <v>4292</v>
+        <v>12422</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85662,11 +85662,11 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>238</v>
+        <v>690</v>
       </c>
       <c r="T1066" t="n">
         <v>18</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85720,20 +85720,20 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1067" t="n">
         <v>630</v>
       </c>
       <c r="N1067" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O1067" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P1067" t="n">
-        <v>3222</v>
+        <v>7278</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>179</v>
+        <v>404</v>
       </c>
       <c r="T1067" t="n">
         <v>18</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="N1068" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1068" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="P1068" t="n">
-        <v>3265</v>
+        <v>4273</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="T1068" t="n">
         <v>18</v>
@@ -85880,20 +85880,20 @@
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>620</v>
+        <v>480</v>
       </c>
       <c r="N1069" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1069" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1069" t="n">
-        <v>2274</v>
+        <v>4292</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="T1069" t="n">
         <v>18</v>
@@ -85960,20 +85960,20 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>370</v>
+        <v>630</v>
       </c>
       <c r="N1070" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O1070" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1070" t="n">
-        <v>2230</v>
+        <v>3222</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="T1070" t="n">
         <v>18</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86040,20 +86040,20 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>680</v>
+        <v>510</v>
       </c>
       <c r="N1071" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1071" t="n">
         <v>3500</v>
       </c>
-      <c r="O1071" t="n">
-        <v>4000</v>
-      </c>
       <c r="P1071" t="n">
-        <v>3779</v>
+        <v>3265</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86062,11 +86062,11 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="T1071" t="n">
         <v>18</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86120,20 +86120,20 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>440</v>
+        <v>620</v>
       </c>
       <c r="N1072" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1072" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P1072" t="n">
-        <v>3795</v>
+        <v>2274</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
@@ -86142,11 +86142,11 @@
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="T1072" t="n">
         <v>18</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="N1073" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O1073" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="P1073" t="n">
-        <v>3104</v>
+        <v>2230</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="T1073" t="n">
         <v>18</v>
@@ -86280,20 +86280,20 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>490</v>
+        <v>680</v>
       </c>
       <c r="N1074" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="O1074" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1074" t="n">
-        <v>2894</v>
+        <v>3779</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>510</v>
+        <v>440</v>
       </c>
       <c r="N1075" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="O1075" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P1075" t="n">
-        <v>1914</v>
+        <v>3795</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="T1075" t="n">
         <v>18</v>
@@ -86440,20 +86440,20 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="N1076" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="O1076" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="P1076" t="n">
-        <v>1917</v>
+        <v>3104</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="T1076" t="n">
         <v>18</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>970</v>
+        <v>490</v>
       </c>
       <c r="N1077" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="O1077" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P1077" t="n">
-        <v>4716</v>
+        <v>2894</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>262</v>
+        <v>161</v>
       </c>
       <c r="T1077" t="n">
         <v>18</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>830</v>
+        <v>510</v>
       </c>
       <c r="N1078" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="O1078" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="P1078" t="n">
-        <v>4771</v>
+        <v>1914</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="T1078" t="n">
         <v>18</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>780</v>
+        <v>410</v>
       </c>
       <c r="N1079" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="O1079" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="P1079" t="n">
-        <v>3288</v>
+        <v>1917</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86702,11 +86702,11 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="T1079" t="n">
         <v>18</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>720</v>
+        <v>970</v>
       </c>
       <c r="N1080" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O1080" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P1080" t="n">
-        <v>3222</v>
+        <v>4716</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="T1080" t="n">
         <v>18</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>590</v>
+        <v>830</v>
       </c>
       <c r="N1081" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="O1081" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="P1081" t="n">
-        <v>2302</v>
+        <v>4771</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="T1081" t="n">
         <v>18</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="N1082" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="O1082" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="P1082" t="n">
-        <v>2411</v>
+        <v>3288</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="T1082" t="n">
         <v>18</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87000,24 +87000,24 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="N1083" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1083" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P1083" t="n">
-        <v>16000</v>
+        <v>3222</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>889</v>
+        <v>179</v>
       </c>
       <c r="T1083" t="n">
         <v>18</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>340</v>
+        <v>590</v>
       </c>
       <c r="N1084" t="n">
-        <v>13500</v>
+        <v>2200</v>
       </c>
       <c r="O1084" t="n">
-        <v>14000</v>
+        <v>2400</v>
       </c>
       <c r="P1084" t="n">
-        <v>13706</v>
+        <v>2302</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>761</v>
+        <v>128</v>
       </c>
       <c r="T1084" t="n">
         <v>18</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="N1085" t="n">
-        <v>9500</v>
+        <v>2300</v>
       </c>
       <c r="O1085" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P1085" t="n">
-        <v>9781</v>
+        <v>2411</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87186,7 +87186,7 @@
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>543</v>
+        <v>134</v>
       </c>
       <c r="T1085" t="n">
         <v>18</v>
@@ -87240,24 +87240,24 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N1086" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="O1086" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="P1086" t="n">
-        <v>5732</v>
+        <v>16000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
@@ -87266,7 +87266,7 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>318</v>
+        <v>889</v>
       </c>
       <c r="T1086" t="n">
         <v>18</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87315,41 +87315,41 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="N1087" t="n">
-        <v>65000</v>
+        <v>13500</v>
       </c>
       <c r="O1087" t="n">
-        <v>65000</v>
+        <v>14000</v>
       </c>
       <c r="P1087" t="n">
-        <v>65000</v>
+        <v>13706</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>2708</v>
+        <v>761</v>
       </c>
       <c r="T1087" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1088">
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87395,41 +87395,41 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>5</v>
+        <v>320</v>
       </c>
       <c r="N1088" t="n">
-        <v>60000</v>
+        <v>9500</v>
       </c>
       <c r="O1088" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="P1088" t="n">
-        <v>60000</v>
+        <v>9781</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>2500</v>
+        <v>543</v>
       </c>
       <c r="T1088" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1089">
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87480,20 +87480,20 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="N1089" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="O1089" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P1089" t="n">
-        <v>4273</v>
+        <v>5732</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,11 +87502,11 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="T1089" t="n">
         <v>18</v>
@@ -87555,41 +87555,41 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="N1090" t="n">
-        <v>3000</v>
+        <v>65000</v>
       </c>
       <c r="O1090" t="n">
-        <v>3500</v>
+        <v>65000</v>
       </c>
       <c r="P1090" t="n">
-        <v>3275</v>
+        <v>65000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>182</v>
+        <v>2708</v>
       </c>
       <c r="T1090" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1091">
@@ -87635,41 +87635,41 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="N1091" t="n">
-        <v>2000</v>
+        <v>60000</v>
       </c>
       <c r="O1091" t="n">
+        <v>60000</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>60000</v>
+      </c>
+      <c r="Q1091" t="inlineStr">
+        <is>
+          <t>$/caja 24 kilos</t>
+        </is>
+      </c>
+      <c r="R1091" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="S1091" t="n">
         <v>2500</v>
       </c>
-      <c r="P1091" t="n">
-        <v>2318</v>
-      </c>
-      <c r="Q1091" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1091" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S1091" t="n">
-        <v>129</v>
-      </c>
       <c r="T1091" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1092">
@@ -87715,41 +87715,41 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="N1092" t="n">
-        <v>36000</v>
+        <v>4000</v>
       </c>
       <c r="O1092" t="n">
-        <v>36000</v>
+        <v>4500</v>
       </c>
       <c r="P1092" t="n">
-        <v>36000</v>
+        <v>4273</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>1500</v>
+        <v>237</v>
       </c>
       <c r="T1092" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87795,41 +87795,41 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="N1093" t="n">
-        <v>32000</v>
+        <v>3000</v>
       </c>
       <c r="O1093" t="n">
-        <v>32000</v>
+        <v>3500</v>
       </c>
       <c r="P1093" t="n">
-        <v>32000</v>
+        <v>3275</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>1333</v>
+        <v>182</v>
       </c>
       <c r="T1093" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1094">
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87880,20 +87880,20 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="N1094" t="n">
-        <v>17000</v>
+        <v>2000</v>
       </c>
       <c r="O1094" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="P1094" t="n">
-        <v>17571</v>
+        <v>2318</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>976</v>
+        <v>129</v>
       </c>
       <c r="T1094" t="n">
         <v>18</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87955,41 +87955,41 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N1095" t="n">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="O1095" t="n">
-        <v>19000</v>
+        <v>36000</v>
       </c>
       <c r="P1095" t="n">
-        <v>18400</v>
+        <v>36000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>1022</v>
+        <v>1500</v>
       </c>
       <c r="T1095" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1096">
@@ -88035,41 +88035,41 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="N1096" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="O1096" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="P1096" t="n">
-        <v>14556</v>
+        <v>32000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>809</v>
+        <v>1333</v>
       </c>
       <c r="T1096" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1097">
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N1097" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O1097" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P1097" t="n">
-        <v>15421</v>
+        <v>17571</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>857</v>
+        <v>976</v>
       </c>
       <c r="T1097" t="n">
         <v>18</v>
@@ -88195,41 +88195,41 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="N1098" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="O1098" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P1098" t="n">
-        <v>30000</v>
+        <v>18400</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>1250</v>
+        <v>1022</v>
       </c>
       <c r="T1098" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88280,20 +88280,20 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="N1099" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O1099" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P1099" t="n">
-        <v>19487</v>
+        <v>14556</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>1083</v>
+        <v>809</v>
       </c>
       <c r="T1099" t="n">
         <v>18</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88360,20 +88360,20 @@
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>430</v>
+        <v>95</v>
       </c>
       <c r="N1100" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O1100" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P1100" t="n">
-        <v>20419</v>
+        <v>15421</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88382,11 +88382,11 @@
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>1134</v>
+        <v>857</v>
       </c>
       <c r="T1100" t="n">
         <v>18</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88435,41 +88435,41 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="N1101" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="O1101" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="P1101" t="n">
-        <v>16459</v>
+        <v>30000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>914</v>
+        <v>1250</v>
       </c>
       <c r="T1101" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1102">
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="N1102" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O1102" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P1102" t="n">
-        <v>17444</v>
+        <v>19487</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88542,11 +88542,11 @@
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>969</v>
+        <v>1083</v>
       </c>
       <c r="T1102" t="n">
         <v>18</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>155</v>
+        <v>430</v>
       </c>
       <c r="N1103" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O1103" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P1103" t="n">
-        <v>7548</v>
+        <v>20419</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>419</v>
+        <v>1134</v>
       </c>
       <c r="T1103" t="n">
         <v>18</v>
@@ -88680,20 +88680,20 @@
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="N1104" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O1104" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1104" t="n">
-        <v>11529</v>
+        <v>16459</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>640</v>
+        <v>914</v>
       </c>
       <c r="T1104" t="n">
         <v>18</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88755,41 +88755,41 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="N1105" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O1105" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="P1105" t="n">
-        <v>30000</v>
+        <v>17444</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>1250</v>
+        <v>969</v>
       </c>
       <c r="T1105" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1106">
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88840,20 +88840,20 @@
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="N1106" t="n">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="O1106" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P1106" t="n">
-        <v>3912</v>
+        <v>7548</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
@@ -88862,11 +88862,11 @@
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>217</v>
+        <v>419</v>
       </c>
       <c r="T1106" t="n">
         <v>18</v>
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N1107" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="O1107" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P1107" t="n">
-        <v>3107</v>
+        <v>11529</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>173</v>
+        <v>640</v>
       </c>
       <c r="T1107" t="n">
         <v>18</v>
@@ -88995,41 +88995,41 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="N1108" t="n">
-        <v>1800</v>
+        <v>30000</v>
       </c>
       <c r="O1108" t="n">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="P1108" t="n">
-        <v>1890</v>
+        <v>30000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>105</v>
+        <v>1250</v>
       </c>
       <c r="T1108" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1109">
@@ -89075,41 +89075,41 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="N1109" t="n">
-        <v>32000</v>
+        <v>3800</v>
       </c>
       <c r="O1109" t="n">
-        <v>32000</v>
+        <v>4000</v>
       </c>
       <c r="P1109" t="n">
-        <v>32000</v>
+        <v>3912</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>1333</v>
+        <v>217</v>
       </c>
       <c r="T1109" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89160,33 +89160,33 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1110" t="n">
         <v>300</v>
       </c>
       <c r="N1110" t="n">
-        <v>21000</v>
+        <v>3000</v>
       </c>
       <c r="O1110" t="n">
-        <v>21000</v>
+        <v>3200</v>
       </c>
       <c r="P1110" t="n">
-        <v>21000</v>
+        <v>3107</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>1167</v>
+        <v>173</v>
       </c>
       <c r="T1110" t="n">
         <v>18</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89240,20 +89240,20 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N1111" t="n">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="O1111" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="P1111" t="n">
-        <v>18556</v>
+        <v>1890</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>1031</v>
+        <v>105</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89315,41 +89315,41 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>260</v>
+        <v>20</v>
       </c>
       <c r="N1112" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="O1112" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="P1112" t="n">
-        <v>13308</v>
+        <v>32000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>739</v>
+        <v>1333</v>
       </c>
       <c r="T1112" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1113">
@@ -89400,24 +89400,24 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="N1113" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="O1113" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P1113" t="n">
-        <v>16551</v>
+        <v>21000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>920</v>
+        <v>1167</v>
       </c>
       <c r="T1113" t="n">
         <v>18</v>
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="N1114" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O1114" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P1114" t="n">
-        <v>8538</v>
+        <v>18556</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89502,11 +89502,11 @@
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>474</v>
+        <v>1031</v>
       </c>
       <c r="T1114" t="n">
         <v>18</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89560,20 +89560,20 @@
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>730</v>
+        <v>260</v>
       </c>
       <c r="N1115" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O1115" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="P1115" t="n">
-        <v>4260</v>
+        <v>13308</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89582,11 +89582,11 @@
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>237</v>
+        <v>739</v>
       </c>
       <c r="T1115" t="n">
         <v>18</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89640,20 +89640,20 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="N1116" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="O1116" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="P1116" t="n">
-        <v>3231</v>
+        <v>16551</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89662,11 +89662,11 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>180</v>
+        <v>920</v>
       </c>
       <c r="T1116" t="n">
         <v>18</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89724,16 +89724,16 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>650</v>
+        <v>260</v>
       </c>
       <c r="N1117" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="O1117" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="P1117" t="n">
-        <v>2269</v>
+        <v>8538</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>126</v>
+        <v>474</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89800,33 +89800,33 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>120</v>
+        <v>730</v>
       </c>
       <c r="N1118" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="O1118" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="P1118" t="n">
-        <v>18000</v>
+        <v>4260</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>1000</v>
+        <v>237</v>
       </c>
       <c r="T1118" t="n">
         <v>18</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89880,20 +89880,20 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="N1119" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1119" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P1119" t="n">
-        <v>16636</v>
+        <v>3231</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89902,11 +89902,11 @@
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>924</v>
+        <v>180</v>
       </c>
       <c r="T1119" t="n">
         <v>18</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89960,20 +89960,20 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="N1120" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="O1120" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P1120" t="n">
-        <v>9706</v>
+        <v>2269</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89982,11 +89982,11 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>539</v>
+        <v>126</v>
       </c>
       <c r="T1120" t="n">
         <v>18</v>
@@ -90040,24 +90040,24 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N1121" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O1121" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="P1121" t="n">
-        <v>6200</v>
+        <v>18000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
@@ -90066,7 +90066,7 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>344</v>
+        <v>1000</v>
       </c>
       <c r="T1121" t="n">
         <v>18</v>
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90120,20 +90120,20 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="N1122" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O1122" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P1122" t="n">
-        <v>13615</v>
+        <v>16636</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90142,11 +90142,11 @@
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>756</v>
+        <v>924</v>
       </c>
       <c r="T1122" t="n">
         <v>18</v>
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90200,24 +90200,24 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="N1123" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="O1123" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1123" t="n">
-        <v>19455</v>
+        <v>9706</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1123" t="inlineStr">
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>1081</v>
+        <v>539</v>
       </c>
       <c r="T1123" t="n">
         <v>18</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90280,20 +90280,20 @@
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>630</v>
+        <v>250</v>
       </c>
       <c r="N1124" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O1124" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P1124" t="n">
-        <v>14556</v>
+        <v>6200</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>809</v>
+        <v>344</v>
       </c>
       <c r="T1124" t="n">
         <v>18</v>
@@ -90360,20 +90360,20 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="N1125" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O1125" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P1125" t="n">
-        <v>10559</v>
+        <v>13615</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90386,7 +90386,7 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>587</v>
+        <v>756</v>
       </c>
       <c r="T1125" t="n">
         <v>18</v>
@@ -90440,24 +90440,24 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="N1126" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O1126" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P1126" t="n">
-        <v>11517</v>
+        <v>19455</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
@@ -90466,7 +90466,7 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>640</v>
+        <v>1081</v>
       </c>
       <c r="T1126" t="n">
         <v>18</v>
@@ -90520,20 +90520,20 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>300</v>
+        <v>630</v>
       </c>
       <c r="N1127" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O1127" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P1127" t="n">
-        <v>6433</v>
+        <v>14556</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90542,11 +90542,11 @@
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>357</v>
+        <v>809</v>
       </c>
       <c r="T1127" t="n">
         <v>18</v>
@@ -90600,20 +90600,20 @@
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N1128" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1128" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P1128" t="n">
-        <v>7591</v>
+        <v>10559</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>422</v>
+        <v>587</v>
       </c>
       <c r="T1128" t="n">
         <v>18</v>
@@ -90680,33 +90680,33 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="N1129" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O1129" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1129" t="n">
-        <v>20000</v>
+        <v>11517</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>1111</v>
+        <v>640</v>
       </c>
       <c r="T1129" t="n">
         <v>18</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N1130" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O1130" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P1130" t="n">
-        <v>5719</v>
+        <v>6433</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="T1130" t="n">
         <v>18</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90840,20 +90840,20 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="N1131" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="O1131" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P1131" t="n">
-        <v>4767</v>
+        <v>7591</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>265</v>
+        <v>422</v>
       </c>
       <c r="T1131" t="n">
         <v>18</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90920,33 +90920,33 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="N1132" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O1132" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="P1132" t="n">
-        <v>3278</v>
+        <v>20000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>182</v>
+        <v>1111</v>
       </c>
       <c r="T1132" t="n">
         <v>18</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -90995,41 +90995,41 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="N1133" t="n">
-        <v>28000</v>
+        <v>5500</v>
       </c>
       <c r="O1133" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="P1133" t="n">
-        <v>28000</v>
+        <v>5719</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>1167</v>
+        <v>318</v>
       </c>
       <c r="T1133" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1134">
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91080,20 +91080,20 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>60</v>
+        <v>430</v>
       </c>
       <c r="N1134" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="O1134" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="P1134" t="n">
-        <v>16000</v>
+        <v>4767</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91102,11 +91102,11 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>889</v>
+        <v>265</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="N1135" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1135" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P1135" t="n">
-        <v>14000</v>
+        <v>3278</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>778</v>
+        <v>182</v>
       </c>
       <c r="T1135" t="n">
         <v>18</v>
@@ -91235,41 +91235,41 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="N1136" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="O1136" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="P1136" t="n">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="T1136" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1137">
@@ -91315,38 +91315,38 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N1137" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="O1137" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="P1137" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>1667</v>
+        <v>889</v>
       </c>
       <c r="T1137" t="n">
         <v>18</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91395,41 +91395,41 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="N1138" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O1138" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P1138" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>1042</v>
+        <v>778</v>
       </c>
       <c r="T1138" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1139">
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91475,41 +91475,41 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N1139" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O1139" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P1139" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>917</v>
+        <v>667</v>
       </c>
       <c r="T1139" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1140">
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91555,38 +91555,38 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N1140" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O1140" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P1140" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="T1140" t="n">
         <v>18</v>
@@ -91635,41 +91635,41 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N1141" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O1141" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P1141" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>722</v>
+        <v>1042</v>
       </c>
       <c r="T1141" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1142">
@@ -91715,41 +91715,41 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="N1142" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="O1142" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P1142" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="T1142" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1143">
@@ -91795,38 +91795,38 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N1143" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="O1143" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P1143" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>1444</v>
+        <v>833</v>
       </c>
       <c r="T1143" t="n">
         <v>18</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91880,20 +91880,20 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="N1144" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="O1144" t="n">
-        <v>4200</v>
+        <v>13000</v>
       </c>
       <c r="P1144" t="n">
-        <v>4107</v>
+        <v>13000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>228</v>
+        <v>722</v>
       </c>
       <c r="T1144" t="n">
         <v>18</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91960,20 +91960,20 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>400</v>
+        <v>85</v>
       </c>
       <c r="N1145" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1145" t="n">
-        <v>4200</v>
+        <v>10000</v>
       </c>
       <c r="P1145" t="n">
-        <v>4110</v>
+        <v>10000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91982,11 +91982,11 @@
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>228</v>
+        <v>556</v>
       </c>
       <c r="T1145" t="n">
         <v>18</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92035,38 +92035,38 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>560</v>
+        <v>20</v>
       </c>
       <c r="N1146" t="n">
-        <v>3000</v>
+        <v>26000</v>
       </c>
       <c r="O1146" t="n">
-        <v>3200</v>
+        <v>26000</v>
       </c>
       <c r="P1146" t="n">
-        <v>3107</v>
+        <v>26000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>173</v>
+        <v>1444</v>
       </c>
       <c r="T1146" t="n">
         <v>18</v>
@@ -92120,20 +92120,20 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>600</v>
+        <v>410</v>
       </c>
       <c r="N1147" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1147" t="n">
-        <v>3300</v>
+        <v>4200</v>
       </c>
       <c r="P1147" t="n">
-        <v>3160</v>
+        <v>4107</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="T1147" t="n">
         <v>18</v>
@@ -92200,20 +92200,20 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="N1148" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1148" t="n">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="P1148" t="n">
-        <v>2107</v>
+        <v>4110</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92222,11 +92222,11 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="T1148" t="n">
         <v>18</v>
@@ -92280,35 +92280,275 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1149" t="n">
+        <v>560</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>3200</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>3107</v>
+      </c>
+      <c r="Q1149" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1149" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1149" t="n">
+        <v>173</v>
+      </c>
+      <c r="T1149" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1150" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1150" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1150" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1150" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1150" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1150" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1150" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1150" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>3300</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>3160</v>
+      </c>
+      <c r="Q1150" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1150" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1150" t="n">
+        <v>176</v>
+      </c>
+      <c r="T1150" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1151" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1151" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1151" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1151" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1151" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1151" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1151" t="inlineStr">
+        <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1149" t="n">
+      <c r="M1151" t="n">
+        <v>365</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>2200</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>2107</v>
+      </c>
+      <c r="Q1151" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1151" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1151" t="n">
+        <v>117</v>
+      </c>
+      <c r="T1151" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1152" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1152" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1152" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1152" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1152" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1152" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1152" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1152" t="n">
         <v>390</v>
       </c>
-      <c r="N1149" t="n">
+      <c r="N1152" t="n">
         <v>2000</v>
       </c>
-      <c r="O1149" t="n">
+      <c r="O1152" t="n">
         <v>2200</v>
       </c>
-      <c r="P1149" t="n">
+      <c r="P1152" t="n">
         <v>2092</v>
       </c>
-      <c r="Q1149" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1149" t="inlineStr">
+      <c r="Q1152" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1152" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1149" t="n">
+      <c r="S1152" t="n">
         <v>116</v>
       </c>
-      <c r="T1149" t="n">
+      <c r="T1152" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1190"/>
+  <dimension ref="A1:T1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81047,7 +81047,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -81084,20 +81084,20 @@
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="N1009" t="n">
-        <v>100000</v>
+        <v>7000</v>
       </c>
       <c r="O1009" t="n">
-        <v>110000</v>
+        <v>7000</v>
       </c>
       <c r="P1009" t="n">
-        <v>105000</v>
+        <v>7000</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
-          <t>$/bins (450 kilos)</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1009" t="inlineStr">
@@ -81106,10 +81106,10 @@
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="T1009" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1010">
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81164,16 +81164,16 @@
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="N1010" t="n">
         <v>5500</v>
       </c>
       <c r="O1010" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P1010" t="n">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81244,16 +81244,16 @@
         </is>
       </c>
       <c r="M1011" t="n">
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="N1011" t="n">
         <v>5500</v>
       </c>
       <c r="O1011" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P1011" t="n">
-        <v>5830</v>
+        <v>5500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81266,7 +81266,7 @@
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81324,16 +81324,16 @@
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="N1012" t="n">
         <v>4500</v>
       </c>
       <c r="O1012" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P1012" t="n">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81342,11 +81342,11 @@
       </c>
       <c r="R1012" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81367,7 +81367,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -81404,16 +81404,16 @@
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="N1013" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O1013" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1013" t="n">
-        <v>4846</v>
+        <v>4000</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81447,7 +81447,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -81484,16 +81484,16 @@
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N1014" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="O1014" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P1014" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81502,11 +81502,11 @@
       </c>
       <c r="R1014" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81527,7 +81527,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -81564,16 +81564,16 @@
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N1015" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O1015" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P1015" t="n">
-        <v>3850</v>
+        <v>3000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81586,7 +81586,7 @@
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81607,7 +81607,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -81644,32 +81644,32 @@
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="N1016" t="n">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="O1016" t="n">
-        <v>17000</v>
+        <v>110000</v>
       </c>
       <c r="P1016" t="n">
-        <v>17000</v>
+        <v>105000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/bins (450 kilos)</t>
         </is>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>944</v>
+        <v>233</v>
       </c>
       <c r="T1016" t="n">
-        <v>18</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1017">
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81720,20 +81720,20 @@
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N1017" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O1017" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1017" t="n">
-        <v>19526</v>
+        <v>5750</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
@@ -81742,11 +81742,11 @@
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>1085</v>
+        <v>319</v>
       </c>
       <c r="T1017" t="n">
         <v>18</v>
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81800,20 +81800,20 @@
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N1018" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="O1018" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P1018" t="n">
-        <v>15000</v>
+        <v>5830</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>833</v>
+        <v>324</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81880,20 +81880,20 @@
       </c>
       <c r="L1019" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="N1019" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O1019" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P1019" t="n">
-        <v>17667</v>
+        <v>4750</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
@@ -81902,11 +81902,11 @@
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>982</v>
+        <v>264</v>
       </c>
       <c r="T1019" t="n">
         <v>18</v>
@@ -81927,7 +81927,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -81960,20 +81960,20 @@
       </c>
       <c r="L1020" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1020" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N1020" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O1020" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P1020" t="n">
-        <v>12000</v>
+        <v>4846</v>
       </c>
       <c r="Q1020" t="inlineStr">
         <is>
@@ -81982,11 +81982,11 @@
       </c>
       <c r="R1020" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1020" t="n">
-        <v>667</v>
+        <v>269</v>
       </c>
       <c r="T1020" t="n">
         <v>18</v>
@@ -82007,7 +82007,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -82040,20 +82040,20 @@
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1021" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N1021" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O1021" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P1021" t="n">
-        <v>12467</v>
+        <v>4000</v>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
@@ -82062,11 +82062,11 @@
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1021" t="n">
-        <v>693</v>
+        <v>222</v>
       </c>
       <c r="T1021" t="n">
         <v>18</v>
@@ -82087,7 +82087,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -82120,20 +82120,20 @@
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1022" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N1022" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1022" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="P1022" t="n">
-        <v>5500</v>
+        <v>3850</v>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
@@ -82142,11 +82142,11 @@
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1022" t="n">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="T1022" t="n">
         <v>18</v>
@@ -82167,7 +82167,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -82200,20 +82200,20 @@
       </c>
       <c r="L1023" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1023" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N1023" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="O1023" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="P1023" t="n">
-        <v>4500</v>
+        <v>17000</v>
       </c>
       <c r="Q1023" t="inlineStr">
         <is>
@@ -82222,11 +82222,11 @@
       </c>
       <c r="R1023" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1023" t="n">
-        <v>250</v>
+        <v>944</v>
       </c>
       <c r="T1023" t="n">
         <v>18</v>
@@ -82247,7 +82247,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -82280,20 +82280,20 @@
       </c>
       <c r="L1024" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1024" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N1024" t="n">
-        <v>2500</v>
+        <v>19000</v>
       </c>
       <c r="O1024" t="n">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="P1024" t="n">
-        <v>2500</v>
+        <v>19526</v>
       </c>
       <c r="Q1024" t="inlineStr">
         <is>
@@ -82302,11 +82302,11 @@
       </c>
       <c r="R1024" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1024" t="n">
-        <v>139</v>
+        <v>1085</v>
       </c>
       <c r="T1024" t="n">
         <v>18</v>
@@ -82327,7 +82327,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -82360,20 +82360,20 @@
       </c>
       <c r="L1025" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1025" t="n">
-        <v>680</v>
+        <v>120</v>
       </c>
       <c r="N1025" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O1025" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P1025" t="n">
-        <v>3779</v>
+        <v>15000</v>
       </c>
       <c r="Q1025" t="inlineStr">
         <is>
@@ -82386,7 +82386,7 @@
         </is>
       </c>
       <c r="S1025" t="n">
-        <v>210</v>
+        <v>833</v>
       </c>
       <c r="T1025" t="n">
         <v>18</v>
@@ -82407,7 +82407,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -82440,20 +82440,20 @@
       </c>
       <c r="L1026" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1026" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="N1026" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O1026" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P1026" t="n">
-        <v>3795</v>
+        <v>17667</v>
       </c>
       <c r="Q1026" t="inlineStr">
         <is>
@@ -82462,11 +82462,11 @@
       </c>
       <c r="R1026" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1026" t="n">
-        <v>211</v>
+        <v>982</v>
       </c>
       <c r="T1026" t="n">
         <v>18</v>
@@ -82487,7 +82487,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -82520,20 +82520,20 @@
       </c>
       <c r="L1027" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1027" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="N1027" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1027" t="n">
-        <v>3200</v>
+        <v>12000</v>
       </c>
       <c r="P1027" t="n">
-        <v>3104</v>
+        <v>12000</v>
       </c>
       <c r="Q1027" t="inlineStr">
         <is>
@@ -82546,7 +82546,7 @@
         </is>
       </c>
       <c r="S1027" t="n">
-        <v>172</v>
+        <v>667</v>
       </c>
       <c r="T1027" t="n">
         <v>18</v>
@@ -82567,7 +82567,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -82600,20 +82600,20 @@
       </c>
       <c r="L1028" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1028" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="N1028" t="n">
-        <v>2800</v>
+        <v>12000</v>
       </c>
       <c r="O1028" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="P1028" t="n">
-        <v>2894</v>
+        <v>12467</v>
       </c>
       <c r="Q1028" t="inlineStr">
         <is>
@@ -82622,11 +82622,11 @@
       </c>
       <c r="R1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1028" t="n">
-        <v>161</v>
+        <v>693</v>
       </c>
       <c r="T1028" t="n">
         <v>18</v>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82680,20 +82680,20 @@
       </c>
       <c r="L1029" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="N1029" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="O1029" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="P1029" t="n">
-        <v>1914</v>
+        <v>5500</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="T1029" t="n">
         <v>18</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82760,20 +82760,20 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="N1030" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="O1030" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="P1030" t="n">
-        <v>1917</v>
+        <v>4500</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82782,11 +82782,11 @@
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="T1030" t="n">
         <v>18</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82840,20 +82840,20 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N1031" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O1031" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P1031" t="n">
-        <v>11564</v>
+        <v>2500</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82862,11 +82862,11 @@
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>642</v>
+        <v>139</v>
       </c>
       <c r="T1031" t="n">
         <v>18</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82920,20 +82920,20 @@
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="N1032" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O1032" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P1032" t="n">
-        <v>10591</v>
+        <v>3779</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82942,11 +82942,11 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>588</v>
+        <v>210</v>
       </c>
       <c r="T1032" t="n">
         <v>18</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -83000,20 +83000,20 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="N1033" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O1033" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P1033" t="n">
-        <v>8556</v>
+        <v>3795</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>475</v>
+        <v>211</v>
       </c>
       <c r="T1033" t="n">
         <v>18</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83080,20 +83080,20 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="N1034" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="O1034" t="n">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="P1034" t="n">
-        <v>7758</v>
+        <v>3104</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>431</v>
+        <v>172</v>
       </c>
       <c r="T1034" t="n">
         <v>18</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83160,20 +83160,20 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="N1035" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="O1035" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P1035" t="n">
-        <v>5566</v>
+        <v>2894</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="T1035" t="n">
         <v>18</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="N1036" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="O1036" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="P1036" t="n">
-        <v>5317</v>
+        <v>1914</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44370</v>
+        <v>44425</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83320,20 +83320,20 @@
       </c>
       <c r="L1037" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>220</v>
+        <v>410</v>
       </c>
       <c r="N1037" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="O1037" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P1037" t="n">
-        <v>6000</v>
+        <v>1917</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="T1037" t="n">
         <v>18</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83400,20 +83400,20 @@
       </c>
       <c r="L1038" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="N1038" t="n">
-        <v>5500</v>
+        <v>11000</v>
       </c>
       <c r="O1038" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P1038" t="n">
-        <v>5792</v>
+        <v>11564</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83422,11 +83422,11 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>322</v>
+        <v>642</v>
       </c>
       <c r="T1038" t="n">
         <v>18</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83480,20 +83480,20 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1039" t="n">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="N1039" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O1039" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="P1039" t="n">
-        <v>5000</v>
+        <v>10591</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83502,11 +83502,11 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>278</v>
+        <v>588</v>
       </c>
       <c r="T1039" t="n">
         <v>18</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83560,20 +83560,20 @@
       </c>
       <c r="L1040" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>370</v>
+        <v>630</v>
       </c>
       <c r="N1040" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O1040" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P1040" t="n">
-        <v>4730</v>
+        <v>8556</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>263</v>
+        <v>475</v>
       </c>
       <c r="T1040" t="n">
         <v>18</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83640,20 +83640,20 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N1041" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O1041" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P1041" t="n">
-        <v>4000</v>
+        <v>7758</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>222</v>
+        <v>431</v>
       </c>
       <c r="T1041" t="n">
         <v>18</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83720,20 +83720,20 @@
       </c>
       <c r="L1042" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>240</v>
+        <v>530</v>
       </c>
       <c r="N1042" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1042" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P1042" t="n">
-        <v>3792</v>
+        <v>5566</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>211</v>
+        <v>309</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="N1043" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1043" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="P1043" t="n">
-        <v>3647</v>
+        <v>5317</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="T1043" t="n">
         <v>18</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83884,16 +83884,16 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="N1044" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="O1044" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="P1044" t="n">
-        <v>3703</v>
+        <v>6000</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="T1044" t="n">
         <v>18</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83964,16 +83964,16 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N1045" t="n">
-        <v>3500</v>
+        <v>5500</v>
       </c>
       <c r="O1045" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="P1045" t="n">
-        <v>3680</v>
+        <v>5792</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83982,11 +83982,11 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>204</v>
+        <v>322</v>
       </c>
       <c r="T1045" t="n">
         <v>18</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84044,16 +84044,16 @@
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="N1046" t="n">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="O1046" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P1046" t="n">
-        <v>2892</v>
+        <v>5000</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84066,7 +84066,7 @@
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="T1046" t="n">
         <v>18</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84120,20 +84120,20 @@
       </c>
       <c r="L1047" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="N1047" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="O1047" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P1047" t="n">
-        <v>2908</v>
+        <v>4730</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84146,7 +84146,7 @@
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="T1047" t="n">
         <v>18</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84200,20 +84200,20 @@
       </c>
       <c r="L1048" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="N1048" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O1048" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="P1048" t="n">
-        <v>2677</v>
+        <v>4000</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="T1048" t="n">
         <v>18</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84280,20 +84280,20 @@
       </c>
       <c r="L1049" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>430</v>
+        <v>240</v>
       </c>
       <c r="N1049" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="O1049" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P1049" t="n">
-        <v>1874</v>
+        <v>3792</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="T1049" t="n">
         <v>18</v>
@@ -84360,20 +84360,20 @@
       </c>
       <c r="L1050" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="N1050" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="O1050" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="P1050" t="n">
-        <v>1896</v>
+        <v>3647</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84382,11 +84382,11 @@
       </c>
       <c r="R1050" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="T1050" t="n">
         <v>18</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="N1051" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="O1051" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="P1051" t="n">
-        <v>1930</v>
+        <v>3703</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84462,11 +84462,11 @@
       </c>
       <c r="R1051" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="T1051" t="n">
         <v>18</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>590</v>
+        <v>300</v>
       </c>
       <c r="N1052" t="n">
-        <v>10500</v>
+        <v>3500</v>
       </c>
       <c r="O1052" t="n">
-        <v>11000</v>
+        <v>3800</v>
       </c>
       <c r="P1052" t="n">
-        <v>10763</v>
+        <v>3680</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84542,11 +84542,11 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>598</v>
+        <v>204</v>
       </c>
       <c r="T1052" t="n">
         <v>18</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84604,16 +84604,16 @@
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="N1053" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="O1053" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1053" t="n">
-        <v>7735</v>
+        <v>2892</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84626,7 +84626,7 @@
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>430</v>
+        <v>161</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="N1054" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="O1054" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P1054" t="n">
-        <v>4706</v>
+        <v>2908</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="T1054" t="n">
         <v>18</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,20 +84760,20 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="N1055" t="n">
-        <v>11500</v>
+        <v>2500</v>
       </c>
       <c r="O1055" t="n">
-        <v>12000</v>
+        <v>2800</v>
       </c>
       <c r="P1055" t="n">
-        <v>11786</v>
+        <v>2677</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84786,7 +84786,7 @@
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>655</v>
+        <v>149</v>
       </c>
       <c r="T1055" t="n">
         <v>18</v>
@@ -84807,7 +84807,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="N1056" t="n">
-        <v>7500</v>
+        <v>1700</v>
       </c>
       <c r="O1056" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="P1056" t="n">
-        <v>7714</v>
+        <v>1874</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84862,11 +84862,11 @@
       </c>
       <c r="R1056" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>429</v>
+        <v>104</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84887,7 +84887,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>155</v>
+        <v>500</v>
       </c>
       <c r="N1057" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="O1057" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P1057" t="n">
-        <v>4242</v>
+        <v>1896</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84942,11 +84942,11 @@
       </c>
       <c r="R1057" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="T1057" t="n">
         <v>18</v>
@@ -84967,7 +84967,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44392</v>
+        <v>44449</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N1058" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="O1058" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P1058" t="n">
-        <v>4273</v>
+        <v>1930</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85022,11 +85022,11 @@
       </c>
       <c r="R1058" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="T1058" t="n">
         <v>18</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85084,16 +85084,16 @@
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>480</v>
+        <v>590</v>
       </c>
       <c r="N1059" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="O1059" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P1059" t="n">
-        <v>4292</v>
+        <v>10763</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85102,11 +85102,11 @@
       </c>
       <c r="R1059" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>238</v>
+        <v>598</v>
       </c>
       <c r="T1059" t="n">
         <v>18</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>630</v>
+        <v>340</v>
       </c>
       <c r="N1060" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="O1060" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P1060" t="n">
-        <v>3222</v>
+        <v>7735</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85186,7 +85186,7 @@
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>179</v>
+        <v>430</v>
       </c>
       <c r="T1060" t="n">
         <v>18</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,20 +85240,20 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>510</v>
+        <v>340</v>
       </c>
       <c r="N1061" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O1061" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P1061" t="n">
-        <v>3265</v>
+        <v>4706</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85262,11 +85262,11 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="T1061" t="n">
         <v>18</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="N1062" t="n">
-        <v>2000</v>
+        <v>11500</v>
       </c>
       <c r="O1062" t="n">
-        <v>2500</v>
+        <v>12000</v>
       </c>
       <c r="P1062" t="n">
-        <v>2274</v>
+        <v>11786</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>126</v>
+        <v>655</v>
       </c>
       <c r="T1062" t="n">
         <v>18</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="N1063" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="O1063" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P1063" t="n">
-        <v>2230</v>
+        <v>7714</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85480,20 +85480,20 @@
       </c>
       <c r="L1064" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>520</v>
+        <v>155</v>
       </c>
       <c r="N1064" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O1064" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P1064" t="n">
-        <v>13615</v>
+        <v>4242</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85502,11 +85502,11 @@
       </c>
       <c r="R1064" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>756</v>
+        <v>236</v>
       </c>
       <c r="T1064" t="n">
         <v>18</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85560,33 +85560,33 @@
       </c>
       <c r="L1065" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="N1065" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="O1065" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="P1065" t="n">
-        <v>19455</v>
+        <v>4273</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1065" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>1081</v>
+        <v>237</v>
       </c>
       <c r="T1065" t="n">
         <v>18</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,20 +85640,20 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="N1066" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O1066" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P1066" t="n">
-        <v>14556</v>
+        <v>4292</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85662,11 +85662,11 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>809</v>
+        <v>238</v>
       </c>
       <c r="T1066" t="n">
         <v>18</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85724,16 +85724,16 @@
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="N1067" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O1067" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P1067" t="n">
-        <v>10559</v>
+        <v>3222</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85742,11 +85742,11 @@
       </c>
       <c r="R1067" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>587</v>
+        <v>179</v>
       </c>
       <c r="T1067" t="n">
         <v>18</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="N1068" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O1068" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="P1068" t="n">
-        <v>11517</v>
+        <v>3265</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>640</v>
+        <v>181</v>
       </c>
       <c r="T1068" t="n">
         <v>18</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85884,16 +85884,16 @@
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="N1069" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O1069" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P1069" t="n">
-        <v>6433</v>
+        <v>2274</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>357</v>
+        <v>126</v>
       </c>
       <c r="T1069" t="n">
         <v>18</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85960,20 +85960,20 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="N1070" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="O1070" t="n">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="P1070" t="n">
-        <v>7591</v>
+        <v>2230</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>422</v>
+        <v>124</v>
       </c>
       <c r="T1070" t="n">
         <v>18</v>
@@ -86040,33 +86040,33 @@
       </c>
       <c r="L1071" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="N1071" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O1071" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P1071" t="n">
-        <v>20000</v>
+        <v>13615</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>1111</v>
+        <v>756</v>
       </c>
       <c r="T1071" t="n">
         <v>18</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86120,33 +86120,33 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="N1072" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="O1072" t="n">
-        <v>5300</v>
+        <v>20000</v>
       </c>
       <c r="P1072" t="n">
-        <v>5138</v>
+        <v>19455</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>285</v>
+        <v>1081</v>
       </c>
       <c r="T1072" t="n">
         <v>18</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1073" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="N1073" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1073" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P1073" t="n">
-        <v>4278</v>
+        <v>14556</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>238</v>
+        <v>809</v>
       </c>
       <c r="T1073" t="n">
         <v>18</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86280,20 +86280,20 @@
       </c>
       <c r="L1074" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>390</v>
+        <v>680</v>
       </c>
       <c r="N1074" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O1074" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P1074" t="n">
-        <v>2718</v>
+        <v>10559</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>151</v>
+        <v>587</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="N1075" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O1075" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P1075" t="n">
-        <v>4200</v>
+        <v>11517</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>233</v>
+        <v>640</v>
       </c>
       <c r="T1075" t="n">
         <v>18</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86440,20 +86440,20 @@
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N1076" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1076" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P1076" t="n">
-        <v>4271</v>
+        <v>6433</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="T1076" t="n">
         <v>18</v>
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="N1077" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O1077" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P1077" t="n">
-        <v>3241</v>
+        <v>7591</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>180</v>
+        <v>422</v>
       </c>
       <c r="T1077" t="n">
         <v>18</v>
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -86600,33 +86600,33 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>620</v>
+        <v>50</v>
       </c>
       <c r="N1078" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O1078" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="P1078" t="n">
-        <v>3226</v>
+        <v>20000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>179</v>
+        <v>1111</v>
       </c>
       <c r="T1078" t="n">
         <v>18</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>400</v>
+        <v>185</v>
       </c>
       <c r="N1079" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O1079" t="n">
-        <v>2500</v>
+        <v>5300</v>
       </c>
       <c r="P1079" t="n">
-        <v>2300</v>
+        <v>5138</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86706,7 +86706,7 @@
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="T1079" t="n">
         <v>18</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86760,20 +86760,20 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="N1080" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1080" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1080" t="n">
-        <v>2284</v>
+        <v>4278</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="T1080" t="n">
         <v>18</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="N1081" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O1081" t="n">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="P1081" t="n">
-        <v>5254</v>
+        <v>2718</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86866,7 +86866,7 @@
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>292</v>
+        <v>151</v>
       </c>
       <c r="T1081" t="n">
         <v>18</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86920,11 +86920,11 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="N1082" t="n">
         <v>4000</v>
@@ -86933,7 +86933,7 @@
         <v>4500</v>
       </c>
       <c r="P1082" t="n">
-        <v>4266</v>
+        <v>4200</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86946,7 +86946,7 @@
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="T1082" t="n">
         <v>18</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="N1083" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="O1083" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P1083" t="n">
-        <v>2759</v>
+        <v>4271</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87022,11 +87022,11 @@
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="T1083" t="n">
         <v>18</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87080,20 +87080,20 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>320</v>
+        <v>540</v>
       </c>
       <c r="N1084" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O1084" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="P1084" t="n">
-        <v>12219</v>
+        <v>3241</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
@@ -87102,11 +87102,11 @@
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>679</v>
+        <v>180</v>
       </c>
       <c r="T1084" t="n">
         <v>18</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>290</v>
+        <v>620</v>
       </c>
       <c r="N1085" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="O1085" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="P1085" t="n">
-        <v>9793</v>
+        <v>3226</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>544</v>
+        <v>179</v>
       </c>
       <c r="T1085" t="n">
         <v>18</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87240,20 +87240,20 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N1086" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O1086" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="P1086" t="n">
-        <v>6242</v>
+        <v>2300</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87262,11 +87262,11 @@
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>347</v>
+        <v>128</v>
       </c>
       <c r="T1086" t="n">
         <v>18</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44494</v>
+        <v>44400</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87320,33 +87320,33 @@
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N1087" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="O1087" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="P1087" t="n">
-        <v>6500</v>
+        <v>2284</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="T1087" t="n">
         <v>18</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87404,16 +87404,16 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>280</v>
+        <v>610</v>
       </c>
       <c r="N1088" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1088" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="P1088" t="n">
-        <v>6000</v>
+        <v>5254</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="T1088" t="n">
         <v>18</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87484,29 +87484,29 @@
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="N1089" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1089" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P1089" t="n">
-        <v>5000</v>
+        <v>4266</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="T1089" t="n">
         <v>18</v>
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="N1090" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="O1090" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P1090" t="n">
-        <v>4000</v>
+        <v>2759</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="T1090" t="n">
         <v>18</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87640,33 +87640,33 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N1091" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O1091" t="n">
-        <v>3500</v>
+        <v>12500</v>
       </c>
       <c r="P1091" t="n">
-        <v>3500</v>
+        <v>12219</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>194</v>
+        <v>679</v>
       </c>
       <c r="T1091" t="n">
         <v>18</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87720,20 +87720,20 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="N1092" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="O1092" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P1092" t="n">
-        <v>3000</v>
+        <v>9793</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>167</v>
+        <v>544</v>
       </c>
       <c r="T1092" t="n">
         <v>18</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="N1093" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O1093" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P1093" t="n">
-        <v>11000</v>
+        <v>6242</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87826,7 +87826,7 @@
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>611</v>
+        <v>347</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87880,33 +87880,33 @@
       </c>
       <c r="L1094" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N1094" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O1094" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="P1094" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>556</v>
+        <v>361</v>
       </c>
       <c r="T1094" t="n">
         <v>18</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87960,20 +87960,20 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N1095" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O1095" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P1095" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T1095" t="n">
         <v>18</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88040,33 +88040,33 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N1096" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O1096" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P1096" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="T1096" t="n">
         <v>18</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="N1097" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O1097" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1097" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="T1097" t="n">
         <v>18</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,33 +88200,33 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="N1098" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O1098" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="P1098" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="T1098" t="n">
         <v>18</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44445</v>
+        <v>44494</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,41 +88275,41 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1099" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="O1099" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="P1099" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>1250</v>
+        <v>167</v>
       </c>
       <c r="T1099" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1100">
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88364,16 +88364,16 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N1100" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O1100" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P1100" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88382,11 +88382,11 @@
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>222</v>
+        <v>611</v>
       </c>
       <c r="T1100" t="n">
         <v>18</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88440,20 +88440,20 @@
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1101" t="n">
         <v>120</v>
       </c>
       <c r="N1101" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1101" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1101" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88462,11 +88462,11 @@
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T1101" t="n">
         <v>18</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88520,20 +88520,20 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>100</v>
+        <v>340</v>
       </c>
       <c r="N1102" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O1102" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P1102" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
@@ -88542,11 +88542,11 @@
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="T1102" t="n">
         <v>18</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N1103" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="O1103" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="P1103" t="n">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>194</v>
+        <v>444</v>
       </c>
       <c r="T1103" t="n">
         <v>18</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88680,20 +88680,20 @@
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N1104" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1104" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P1104" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
@@ -88702,11 +88702,11 @@
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="T1104" t="n">
         <v>18</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88760,20 +88760,20 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="N1105" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1105" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P1105" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88782,11 +88782,11 @@
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="T1105" t="n">
         <v>18</v>
@@ -88835,41 +88835,41 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="N1106" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="O1106" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="P1106" t="n">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>167</v>
+        <v>1250</v>
       </c>
       <c r="T1106" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1107">
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N1107" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1107" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1107" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="T1107" t="n">
         <v>18</v>
@@ -88995,41 +88995,41 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N1108" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="O1108" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="P1108" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>1667</v>
+        <v>222</v>
       </c>
       <c r="T1108" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1109">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89080,20 +89080,20 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N1109" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1109" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P1109" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89106,7 +89106,7 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>833</v>
+        <v>222</v>
       </c>
       <c r="T1109" t="n">
         <v>18</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="N1110" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O1110" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P1110" t="n">
-        <v>11186</v>
+        <v>3500</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89186,7 +89186,7 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>621</v>
+        <v>194</v>
       </c>
       <c r="T1110" t="n">
         <v>18</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89244,16 +89244,16 @@
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N1111" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="O1111" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1111" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>722</v>
+        <v>194</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89320,20 +89320,20 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N1112" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O1112" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="P1112" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="T1112" t="n">
         <v>18</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89400,20 +89400,20 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="N1113" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1113" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P1113" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89422,11 +89422,11 @@
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>778</v>
+        <v>167</v>
       </c>
       <c r="T1113" t="n">
         <v>18</v>
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N1114" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1114" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P1114" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89502,11 +89502,11 @@
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>778</v>
+        <v>167</v>
       </c>
       <c r="T1114" t="n">
         <v>18</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89555,41 +89555,41 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="N1115" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="O1115" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="P1115" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>833</v>
+        <v>1667</v>
       </c>
       <c r="T1115" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1116">
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89640,11 +89640,11 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="N1116" t="n">
         <v>15000</v>
@@ -89662,7 +89662,7 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1116" t="n">
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89720,20 +89720,20 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>180</v>
+        <v>590</v>
       </c>
       <c r="N1117" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1117" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P1117" t="n">
-        <v>12000</v>
+        <v>11186</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>667</v>
+        <v>621</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89804,16 +89804,16 @@
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N1118" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O1118" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P1118" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89822,11 +89822,11 @@
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T1118" t="n">
         <v>18</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89880,20 +89880,20 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N1119" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O1119" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1119" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89902,11 +89902,11 @@
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T1119" t="n">
         <v>18</v>
@@ -89960,20 +89960,20 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="N1120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89982,11 +89982,11 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T1120" t="n">
         <v>18</v>
@@ -90040,20 +90040,20 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N1121" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1121" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1121" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90062,11 +90062,11 @@
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="T1121" t="n">
         <v>18</v>
@@ -90120,20 +90120,20 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N1122" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O1122" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1122" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T1122" t="n">
         <v>18</v>
@@ -90200,20 +90200,20 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1123" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O1123" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1123" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T1123" t="n">
         <v>18</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90275,41 +90275,41 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N1124" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="O1124" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="P1124" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T1124" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1125">
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90360,20 +90360,20 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="N1125" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O1125" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P1125" t="n">
-        <v>17571</v>
+        <v>12000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90382,11 +90382,11 @@
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>976</v>
+        <v>667</v>
       </c>
       <c r="T1125" t="n">
         <v>18</v>
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90440,20 +90440,20 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="N1126" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O1126" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P1126" t="n">
-        <v>18400</v>
+        <v>13000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90462,11 +90462,11 @@
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>1022</v>
+        <v>722</v>
       </c>
       <c r="T1126" t="n">
         <v>18</v>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90520,20 +90520,20 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="N1127" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O1127" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P1127" t="n">
-        <v>14556</v>
+        <v>13000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90542,11 +90542,11 @@
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>809</v>
+        <v>722</v>
       </c>
       <c r="T1127" t="n">
         <v>18</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90600,20 +90600,20 @@
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="N1128" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O1128" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P1128" t="n">
-        <v>15421</v>
+        <v>10000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>857</v>
+        <v>556</v>
       </c>
       <c r="T1128" t="n">
         <v>18</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90675,41 +90675,41 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N1129" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O1129" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P1129" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>1250</v>
+        <v>611</v>
       </c>
       <c r="T1129" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1130">
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44295</v>
+        <v>44301</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="N1130" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O1130" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P1130" t="n">
-        <v>15526</v>
+        <v>11000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>863</v>
+        <v>611</v>
       </c>
       <c r="T1130" t="n">
         <v>18</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,41 +90835,41 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="N1131" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="O1131" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="P1131" t="n">
-        <v>12526</v>
+        <v>32000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>696</v>
+        <v>1333</v>
       </c>
       <c r="T1131" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1132">
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90920,20 +90920,20 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="N1132" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="O1132" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P1132" t="n">
-        <v>8788</v>
+        <v>17571</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90946,7 +90946,7 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>488</v>
+        <v>976</v>
       </c>
       <c r="T1132" t="n">
         <v>18</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -91000,20 +91000,20 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="N1133" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O1133" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P1133" t="n">
-        <v>17565</v>
+        <v>18400</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>976</v>
+        <v>1022</v>
       </c>
       <c r="T1133" t="n">
         <v>18</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91080,20 +91080,20 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="N1134" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O1134" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P1134" t="n">
-        <v>18583</v>
+        <v>14556</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>1032</v>
+        <v>809</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="N1135" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1135" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P1135" t="n">
-        <v>13444</v>
+        <v>15421</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>747</v>
+        <v>857</v>
       </c>
       <c r="T1135" t="n">
         <v>18</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91235,41 +91235,41 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="N1136" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O1136" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P1136" t="n">
-        <v>14471</v>
+        <v>30000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>804</v>
+        <v>1250</v>
       </c>
       <c r="T1136" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1137">
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91320,20 +91320,20 @@
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N1137" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O1137" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P1137" t="n">
-        <v>7300</v>
+        <v>15526</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>406</v>
+        <v>863</v>
       </c>
       <c r="T1137" t="n">
         <v>18</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91400,20 +91400,20 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="N1138" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O1138" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="P1138" t="n">
-        <v>3796</v>
+        <v>12526</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91426,7 +91426,7 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>211</v>
+        <v>696</v>
       </c>
       <c r="T1138" t="n">
         <v>18</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91480,20 +91480,20 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="N1139" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O1139" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P1139" t="n">
-        <v>3778</v>
+        <v>8788</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>210</v>
+        <v>488</v>
       </c>
       <c r="T1139" t="n">
         <v>18</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91560,20 +91560,20 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>620</v>
+        <v>230</v>
       </c>
       <c r="N1140" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="O1140" t="n">
-        <v>3200</v>
+        <v>18000</v>
       </c>
       <c r="P1140" t="n">
-        <v>3110</v>
+        <v>17565</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>173</v>
+        <v>976</v>
       </c>
       <c r="T1140" t="n">
         <v>18</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91640,20 +91640,20 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>620</v>
+        <v>240</v>
       </c>
       <c r="N1141" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="O1141" t="n">
-        <v>3200</v>
+        <v>19000</v>
       </c>
       <c r="P1141" t="n">
-        <v>3110</v>
+        <v>18583</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91662,11 +91662,11 @@
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>173</v>
+        <v>1032</v>
       </c>
       <c r="T1141" t="n">
         <v>18</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91720,20 +91720,20 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="N1142" t="n">
-        <v>2000</v>
+        <v>13000</v>
       </c>
       <c r="O1142" t="n">
-        <v>2500</v>
+        <v>14000</v>
       </c>
       <c r="P1142" t="n">
-        <v>2278</v>
+        <v>13444</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
@@ -91746,7 +91746,7 @@
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>127</v>
+        <v>747</v>
       </c>
       <c r="T1142" t="n">
         <v>18</v>
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91800,20 +91800,20 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N1143" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="O1143" t="n">
-        <v>2200</v>
+        <v>15000</v>
       </c>
       <c r="P1143" t="n">
-        <v>2090</v>
+        <v>14471</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91822,11 +91822,11 @@
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>116</v>
+        <v>804</v>
       </c>
       <c r="T1143" t="n">
         <v>18</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91880,20 +91880,20 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1144" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="O1144" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P1144" t="n">
-        <v>5750</v>
+        <v>7300</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="T1144" t="n">
         <v>18</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91964,16 +91964,16 @@
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="N1145" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1145" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1145" t="n">
-        <v>5750</v>
+        <v>3796</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91982,11 +91982,11 @@
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="T1145" t="n">
         <v>18</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92040,20 +92040,20 @@
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="N1146" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O1146" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1146" t="n">
-        <v>4750</v>
+        <v>3778</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92062,11 +92062,11 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="T1146" t="n">
         <v>18</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92124,16 +92124,16 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="N1147" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1147" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1147" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1147" t="n">
         <v>18</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92200,20 +92200,20 @@
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="N1148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O1148" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="P1148" t="n">
-        <v>3750</v>
+        <v>3110</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92222,11 +92222,11 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="T1148" t="n">
         <v>18</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92284,16 +92284,16 @@
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>120</v>
+        <v>540</v>
       </c>
       <c r="N1149" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1149" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P1149" t="n">
-        <v>3750</v>
+        <v>2278</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92302,11 +92302,11 @@
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="T1149" t="n">
         <v>18</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92360,33 +92360,33 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N1150" t="n">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="O1150" t="n">
-        <v>22000</v>
+        <v>2200</v>
       </c>
       <c r="P1150" t="n">
-        <v>22000</v>
+        <v>2090</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>1222</v>
+        <v>116</v>
       </c>
       <c r="T1150" t="n">
         <v>18</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92440,20 +92440,20 @@
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N1151" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O1151" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1151" t="n">
-        <v>19583</v>
+        <v>5750</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92462,11 +92462,11 @@
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>1088</v>
+        <v>319</v>
       </c>
       <c r="T1151" t="n">
         <v>18</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1152" t="n">
         <v>300</v>
       </c>
       <c r="N1152" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="O1152" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P1152" t="n">
-        <v>17533</v>
+        <v>5750</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92542,11 +92542,11 @@
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>974</v>
+        <v>319</v>
       </c>
       <c r="T1152" t="n">
         <v>18</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92600,20 +92600,20 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N1153" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O1153" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P1153" t="n">
-        <v>10514</v>
+        <v>4750</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92622,11 +92622,11 @@
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>584</v>
+        <v>264</v>
       </c>
       <c r="T1153" t="n">
         <v>18</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92680,33 +92680,33 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N1154" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="O1154" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="P1154" t="n">
-        <v>25000</v>
+        <v>4750</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>1389</v>
+        <v>264</v>
       </c>
       <c r="T1154" t="n">
         <v>18</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92760,33 +92760,33 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N1155" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1155" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1155" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1155" t="n">
         <v>18</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="N1156" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O1156" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P1156" t="n">
-        <v>14517</v>
+        <v>3750</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>806</v>
+        <v>208</v>
       </c>
       <c r="T1156" t="n">
         <v>18</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92920,33 +92920,33 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="N1157" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O1157" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P1157" t="n">
-        <v>12585</v>
+        <v>22000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>699</v>
+        <v>1222</v>
       </c>
       <c r="T1157" t="n">
         <v>18</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93000,20 +93000,20 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="N1158" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O1158" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P1158" t="n">
-        <v>7524</v>
+        <v>19583</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93022,11 +93022,11 @@
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>418</v>
+        <v>1088</v>
       </c>
       <c r="T1158" t="n">
         <v>18</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93080,11 +93080,11 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N1159" t="n">
         <v>17000</v>
@@ -93093,7 +93093,7 @@
         <v>18000</v>
       </c>
       <c r="P1159" t="n">
-        <v>17474</v>
+        <v>17533</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93160,20 +93160,20 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="N1160" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O1160" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="P1160" t="n">
-        <v>18571</v>
+        <v>10514</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>1032</v>
+        <v>584</v>
       </c>
       <c r="T1160" t="n">
         <v>18</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93240,33 +93240,33 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="N1161" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O1161" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P1161" t="n">
-        <v>14444</v>
+        <v>25000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>802</v>
+        <v>1389</v>
       </c>
       <c r="T1161" t="n">
         <v>18</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93320,33 +93320,33 @@
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1162" t="n">
         <v>250</v>
       </c>
       <c r="N1162" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O1162" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P1162" t="n">
-        <v>15440</v>
+        <v>25000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>858</v>
+        <v>1389</v>
       </c>
       <c r="T1162" t="n">
         <v>18</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93400,20 +93400,20 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="N1163" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1163" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1163" t="n">
-        <v>10556</v>
+        <v>14517</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93422,11 +93422,11 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>586</v>
+        <v>806</v>
       </c>
       <c r="T1163" t="n">
         <v>18</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93480,11 +93480,11 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>220</v>
+        <v>530</v>
       </c>
       <c r="N1164" t="n">
         <v>12000</v>
@@ -93493,7 +93493,7 @@
         <v>13000</v>
       </c>
       <c r="P1164" t="n">
-        <v>12545</v>
+        <v>12585</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="T1164" t="n">
         <v>18</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93560,20 +93560,20 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="N1165" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1165" t="n">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="P1165" t="n">
-        <v>4104</v>
+        <v>7524</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93582,11 +93582,11 @@
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="T1165" t="n">
         <v>18</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93644,16 +93644,16 @@
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>560</v>
+        <v>380</v>
       </c>
       <c r="N1166" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O1166" t="n">
-        <v>4200</v>
+        <v>18000</v>
       </c>
       <c r="P1166" t="n">
-        <v>4086</v>
+        <v>17474</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93662,11 +93662,11 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>227</v>
+        <v>971</v>
       </c>
       <c r="T1166" t="n">
         <v>18</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N1167" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O1167" t="n">
-        <v>4200</v>
+        <v>19000</v>
       </c>
       <c r="P1167" t="n">
-        <v>4079</v>
+        <v>18571</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>227</v>
+        <v>1032</v>
       </c>
       <c r="T1167" t="n">
         <v>18</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93804,16 +93804,16 @@
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="N1168" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O1168" t="n">
-        <v>3200</v>
+        <v>15000</v>
       </c>
       <c r="P1168" t="n">
-        <v>3094</v>
+        <v>14444</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93826,7 +93826,7 @@
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>172</v>
+        <v>802</v>
       </c>
       <c r="T1168" t="n">
         <v>18</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>640</v>
+        <v>250</v>
       </c>
       <c r="N1169" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1169" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1169" t="n">
-        <v>3112</v>
+        <v>15440</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>173</v>
+        <v>858</v>
       </c>
       <c r="T1169" t="n">
         <v>18</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93960,20 +93960,20 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="N1170" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O1170" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P1170" t="n">
-        <v>3092</v>
+        <v>10556</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93982,11 +93982,11 @@
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>172</v>
+        <v>586</v>
       </c>
       <c r="T1170" t="n">
         <v>18</v>
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94040,20 +94040,20 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N1171" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="O1171" t="n">
-        <v>2100</v>
+        <v>13000</v>
       </c>
       <c r="P1171" t="n">
-        <v>2054</v>
+        <v>12545</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94062,11 +94062,11 @@
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>114</v>
+        <v>697</v>
       </c>
       <c r="T1171" t="n">
         <v>18</v>
@@ -94120,20 +94120,20 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>220</v>
+        <v>540</v>
       </c>
       <c r="N1172" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="O1172" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="P1172" t="n">
-        <v>1909</v>
+        <v>4104</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94142,11 +94142,11 @@
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="T1172" t="n">
         <v>18</v>
@@ -94200,20 +94200,20 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="N1173" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1173" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1173" t="n">
-        <v>2044</v>
+        <v>4086</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="T1173" t="n">
         <v>18</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94284,16 +94284,16 @@
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="N1174" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1174" t="n">
-        <v>15000</v>
+        <v>4200</v>
       </c>
       <c r="P1174" t="n">
-        <v>15000</v>
+        <v>4079</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>833</v>
+        <v>227</v>
       </c>
       <c r="T1174" t="n">
         <v>18</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="N1175" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1175" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1175" t="n">
-        <v>15000</v>
+        <v>3094</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>833</v>
+        <v>172</v>
       </c>
       <c r="T1175" t="n">
         <v>18</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="N1176" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1176" t="n">
-        <v>16000</v>
+        <v>3200</v>
       </c>
       <c r="P1176" t="n">
-        <v>16000</v>
+        <v>3112</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94466,7 +94466,7 @@
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>889</v>
+        <v>173</v>
       </c>
       <c r="T1176" t="n">
         <v>18</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>75</v>
+        <v>520</v>
       </c>
       <c r="N1177" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1177" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1177" t="n">
-        <v>15000</v>
+        <v>3092</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>833</v>
+        <v>172</v>
       </c>
       <c r="T1177" t="n">
         <v>18</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N1178" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="O1178" t="n">
-        <v>13000</v>
+        <v>2100</v>
       </c>
       <c r="P1178" t="n">
-        <v>13000</v>
+        <v>2054</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94622,11 +94622,11 @@
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>722</v>
+        <v>114</v>
       </c>
       <c r="T1178" t="n">
         <v>18</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94680,20 +94680,20 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="N1179" t="n">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="O1179" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1179" t="n">
-        <v>13000</v>
+        <v>1909</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>722</v>
+        <v>106</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N1180" t="n">
-        <v>14000</v>
+        <v>2000</v>
       </c>
       <c r="O1180" t="n">
-        <v>14000</v>
+        <v>2100</v>
       </c>
       <c r="P1180" t="n">
-        <v>14000</v>
+        <v>2044</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>778</v>
+        <v>114</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94840,20 +94840,20 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N1181" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1181" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1181" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T1181" t="n">
         <v>18</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N1182" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1182" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1182" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T1182" t="n">
         <v>18</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N1183" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1183" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1183" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95026,7 +95026,7 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T1183" t="n">
         <v>18</v>
@@ -95080,20 +95080,20 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N1184" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O1184" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1184" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T1184" t="n">
         <v>18</v>
@@ -95160,20 +95160,20 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1185" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1185" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1185" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95182,11 +95182,11 @@
       </c>
       <c r="R1185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1185" t="n">
         <v>18</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95240,20 +95240,20 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N1186" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1186" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1186" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95266,7 +95266,7 @@
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1186" t="n">
         <v>18</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95324,16 +95324,16 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="N1187" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O1187" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P1187" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="T1187" t="n">
         <v>18</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95400,20 +95400,20 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="N1188" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="O1188" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P1188" t="n">
-        <v>5731</v>
+        <v>13000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>318</v>
+        <v>722</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95480,20 +95480,20 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>640</v>
+        <v>125</v>
       </c>
       <c r="N1189" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1189" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1189" t="n">
-        <v>4258</v>
+        <v>10000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95502,11 +95502,11 @@
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>237</v>
+        <v>556</v>
       </c>
       <c r="T1189" t="n">
         <v>18</v>
@@ -95527,68 +95527,628 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1190" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1190" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1190" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1190" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1190" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1190" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1190" t="n">
+        <v>556</v>
+      </c>
+      <c r="T1190" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1191" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1191" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1191" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1191" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1191" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1191" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1191" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1191" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1191" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1192" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1192" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1192" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1192" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1192" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1192" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1192" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1192" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1192" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1193" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1193" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1193" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1193" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1193" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1193" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1193" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1193" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1193" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1194" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1194" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1194" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1194" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1194" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1194" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1194" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1194" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1194" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1195" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1190" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1190" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1190" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1190" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1190" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1190" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1190" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1190" t="inlineStr">
+      <c r="E1195" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1195" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1195" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1195" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1195" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1195" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>5731</v>
+      </c>
+      <c r="Q1195" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1195" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1195" t="n">
+        <v>318</v>
+      </c>
+      <c r="T1195" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1196" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1196" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1196" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1196" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1196" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1196" t="n">
+        <v>640</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>4258</v>
+      </c>
+      <c r="Q1196" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1196" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1196" t="n">
+        <v>237</v>
+      </c>
+      <c r="T1196" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1197" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1197" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1197" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1197" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1197" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1190" t="n">
+      <c r="M1197" t="n">
         <v>580</v>
       </c>
-      <c r="N1190" t="n">
+      <c r="N1197" t="n">
         <v>2500</v>
       </c>
-      <c r="O1190" t="n">
+      <c r="O1197" t="n">
         <v>3000</v>
       </c>
-      <c r="P1190" t="n">
+      <c r="P1197" t="n">
         <v>2759</v>
       </c>
-      <c r="Q1190" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1190" t="inlineStr">
+      <c r="Q1197" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1197" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S1190" t="n">
+      <c r="S1197" t="n">
         <v>153</v>
       </c>
-      <c r="T1190" t="n">
+      <c r="T1197" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1197"/>
+  <dimension ref="A1:T1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82647,7 +82647,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -82684,16 +82684,16 @@
         </is>
       </c>
       <c r="M1029" t="n">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="N1029" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="O1029" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="P1029" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="Q1029" t="inlineStr">
         <is>
@@ -82702,11 +82702,11 @@
       </c>
       <c r="R1029" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1029" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="T1029" t="n">
         <v>18</v>
@@ -82727,7 +82727,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -82760,20 +82760,20 @@
       </c>
       <c r="L1030" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1030" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N1030" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="O1030" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P1030" t="n">
-        <v>4500</v>
+        <v>5786</v>
       </c>
       <c r="Q1030" t="inlineStr">
         <is>
@@ -82782,11 +82782,11 @@
       </c>
       <c r="R1030" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1030" t="n">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="T1030" t="n">
         <v>18</v>
@@ -82807,7 +82807,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -82840,20 +82840,20 @@
       </c>
       <c r="L1031" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1031" t="n">
         <v>300</v>
       </c>
       <c r="N1031" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O1031" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P1031" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q1031" t="inlineStr">
         <is>
@@ -82862,11 +82862,11 @@
       </c>
       <c r="R1031" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1031" t="n">
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="T1031" t="n">
         <v>18</v>
@@ -82887,7 +82887,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -82920,20 +82920,20 @@
       </c>
       <c r="L1032" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1032" t="n">
-        <v>680</v>
+        <v>500</v>
       </c>
       <c r="N1032" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O1032" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1032" t="n">
-        <v>3779</v>
+        <v>4700</v>
       </c>
       <c r="Q1032" t="inlineStr">
         <is>
@@ -82942,11 +82942,11 @@
       </c>
       <c r="R1032" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1032" t="n">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="T1032" t="n">
         <v>18</v>
@@ -82967,7 +82967,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -83000,20 +83000,20 @@
       </c>
       <c r="L1033" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1033" t="n">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="N1033" t="n">
         <v>3500</v>
       </c>
       <c r="O1033" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="P1033" t="n">
-        <v>3795</v>
+        <v>3500</v>
       </c>
       <c r="Q1033" t="inlineStr">
         <is>
@@ -83022,11 +83022,11 @@
       </c>
       <c r="R1033" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1033" t="n">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="T1033" t="n">
         <v>18</v>
@@ -83047,7 +83047,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -83080,20 +83080,20 @@
       </c>
       <c r="L1034" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1034" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="N1034" t="n">
         <v>3000</v>
       </c>
       <c r="O1034" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="P1034" t="n">
-        <v>3104</v>
+        <v>3326</v>
       </c>
       <c r="Q1034" t="inlineStr">
         <is>
@@ -83102,11 +83102,11 @@
       </c>
       <c r="R1034" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Petorca</t>
         </is>
       </c>
       <c r="S1034" t="n">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="T1034" t="n">
         <v>18</v>
@@ -83127,7 +83127,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -83160,20 +83160,20 @@
       </c>
       <c r="L1035" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1035" t="n">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="N1035" t="n">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="O1035" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="P1035" t="n">
-        <v>2894</v>
+        <v>5500</v>
       </c>
       <c r="Q1035" t="inlineStr">
         <is>
@@ -83182,11 +83182,11 @@
       </c>
       <c r="R1035" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1035" t="n">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="T1035" t="n">
         <v>18</v>
@@ -83207,7 +83207,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -83240,20 +83240,20 @@
       </c>
       <c r="L1036" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1036" t="n">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="N1036" t="n">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="O1036" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="P1036" t="n">
-        <v>1914</v>
+        <v>4500</v>
       </c>
       <c r="Q1036" t="inlineStr">
         <is>
@@ -83262,11 +83262,11 @@
       </c>
       <c r="R1036" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1036" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="T1036" t="n">
         <v>18</v>
@@ -83287,7 +83287,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -83324,16 +83324,16 @@
         </is>
       </c>
       <c r="M1037" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N1037" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="O1037" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="P1037" t="n">
-        <v>1917</v>
+        <v>2500</v>
       </c>
       <c r="Q1037" t="inlineStr">
         <is>
@@ -83342,11 +83342,11 @@
       </c>
       <c r="R1037" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1037" t="n">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="T1037" t="n">
         <v>18</v>
@@ -83367,7 +83367,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -83404,16 +83404,16 @@
         </is>
       </c>
       <c r="M1038" t="n">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="N1038" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="O1038" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P1038" t="n">
-        <v>11564</v>
+        <v>3779</v>
       </c>
       <c r="Q1038" t="inlineStr">
         <is>
@@ -83422,11 +83422,11 @@
       </c>
       <c r="R1038" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1038" t="n">
-        <v>642</v>
+        <v>210</v>
       </c>
       <c r="T1038" t="n">
         <v>18</v>
@@ -83447,7 +83447,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -83480,20 +83480,20 @@
       </c>
       <c r="L1039" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1039" t="n">
         <v>440</v>
       </c>
       <c r="N1039" t="n">
-        <v>10000</v>
+        <v>3500</v>
       </c>
       <c r="O1039" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="P1039" t="n">
-        <v>10591</v>
+        <v>3795</v>
       </c>
       <c r="Q1039" t="inlineStr">
         <is>
@@ -83502,11 +83502,11 @@
       </c>
       <c r="R1039" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1039" t="n">
-        <v>588</v>
+        <v>211</v>
       </c>
       <c r="T1039" t="n">
         <v>18</v>
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -83564,16 +83564,16 @@
         </is>
       </c>
       <c r="M1040" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="N1040" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O1040" t="n">
-        <v>9000</v>
+        <v>3200</v>
       </c>
       <c r="P1040" t="n">
-        <v>8556</v>
+        <v>3104</v>
       </c>
       <c r="Q1040" t="inlineStr">
         <is>
@@ -83582,11 +83582,11 @@
       </c>
       <c r="R1040" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1040" t="n">
-        <v>475</v>
+        <v>172</v>
       </c>
       <c r="T1040" t="n">
         <v>18</v>
@@ -83607,7 +83607,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -83640,20 +83640,20 @@
       </c>
       <c r="L1041" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1041" t="n">
-        <v>600</v>
+        <v>490</v>
       </c>
       <c r="N1041" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="O1041" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1041" t="n">
-        <v>7758</v>
+        <v>2894</v>
       </c>
       <c r="Q1041" t="inlineStr">
         <is>
@@ -83662,11 +83662,11 @@
       </c>
       <c r="R1041" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1041" t="n">
-        <v>431</v>
+        <v>161</v>
       </c>
       <c r="T1041" t="n">
         <v>18</v>
@@ -83687,7 +83687,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -83724,16 +83724,16 @@
         </is>
       </c>
       <c r="M1042" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="N1042" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="O1042" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="P1042" t="n">
-        <v>5566</v>
+        <v>1914</v>
       </c>
       <c r="Q1042" t="inlineStr">
         <is>
@@ -83742,11 +83742,11 @@
       </c>
       <c r="R1042" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1042" t="n">
-        <v>309</v>
+        <v>106</v>
       </c>
       <c r="T1042" t="n">
         <v>18</v>
@@ -83767,7 +83767,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -83800,20 +83800,20 @@
       </c>
       <c r="L1043" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1043" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N1043" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="O1043" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="P1043" t="n">
-        <v>5317</v>
+        <v>1917</v>
       </c>
       <c r="Q1043" t="inlineStr">
         <is>
@@ -83822,11 +83822,11 @@
       </c>
       <c r="R1043" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1043" t="n">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="T1043" t="n">
         <v>18</v>
@@ -83847,7 +83847,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -83884,16 +83884,16 @@
         </is>
       </c>
       <c r="M1044" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="N1044" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O1044" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P1044" t="n">
-        <v>6000</v>
+        <v>11564</v>
       </c>
       <c r="Q1044" t="inlineStr">
         <is>
@@ -83902,11 +83902,11 @@
       </c>
       <c r="R1044" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1044" t="n">
-        <v>333</v>
+        <v>642</v>
       </c>
       <c r="T1044" t="n">
         <v>18</v>
@@ -83927,7 +83927,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -83964,16 +83964,16 @@
         </is>
       </c>
       <c r="M1045" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="N1045" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O1045" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P1045" t="n">
-        <v>5792</v>
+        <v>10591</v>
       </c>
       <c r="Q1045" t="inlineStr">
         <is>
@@ -83982,11 +83982,11 @@
       </c>
       <c r="R1045" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1045" t="n">
-        <v>322</v>
+        <v>588</v>
       </c>
       <c r="T1045" t="n">
         <v>18</v>
@@ -84007,7 +84007,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -84044,16 +84044,16 @@
         </is>
       </c>
       <c r="M1046" t="n">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="N1046" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O1046" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P1046" t="n">
-        <v>5000</v>
+        <v>8556</v>
       </c>
       <c r="Q1046" t="inlineStr">
         <is>
@@ -84062,11 +84062,11 @@
       </c>
       <c r="R1046" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1046" t="n">
-        <v>278</v>
+        <v>475</v>
       </c>
       <c r="T1046" t="n">
         <v>18</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -84124,16 +84124,16 @@
         </is>
       </c>
       <c r="M1047" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="N1047" t="n">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="O1047" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P1047" t="n">
-        <v>4730</v>
+        <v>7758</v>
       </c>
       <c r="Q1047" t="inlineStr">
         <is>
@@ -84142,11 +84142,11 @@
       </c>
       <c r="R1047" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1047" t="n">
-        <v>263</v>
+        <v>431</v>
       </c>
       <c r="T1047" t="n">
         <v>18</v>
@@ -84167,7 +84167,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -84204,16 +84204,16 @@
         </is>
       </c>
       <c r="M1048" t="n">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="N1048" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1048" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P1048" t="n">
-        <v>4000</v>
+        <v>5566</v>
       </c>
       <c r="Q1048" t="inlineStr">
         <is>
@@ -84222,11 +84222,11 @@
       </c>
       <c r="R1048" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1048" t="n">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="T1048" t="n">
         <v>18</v>
@@ -84247,7 +84247,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -84284,16 +84284,16 @@
         </is>
       </c>
       <c r="M1049" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N1049" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1049" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="P1049" t="n">
-        <v>3792</v>
+        <v>5317</v>
       </c>
       <c r="Q1049" t="inlineStr">
         <is>
@@ -84302,11 +84302,11 @@
       </c>
       <c r="R1049" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1049" t="n">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="T1049" t="n">
         <v>18</v>
@@ -84327,7 +84327,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -84364,16 +84364,16 @@
         </is>
       </c>
       <c r="M1050" t="n">
-        <v>490</v>
+        <v>220</v>
       </c>
       <c r="N1050" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1050" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="P1050" t="n">
-        <v>3647</v>
+        <v>6000</v>
       </c>
       <c r="Q1050" t="inlineStr">
         <is>
@@ -84386,7 +84386,7 @@
         </is>
       </c>
       <c r="S1050" t="n">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="T1050" t="n">
         <v>18</v>
@@ -84407,7 +84407,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -84440,20 +84440,20 @@
       </c>
       <c r="L1051" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1051" t="n">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="N1051" t="n">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="O1051" t="n">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="P1051" t="n">
-        <v>3703</v>
+        <v>5792</v>
       </c>
       <c r="Q1051" t="inlineStr">
         <is>
@@ -84466,7 +84466,7 @@
         </is>
       </c>
       <c r="S1051" t="n">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="T1051" t="n">
         <v>18</v>
@@ -84487,7 +84487,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -84520,20 +84520,20 @@
       </c>
       <c r="L1052" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1052" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N1052" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1052" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="P1052" t="n">
-        <v>3680</v>
+        <v>5000</v>
       </c>
       <c r="Q1052" t="inlineStr">
         <is>
@@ -84542,11 +84542,11 @@
       </c>
       <c r="R1052" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1052" t="n">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="T1052" t="n">
         <v>18</v>
@@ -84567,7 +84567,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -84600,20 +84600,20 @@
       </c>
       <c r="L1053" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1053" t="n">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="N1053" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="O1053" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="P1053" t="n">
-        <v>2892</v>
+        <v>4730</v>
       </c>
       <c r="Q1053" t="inlineStr">
         <is>
@@ -84622,11 +84622,11 @@
       </c>
       <c r="R1053" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1053" t="n">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c r="T1053" t="n">
         <v>18</v>
@@ -84647,7 +84647,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -84680,20 +84680,20 @@
       </c>
       <c r="L1054" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1054" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="N1054" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="O1054" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1054" t="n">
-        <v>2908</v>
+        <v>4000</v>
       </c>
       <c r="Q1054" t="inlineStr">
         <is>
@@ -84702,11 +84702,11 @@
       </c>
       <c r="R1054" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1054" t="n">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="T1054" t="n">
         <v>18</v>
@@ -84727,7 +84727,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -84760,20 +84760,20 @@
       </c>
       <c r="L1055" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1055" t="n">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="N1055" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="O1055" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="P1055" t="n">
-        <v>2677</v>
+        <v>3792</v>
       </c>
       <c r="Q1055" t="inlineStr">
         <is>
@@ -84782,11 +84782,11 @@
       </c>
       <c r="R1055" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1055" t="n">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="T1055" t="n">
         <v>18</v>
@@ -84840,20 +84840,20 @@
       </c>
       <c r="L1056" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1056" t="n">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="N1056" t="n">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="O1056" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="P1056" t="n">
-        <v>1874</v>
+        <v>3647</v>
       </c>
       <c r="Q1056" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
         </is>
       </c>
       <c r="S1056" t="n">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="T1056" t="n">
         <v>18</v>
@@ -84920,20 +84920,20 @@
       </c>
       <c r="L1057" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1057" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="N1057" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="O1057" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="P1057" t="n">
-        <v>1896</v>
+        <v>3703</v>
       </c>
       <c r="Q1057" t="inlineStr">
         <is>
@@ -84946,7 +84946,7 @@
         </is>
       </c>
       <c r="S1057" t="n">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="T1057" t="n">
         <v>18</v>
@@ -85000,20 +85000,20 @@
       </c>
       <c r="L1058" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1058" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N1058" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="O1058" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="P1058" t="n">
-        <v>1930</v>
+        <v>3680</v>
       </c>
       <c r="Q1058" t="inlineStr">
         <is>
@@ -85026,7 +85026,7 @@
         </is>
       </c>
       <c r="S1058" t="n">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="T1058" t="n">
         <v>18</v>
@@ -85047,7 +85047,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -85080,20 +85080,20 @@
       </c>
       <c r="L1059" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1059" t="n">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="N1059" t="n">
-        <v>10500</v>
+        <v>2800</v>
       </c>
       <c r="O1059" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="P1059" t="n">
-        <v>10763</v>
+        <v>2892</v>
       </c>
       <c r="Q1059" t="inlineStr">
         <is>
@@ -85106,7 +85106,7 @@
         </is>
       </c>
       <c r="S1059" t="n">
-        <v>598</v>
+        <v>161</v>
       </c>
       <c r="T1059" t="n">
         <v>18</v>
@@ -85127,7 +85127,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -85164,16 +85164,16 @@
         </is>
       </c>
       <c r="M1060" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="N1060" t="n">
-        <v>7500</v>
+        <v>2800</v>
       </c>
       <c r="O1060" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1060" t="n">
-        <v>7735</v>
+        <v>2908</v>
       </c>
       <c r="Q1060" t="inlineStr">
         <is>
@@ -85182,11 +85182,11 @@
       </c>
       <c r="R1060" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1060" t="n">
-        <v>430</v>
+        <v>162</v>
       </c>
       <c r="T1060" t="n">
         <v>18</v>
@@ -85207,7 +85207,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -85240,20 +85240,20 @@
       </c>
       <c r="L1061" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1061" t="n">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="N1061" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="O1061" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="P1061" t="n">
-        <v>4706</v>
+        <v>2677</v>
       </c>
       <c r="Q1061" t="inlineStr">
         <is>
@@ -85262,11 +85262,11 @@
       </c>
       <c r="R1061" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1061" t="n">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="T1061" t="n">
         <v>18</v>
@@ -85287,7 +85287,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -85320,20 +85320,20 @@
       </c>
       <c r="L1062" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1062" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N1062" t="n">
-        <v>11500</v>
+        <v>1700</v>
       </c>
       <c r="O1062" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P1062" t="n">
-        <v>11786</v>
+        <v>1874</v>
       </c>
       <c r="Q1062" t="inlineStr">
         <is>
@@ -85342,11 +85342,11 @@
       </c>
       <c r="R1062" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1062" t="n">
-        <v>655</v>
+        <v>104</v>
       </c>
       <c r="T1062" t="n">
         <v>18</v>
@@ -85367,7 +85367,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -85400,20 +85400,20 @@
       </c>
       <c r="L1063" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1063" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="N1063" t="n">
-        <v>7500</v>
+        <v>1800</v>
       </c>
       <c r="O1063" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="P1063" t="n">
-        <v>7714</v>
+        <v>1896</v>
       </c>
       <c r="Q1063" t="inlineStr">
         <is>
@@ -85422,11 +85422,11 @@
       </c>
       <c r="R1063" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1063" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
       <c r="T1063" t="n">
         <v>18</v>
@@ -85447,7 +85447,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -85484,16 +85484,16 @@
         </is>
       </c>
       <c r="M1064" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="N1064" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="O1064" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P1064" t="n">
-        <v>4242</v>
+        <v>1930</v>
       </c>
       <c r="Q1064" t="inlineStr">
         <is>
@@ -85506,7 +85506,7 @@
         </is>
       </c>
       <c r="S1064" t="n">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="T1064" t="n">
         <v>18</v>
@@ -85527,7 +85527,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -85564,16 +85564,16 @@
         </is>
       </c>
       <c r="M1065" t="n">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="N1065" t="n">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="O1065" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P1065" t="n">
-        <v>4273</v>
+        <v>10763</v>
       </c>
       <c r="Q1065" t="inlineStr">
         <is>
@@ -85586,7 +85586,7 @@
         </is>
       </c>
       <c r="S1065" t="n">
-        <v>237</v>
+        <v>598</v>
       </c>
       <c r="T1065" t="n">
         <v>18</v>
@@ -85607,7 +85607,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -85640,20 +85640,20 @@
       </c>
       <c r="L1066" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1066" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="N1066" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O1066" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P1066" t="n">
-        <v>4292</v>
+        <v>7735</v>
       </c>
       <c r="Q1066" t="inlineStr">
         <is>
@@ -85662,11 +85662,11 @@
       </c>
       <c r="R1066" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1066" t="n">
-        <v>238</v>
+        <v>430</v>
       </c>
       <c r="T1066" t="n">
         <v>18</v>
@@ -85687,7 +85687,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -85720,20 +85720,20 @@
       </c>
       <c r="L1067" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1067" t="n">
-        <v>630</v>
+        <v>340</v>
       </c>
       <c r="N1067" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="O1067" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P1067" t="n">
-        <v>3222</v>
+        <v>4706</v>
       </c>
       <c r="Q1067" t="inlineStr">
         <is>
@@ -85746,7 +85746,7 @@
         </is>
       </c>
       <c r="S1067" t="n">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="T1067" t="n">
         <v>18</v>
@@ -85767,7 +85767,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -85800,20 +85800,20 @@
       </c>
       <c r="L1068" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1068" t="n">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="N1068" t="n">
-        <v>3000</v>
+        <v>11500</v>
       </c>
       <c r="O1068" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="P1068" t="n">
-        <v>3265</v>
+        <v>11786</v>
       </c>
       <c r="Q1068" t="inlineStr">
         <is>
@@ -85822,11 +85822,11 @@
       </c>
       <c r="R1068" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1068" t="n">
-        <v>181</v>
+        <v>655</v>
       </c>
       <c r="T1068" t="n">
         <v>18</v>
@@ -85847,7 +85847,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -85880,20 +85880,20 @@
       </c>
       <c r="L1069" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1069" t="n">
-        <v>620</v>
+        <v>210</v>
       </c>
       <c r="N1069" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="O1069" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P1069" t="n">
-        <v>2274</v>
+        <v>7714</v>
       </c>
       <c r="Q1069" t="inlineStr">
         <is>
@@ -85902,11 +85902,11 @@
       </c>
       <c r="R1069" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1069" t="n">
-        <v>126</v>
+        <v>429</v>
       </c>
       <c r="T1069" t="n">
         <v>18</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -85960,20 +85960,20 @@
       </c>
       <c r="L1070" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1070" t="n">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="N1070" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1070" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1070" t="n">
-        <v>2230</v>
+        <v>4242</v>
       </c>
       <c r="Q1070" t="inlineStr">
         <is>
@@ -85982,11 +85982,11 @@
       </c>
       <c r="R1070" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1070" t="n">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="T1070" t="n">
         <v>18</v>
@@ -86007,7 +86007,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -86044,16 +86044,16 @@
         </is>
       </c>
       <c r="M1071" t="n">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="N1071" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="O1071" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P1071" t="n">
-        <v>13615</v>
+        <v>4273</v>
       </c>
       <c r="Q1071" t="inlineStr">
         <is>
@@ -86062,11 +86062,11 @@
       </c>
       <c r="R1071" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1071" t="n">
-        <v>756</v>
+        <v>237</v>
       </c>
       <c r="T1071" t="n">
         <v>18</v>
@@ -86087,7 +86087,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -86120,33 +86120,33 @@
       </c>
       <c r="L1072" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1072" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="N1072" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="O1072" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="P1072" t="n">
-        <v>19455</v>
+        <v>4292</v>
       </c>
       <c r="Q1072" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1072" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1072" t="n">
-        <v>1081</v>
+        <v>238</v>
       </c>
       <c r="T1072" t="n">
         <v>18</v>
@@ -86167,7 +86167,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -86200,20 +86200,20 @@
       </c>
       <c r="L1073" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1073" t="n">
         <v>630</v>
       </c>
       <c r="N1073" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1073" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P1073" t="n">
-        <v>14556</v>
+        <v>3222</v>
       </c>
       <c r="Q1073" t="inlineStr">
         <is>
@@ -86222,11 +86222,11 @@
       </c>
       <c r="R1073" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1073" t="n">
-        <v>809</v>
+        <v>179</v>
       </c>
       <c r="T1073" t="n">
         <v>18</v>
@@ -86247,7 +86247,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -86284,16 +86284,16 @@
         </is>
       </c>
       <c r="M1074" t="n">
-        <v>680</v>
+        <v>510</v>
       </c>
       <c r="N1074" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O1074" t="n">
-        <v>11000</v>
+        <v>3500</v>
       </c>
       <c r="P1074" t="n">
-        <v>10559</v>
+        <v>3265</v>
       </c>
       <c r="Q1074" t="inlineStr">
         <is>
@@ -86302,11 +86302,11 @@
       </c>
       <c r="R1074" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1074" t="n">
-        <v>587</v>
+        <v>181</v>
       </c>
       <c r="T1074" t="n">
         <v>18</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -86360,20 +86360,20 @@
       </c>
       <c r="L1075" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="N1075" t="n">
-        <v>11000</v>
+        <v>2000</v>
       </c>
       <c r="O1075" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P1075" t="n">
-        <v>11517</v>
+        <v>2274</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>640</v>
+        <v>126</v>
       </c>
       <c r="T1075" t="n">
         <v>18</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -86444,16 +86444,16 @@
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="N1076" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O1076" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="P1076" t="n">
-        <v>6433</v>
+        <v>2230</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
@@ -86462,11 +86462,11 @@
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="T1076" t="n">
         <v>18</v>
@@ -86520,20 +86520,20 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="N1077" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O1077" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P1077" t="n">
-        <v>7591</v>
+        <v>13615</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
@@ -86542,11 +86542,11 @@
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>422</v>
+        <v>756</v>
       </c>
       <c r="T1077" t="n">
         <v>18</v>
@@ -86600,20 +86600,20 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="N1078" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O1078" t="n">
         <v>20000</v>
       </c>
       <c r="P1078" t="n">
-        <v>20000</v>
+        <v>19455</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
@@ -86622,11 +86622,11 @@
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>1111</v>
+        <v>1081</v>
       </c>
       <c r="T1078" t="n">
         <v>18</v>
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -86680,20 +86680,20 @@
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>185</v>
+        <v>630</v>
       </c>
       <c r="N1079" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O1079" t="n">
-        <v>5300</v>
+        <v>15000</v>
       </c>
       <c r="P1079" t="n">
-        <v>5138</v>
+        <v>14556</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
@@ -86702,11 +86702,11 @@
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>285</v>
+        <v>809</v>
       </c>
       <c r="T1079" t="n">
         <v>18</v>
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -86764,16 +86764,16 @@
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>270</v>
+        <v>680</v>
       </c>
       <c r="N1080" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1080" t="n">
-        <v>4500</v>
+        <v>11000</v>
       </c>
       <c r="P1080" t="n">
-        <v>4278</v>
+        <v>10559</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
@@ -86782,11 +86782,11 @@
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>238</v>
+        <v>587</v>
       </c>
       <c r="T1080" t="n">
         <v>18</v>
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -86840,20 +86840,20 @@
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="N1081" t="n">
-        <v>2500</v>
+        <v>11000</v>
       </c>
       <c r="O1081" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P1081" t="n">
-        <v>2718</v>
+        <v>11517</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
@@ -86862,11 +86862,11 @@
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>151</v>
+        <v>640</v>
       </c>
       <c r="T1081" t="n">
         <v>18</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -86920,20 +86920,20 @@
       </c>
       <c r="L1082" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N1082" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1082" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P1082" t="n">
-        <v>4200</v>
+        <v>6433</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
@@ -86942,11 +86942,11 @@
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="T1082" t="n">
         <v>18</v>
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -87000,20 +87000,20 @@
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="N1083" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1083" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P1083" t="n">
-        <v>4271</v>
+        <v>7591</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
@@ -87026,7 +87026,7 @@
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>237</v>
+        <v>422</v>
       </c>
       <c r="T1083" t="n">
         <v>18</v>
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44400</v>
+        <v>44286</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -87080,33 +87080,33 @@
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>540</v>
+        <v>50</v>
       </c>
       <c r="N1084" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="O1084" t="n">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="P1084" t="n">
-        <v>3241</v>
+        <v>20000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>180</v>
+        <v>1111</v>
       </c>
       <c r="T1084" t="n">
         <v>18</v>
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -87160,20 +87160,20 @@
       </c>
       <c r="L1085" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>620</v>
+        <v>185</v>
       </c>
       <c r="N1085" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O1085" t="n">
-        <v>3500</v>
+        <v>5300</v>
       </c>
       <c r="P1085" t="n">
-        <v>3226</v>
+        <v>5138</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
@@ -87182,11 +87182,11 @@
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="T1085" t="n">
         <v>18</v>
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -87240,20 +87240,20 @@
       </c>
       <c r="L1086" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N1086" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1086" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1086" t="n">
-        <v>2300</v>
+        <v>4278</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
@@ -87266,7 +87266,7 @@
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="T1086" t="n">
         <v>18</v>
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -87324,16 +87324,16 @@
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="N1087" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="O1087" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P1087" t="n">
-        <v>2284</v>
+        <v>2718</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
@@ -87342,11 +87342,11 @@
       </c>
       <c r="R1087" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="T1087" t="n">
         <v>18</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -87404,16 +87404,16 @@
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>610</v>
+        <v>500</v>
       </c>
       <c r="N1088" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1088" t="n">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="P1088" t="n">
-        <v>5254</v>
+        <v>4200</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="T1088" t="n">
         <v>18</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -87480,11 +87480,11 @@
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="N1089" t="n">
         <v>4000</v>
@@ -87493,7 +87493,7 @@
         <v>4500</v>
       </c>
       <c r="P1089" t="n">
-        <v>4266</v>
+        <v>4271</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
@@ -87502,7 +87502,7 @@
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1089" t="n">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -87560,20 +87560,20 @@
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="N1090" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O1090" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="P1090" t="n">
-        <v>2759</v>
+        <v>3241</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="T1090" t="n">
         <v>18</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -87640,20 +87640,20 @@
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="N1091" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O1091" t="n">
-        <v>12500</v>
+        <v>3500</v>
       </c>
       <c r="P1091" t="n">
-        <v>12219</v>
+        <v>3226</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
@@ -87662,11 +87662,11 @@
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>679</v>
+        <v>179</v>
       </c>
       <c r="T1091" t="n">
         <v>18</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87720,20 +87720,20 @@
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="N1092" t="n">
-        <v>9500</v>
+        <v>2000</v>
       </c>
       <c r="O1092" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P1092" t="n">
-        <v>9793</v>
+        <v>2300</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
@@ -87742,11 +87742,11 @@
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>544</v>
+        <v>128</v>
       </c>
       <c r="T1092" t="n">
         <v>18</v>
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>155</v>
+        <v>440</v>
       </c>
       <c r="N1093" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="O1093" t="n">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="P1093" t="n">
-        <v>6242</v>
+        <v>2284</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>347</v>
+        <v>127</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87884,29 +87884,29 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>200</v>
+        <v>610</v>
       </c>
       <c r="N1094" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O1094" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="P1094" t="n">
-        <v>6500</v>
+        <v>5254</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1094" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>361</v>
+        <v>292</v>
       </c>
       <c r="T1094" t="n">
         <v>18</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87960,20 +87960,20 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="N1095" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O1095" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P1095" t="n">
-        <v>6000</v>
+        <v>4266</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87986,7 +87986,7 @@
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="T1095" t="n">
         <v>18</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88040,33 +88040,33 @@
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="N1096" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="O1096" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P1096" t="n">
-        <v>5000</v>
+        <v>2759</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>278</v>
+        <v>153</v>
       </c>
       <c r="T1096" t="n">
         <v>18</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="N1097" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O1097" t="n">
-        <v>4000</v>
+        <v>12500</v>
       </c>
       <c r="P1097" t="n">
-        <v>4000</v>
+        <v>12219</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>222</v>
+        <v>679</v>
       </c>
       <c r="T1097" t="n">
         <v>18</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,33 +88200,33 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="N1098" t="n">
-        <v>3500</v>
+        <v>9500</v>
       </c>
       <c r="O1098" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="P1098" t="n">
-        <v>3500</v>
+        <v>9793</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>194</v>
+        <v>544</v>
       </c>
       <c r="T1098" t="n">
         <v>18</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88280,20 +88280,20 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="N1099" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O1099" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="P1099" t="n">
-        <v>3000</v>
+        <v>6242</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88302,11 +88302,11 @@
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>167</v>
+        <v>347</v>
       </c>
       <c r="T1099" t="n">
         <v>18</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88364,29 +88364,29 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1100" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O1100" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="P1100" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>611</v>
+        <v>361</v>
       </c>
       <c r="T1100" t="n">
         <v>18</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88440,20 +88440,20 @@
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N1101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O1101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P1101" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
@@ -88462,11 +88462,11 @@
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T1101" t="n">
         <v>18</v>
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88524,29 +88524,29 @@
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="N1102" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O1102" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P1102" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="T1102" t="n">
         <v>18</v>
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88600,20 +88600,20 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="N1103" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O1103" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P1103" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
@@ -88622,11 +88622,11 @@
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="T1103" t="n">
         <v>18</v>
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88684,29 +88684,29 @@
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N1104" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O1104" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="P1104" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="T1104" t="n">
         <v>18</v>
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88760,20 +88760,20 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N1105" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="O1105" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="P1105" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88782,11 +88782,11 @@
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="T1105" t="n">
         <v>18</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88835,41 +88835,41 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="N1106" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O1106" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P1106" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>1250</v>
+        <v>611</v>
       </c>
       <c r="T1106" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1107">
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88920,20 +88920,20 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1107" t="n">
         <v>120</v>
       </c>
       <c r="N1107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1107" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="T1107" t="n">
         <v>18</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -89000,20 +89000,20 @@
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="N1108" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O1108" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P1108" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
@@ -89022,11 +89022,11 @@
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="T1108" t="n">
         <v>18</v>
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89080,20 +89080,20 @@
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N1109" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O1109" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P1109" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
@@ -89102,11 +89102,11 @@
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="T1109" t="n">
         <v>18</v>
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N1110" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1110" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="P1110" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89182,11 +89182,11 @@
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="T1110" t="n">
         <v>18</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89240,20 +89240,20 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="N1111" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O1111" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="P1111" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89315,41 +89315,41 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="N1112" t="n">
-        <v>3500</v>
+        <v>30000</v>
       </c>
       <c r="O1112" t="n">
-        <v>3500</v>
+        <v>30000</v>
       </c>
       <c r="P1112" t="n">
-        <v>3500</v>
+        <v>30000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>194</v>
+        <v>1250</v>
       </c>
       <c r="T1112" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1113">
@@ -89400,20 +89400,20 @@
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="N1113" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1113" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1113" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
@@ -89426,7 +89426,7 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="T1113" t="n">
         <v>18</v>
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N1114" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1114" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1114" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89506,7 +89506,7 @@
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="T1114" t="n">
         <v>18</v>
@@ -89555,41 +89555,41 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Tahití</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N1115" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="O1115" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="P1115" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>1667</v>
+        <v>222</v>
       </c>
       <c r="T1115" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1116">
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89640,20 +89640,20 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N1116" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O1116" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="P1116" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89666,7 +89666,7 @@
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>833</v>
+        <v>194</v>
       </c>
       <c r="T1116" t="n">
         <v>18</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89720,20 +89720,20 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>590</v>
+        <v>200</v>
       </c>
       <c r="N1117" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O1117" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P1117" t="n">
-        <v>11186</v>
+        <v>3500</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>621</v>
+        <v>194</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89800,20 +89800,20 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="N1118" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="O1118" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1118" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89826,7 +89826,7 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>722</v>
+        <v>194</v>
       </c>
       <c r="T1118" t="n">
         <v>18</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89884,16 +89884,16 @@
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="N1119" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O1119" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P1119" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89906,7 +89906,7 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>444</v>
+        <v>167</v>
       </c>
       <c r="T1119" t="n">
         <v>18</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89960,20 +89960,20 @@
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="N1120" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1120" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="P1120" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89982,11 +89982,11 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>778</v>
+        <v>167</v>
       </c>
       <c r="T1120" t="n">
         <v>18</v>
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44301</v>
+        <v>44445</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -90035,41 +90035,41 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Tahití</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N1121" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="O1121" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="P1121" t="n">
-        <v>14000</v>
+        <v>40000</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>778</v>
+        <v>1667</v>
       </c>
       <c r="T1121" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1122">
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90120,11 +90120,11 @@
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="N1122" t="n">
         <v>15000</v>
@@ -90142,7 +90142,7 @@
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1122" t="n">
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90204,16 +90204,16 @@
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="N1123" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O1123" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P1123" t="n">
-        <v>15000</v>
+        <v>11186</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90222,11 +90222,11 @@
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>833</v>
+        <v>621</v>
       </c>
       <c r="T1123" t="n">
         <v>18</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90284,16 +90284,16 @@
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="N1124" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O1124" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P1124" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90302,11 +90302,11 @@
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="T1124" t="n">
         <v>18</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90360,20 +90360,20 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1125" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O1125" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P1125" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90382,11 +90382,11 @@
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T1125" t="n">
         <v>18</v>
@@ -90440,20 +90440,20 @@
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1126" t="n">
         <v>145</v>
       </c>
       <c r="N1126" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1126" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1126" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90462,11 +90462,11 @@
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T1126" t="n">
         <v>18</v>
@@ -90520,20 +90520,20 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N1127" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O1127" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1127" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90542,11 +90542,11 @@
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="T1127" t="n">
         <v>18</v>
@@ -90600,20 +90600,20 @@
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N1128" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1128" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1128" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T1128" t="n">
         <v>18</v>
@@ -90680,20 +90680,20 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1129" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O1129" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P1129" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90702,11 +90702,11 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T1129" t="n">
         <v>18</v>
@@ -90760,20 +90760,20 @@
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1130" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O1130" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P1130" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="T1130" t="n">
         <v>18</v>
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90835,41 +90835,41 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="N1131" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="O1131" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="P1131" t="n">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="T1131" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1132">
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90920,20 +90920,20 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N1132" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O1132" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P1132" t="n">
-        <v>17571</v>
+        <v>13000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90942,11 +90942,11 @@
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>976</v>
+        <v>722</v>
       </c>
       <c r="T1132" t="n">
         <v>18</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -91000,20 +91000,20 @@
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="N1133" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O1133" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P1133" t="n">
-        <v>18400</v>
+        <v>13000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>1022</v>
+        <v>722</v>
       </c>
       <c r="T1133" t="n">
         <v>18</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91080,20 +91080,20 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N1134" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O1134" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P1134" t="n">
-        <v>14556</v>
+        <v>10000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91102,11 +91102,11 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>809</v>
+        <v>556</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="N1135" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O1135" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P1135" t="n">
-        <v>15421</v>
+        <v>11000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>857</v>
+        <v>611</v>
       </c>
       <c r="T1135" t="n">
         <v>18</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44270</v>
+        <v>44301</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91235,41 +91235,41 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N1136" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="O1136" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="P1136" t="n">
-        <v>30000</v>
+        <v>11000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>1250</v>
+        <v>611</v>
       </c>
       <c r="T1136" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1137">
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91315,41 +91315,41 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="N1137" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O1137" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P1137" t="n">
-        <v>15526</v>
+        <v>32000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>863</v>
+        <v>1333</v>
       </c>
       <c r="T1137" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1138">
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91400,20 +91400,20 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="N1138" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1138" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P1138" t="n">
-        <v>12526</v>
+        <v>17571</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91426,7 +91426,7 @@
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>696</v>
+        <v>976</v>
       </c>
       <c r="T1138" t="n">
         <v>18</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91480,20 +91480,20 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="N1139" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O1139" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P1139" t="n">
-        <v>8788</v>
+        <v>18400</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>488</v>
+        <v>1022</v>
       </c>
       <c r="T1139" t="n">
         <v>18</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91560,20 +91560,20 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="N1140" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O1140" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P1140" t="n">
-        <v>17565</v>
+        <v>14556</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91586,7 +91586,7 @@
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>976</v>
+        <v>809</v>
       </c>
       <c r="T1140" t="n">
         <v>18</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91640,20 +91640,20 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N1141" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O1141" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P1141" t="n">
-        <v>18583</v>
+        <v>15421</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91662,11 +91662,11 @@
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>1032</v>
+        <v>857</v>
       </c>
       <c r="T1141" t="n">
         <v>18</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91715,41 +91715,41 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="N1142" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="O1142" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P1142" t="n">
-        <v>13444</v>
+        <v>30000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>747</v>
+        <v>1250</v>
       </c>
       <c r="T1142" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91800,20 +91800,20 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="N1143" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1143" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1143" t="n">
-        <v>14471</v>
+        <v>15526</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="T1143" t="n">
         <v>18</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91880,20 +91880,20 @@
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N1144" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O1144" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P1144" t="n">
-        <v>7300</v>
+        <v>12526</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91906,7 +91906,7 @@
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="T1144" t="n">
         <v>18</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91960,20 +91960,20 @@
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>490</v>
+        <v>260</v>
       </c>
       <c r="N1145" t="n">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="O1145" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P1145" t="n">
-        <v>3796</v>
+        <v>8788</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91986,7 +91986,7 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>211</v>
+        <v>488</v>
       </c>
       <c r="T1145" t="n">
         <v>18</v>
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92044,16 +92044,16 @@
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>540</v>
+        <v>230</v>
       </c>
       <c r="N1146" t="n">
-        <v>3500</v>
+        <v>17000</v>
       </c>
       <c r="O1146" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="P1146" t="n">
-        <v>3778</v>
+        <v>17565</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
@@ -92062,11 +92062,11 @@
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>210</v>
+        <v>976</v>
       </c>
       <c r="T1146" t="n">
         <v>18</v>
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92120,20 +92120,20 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>620</v>
+        <v>240</v>
       </c>
       <c r="N1147" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="O1147" t="n">
-        <v>3200</v>
+        <v>19000</v>
       </c>
       <c r="P1147" t="n">
-        <v>3110</v>
+        <v>18583</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92146,7 +92146,7 @@
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>173</v>
+        <v>1032</v>
       </c>
       <c r="T1147" t="n">
         <v>18</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92204,16 +92204,16 @@
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="N1148" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="O1148" t="n">
-        <v>3200</v>
+        <v>14000</v>
       </c>
       <c r="P1148" t="n">
-        <v>3110</v>
+        <v>13444</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92222,11 +92222,11 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>173</v>
+        <v>747</v>
       </c>
       <c r="T1148" t="n">
         <v>18</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92280,20 +92280,20 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="N1149" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="O1149" t="n">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="P1149" t="n">
-        <v>2278</v>
+        <v>14471</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92306,7 +92306,7 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>127</v>
+        <v>804</v>
       </c>
       <c r="T1149" t="n">
         <v>18</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92364,16 +92364,16 @@
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N1150" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="O1150" t="n">
-        <v>2200</v>
+        <v>7500</v>
       </c>
       <c r="P1150" t="n">
-        <v>2090</v>
+        <v>7300</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92382,11 +92382,11 @@
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>116</v>
+        <v>406</v>
       </c>
       <c r="T1150" t="n">
         <v>18</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92444,16 +92444,16 @@
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="N1151" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1151" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1151" t="n">
-        <v>5750</v>
+        <v>3796</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92462,11 +92462,11 @@
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="T1151" t="n">
         <v>18</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92524,16 +92524,16 @@
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N1152" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1152" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1152" t="n">
-        <v>5750</v>
+        <v>3778</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="T1152" t="n">
         <v>18</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92604,16 +92604,16 @@
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="N1153" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1153" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1153" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92622,11 +92622,11 @@
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1153" t="n">
         <v>18</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92684,16 +92684,16 @@
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="N1154" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1154" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1154" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92706,7 +92706,7 @@
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1154" t="n">
         <v>18</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92764,16 +92764,16 @@
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>160</v>
+        <v>540</v>
       </c>
       <c r="N1155" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1155" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P1155" t="n">
-        <v>3750</v>
+        <v>2278</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92782,11 +92782,11 @@
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="T1155" t="n">
         <v>18</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92844,16 +92844,16 @@
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N1156" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1156" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P1156" t="n">
-        <v>3750</v>
+        <v>2090</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92866,7 +92866,7 @@
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="T1156" t="n">
         <v>18</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92920,33 +92920,33 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1157" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="O1157" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P1157" t="n">
-        <v>22000</v>
+        <v>5750</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>1222</v>
+        <v>319</v>
       </c>
       <c r="T1157" t="n">
         <v>18</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93000,20 +93000,20 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N1158" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O1158" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1158" t="n">
-        <v>19583</v>
+        <v>5750</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93022,11 +93022,11 @@
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>1088</v>
+        <v>319</v>
       </c>
       <c r="T1158" t="n">
         <v>18</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1159" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O1159" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P1159" t="n">
-        <v>17533</v>
+        <v>4750</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>974</v>
+        <v>264</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93160,20 +93160,20 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N1160" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O1160" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P1160" t="n">
-        <v>10514</v>
+        <v>4750</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>584</v>
+        <v>264</v>
       </c>
       <c r="T1160" t="n">
         <v>18</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93240,33 +93240,33 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N1161" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1161" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1161" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1161" t="n">
         <v>18</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93320,33 +93320,33 @@
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N1162" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1162" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1162" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1162" t="n">
         <v>18</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93400,33 +93400,33 @@
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="N1163" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O1163" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P1163" t="n">
-        <v>14517</v>
+        <v>22000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>806</v>
+        <v>1222</v>
       </c>
       <c r="T1163" t="n">
         <v>18</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93480,20 +93480,20 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="N1164" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O1164" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P1164" t="n">
-        <v>12585</v>
+        <v>19583</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>699</v>
+        <v>1088</v>
       </c>
       <c r="T1164" t="n">
         <v>18</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93560,20 +93560,20 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N1165" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O1165" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P1165" t="n">
-        <v>7524</v>
+        <v>17533</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93582,11 +93582,11 @@
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>418</v>
+        <v>974</v>
       </c>
       <c r="T1165" t="n">
         <v>18</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93640,20 +93640,20 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="N1166" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O1166" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P1166" t="n">
-        <v>17474</v>
+        <v>10514</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93662,11 +93662,11 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>971</v>
+        <v>584</v>
       </c>
       <c r="T1166" t="n">
         <v>18</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93720,33 +93720,33 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N1167" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O1167" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P1167" t="n">
-        <v>18571</v>
+        <v>25000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>1032</v>
+        <v>1389</v>
       </c>
       <c r="T1167" t="n">
         <v>18</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93800,33 +93800,33 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="N1168" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O1168" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P1168" t="n">
-        <v>14444</v>
+        <v>25000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>802</v>
+        <v>1389</v>
       </c>
       <c r="T1168" t="n">
         <v>18</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N1169" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1169" t="n">
         <v>15000</v>
       </c>
-      <c r="O1169" t="n">
-        <v>16000</v>
-      </c>
       <c r="P1169" t="n">
-        <v>15440</v>
+        <v>14517</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>858</v>
+        <v>806</v>
       </c>
       <c r="T1169" t="n">
         <v>18</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93960,20 +93960,20 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="N1170" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1170" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1170" t="n">
-        <v>10556</v>
+        <v>12585</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93982,11 +93982,11 @@
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="T1170" t="n">
         <v>18</v>
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94040,20 +94040,20 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N1171" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O1171" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1171" t="n">
-        <v>12545</v>
+        <v>7524</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94062,11 +94062,11 @@
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>697</v>
+        <v>418</v>
       </c>
       <c r="T1171" t="n">
         <v>18</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94124,16 +94124,16 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="N1172" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O1172" t="n">
-        <v>4200</v>
+        <v>18000</v>
       </c>
       <c r="P1172" t="n">
-        <v>4104</v>
+        <v>17474</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>228</v>
+        <v>971</v>
       </c>
       <c r="T1172" t="n">
         <v>18</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94200,20 +94200,20 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N1173" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O1173" t="n">
-        <v>4200</v>
+        <v>19000</v>
       </c>
       <c r="P1173" t="n">
-        <v>4086</v>
+        <v>18571</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>227</v>
+        <v>1032</v>
       </c>
       <c r="T1173" t="n">
         <v>18</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="N1174" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1174" t="n">
-        <v>4200</v>
+        <v>15000</v>
       </c>
       <c r="P1174" t="n">
-        <v>4079</v>
+        <v>14444</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>227</v>
+        <v>802</v>
       </c>
       <c r="T1174" t="n">
         <v>18</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="N1175" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1175" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1175" t="n">
-        <v>3094</v>
+        <v>15440</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="T1175" t="n">
         <v>18</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N1176" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O1176" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P1176" t="n">
-        <v>3112</v>
+        <v>10556</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>173</v>
+        <v>586</v>
       </c>
       <c r="T1176" t="n">
         <v>18</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="N1177" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1177" t="n">
-        <v>3200</v>
+        <v>13000</v>
       </c>
       <c r="P1177" t="n">
-        <v>3092</v>
+        <v>12545</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>172</v>
+        <v>697</v>
       </c>
       <c r="T1177" t="n">
         <v>18</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="N1178" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1178" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1178" t="n">
-        <v>2054</v>
+        <v>4104</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94626,7 +94626,7 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="T1178" t="n">
         <v>18</v>
@@ -94680,20 +94680,20 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="N1179" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="O1179" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="P1179" t="n">
-        <v>1909</v>
+        <v>4086</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="N1180" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1180" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1180" t="n">
-        <v>2044</v>
+        <v>4079</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94786,7 +94786,7 @@
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94840,20 +94840,20 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>170</v>
+        <v>530</v>
       </c>
       <c r="N1181" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1181" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1181" t="n">
-        <v>15000</v>
+        <v>3094</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>833</v>
+        <v>172</v>
       </c>
       <c r="T1181" t="n">
         <v>18</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="N1182" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1182" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1182" t="n">
-        <v>15000</v>
+        <v>3112</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94946,7 +94946,7 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>833</v>
+        <v>173</v>
       </c>
       <c r="T1182" t="n">
         <v>18</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="N1183" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1183" t="n">
-        <v>16000</v>
+        <v>3200</v>
       </c>
       <c r="P1183" t="n">
-        <v>16000</v>
+        <v>3092</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>889</v>
+        <v>172</v>
       </c>
       <c r="T1183" t="n">
         <v>18</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95080,20 +95080,20 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="N1184" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O1184" t="n">
-        <v>15000</v>
+        <v>2100</v>
       </c>
       <c r="P1184" t="n">
-        <v>15000</v>
+        <v>2054</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>833</v>
+        <v>114</v>
       </c>
       <c r="T1184" t="n">
         <v>18</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95160,20 +95160,20 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N1185" t="n">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="O1185" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1185" t="n">
-        <v>13000</v>
+        <v>1909</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95182,11 +95182,11 @@
       </c>
       <c r="R1185" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>722</v>
+        <v>106</v>
       </c>
       <c r="T1185" t="n">
         <v>18</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95240,20 +95240,20 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N1186" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="O1186" t="n">
-        <v>13000</v>
+        <v>2100</v>
       </c>
       <c r="P1186" t="n">
-        <v>13000</v>
+        <v>2044</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95262,11 +95262,11 @@
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>722</v>
+        <v>114</v>
       </c>
       <c r="T1186" t="n">
         <v>18</v>
@@ -95320,20 +95320,20 @@
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N1187" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1187" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1187" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95342,11 +95342,11 @@
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T1187" t="n">
         <v>18</v>
@@ -95400,20 +95400,20 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N1188" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1188" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1188" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95480,20 +95480,20 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N1189" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1189" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1189" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95502,11 +95502,11 @@
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T1189" t="n">
         <v>18</v>
@@ -95560,20 +95560,20 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N1190" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1190" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1190" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95582,11 +95582,11 @@
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T1190" t="n">
         <v>18</v>
@@ -95640,20 +95640,20 @@
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1191" t="n">
         <v>150</v>
       </c>
       <c r="N1191" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1191" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1191" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95662,11 +95662,11 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1191" t="n">
         <v>18</v>
@@ -95720,20 +95720,20 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1192" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1192" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1192" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95742,11 +95742,11 @@
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1192" t="n">
         <v>18</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -95800,20 +95800,20 @@
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N1193" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O1193" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P1193" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95826,7 +95826,7 @@
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T1193" t="n">
         <v>18</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -95884,16 +95884,16 @@
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N1194" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O1194" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P1194" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95902,11 +95902,11 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T1194" t="n">
         <v>18</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -95960,20 +95960,20 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="N1195" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O1195" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1195" t="n">
-        <v>5731</v>
+        <v>10000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="T1195" t="n">
         <v>18</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -96040,20 +96040,20 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="N1196" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1196" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1196" t="n">
-        <v>4258</v>
+        <v>10000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96062,11 +96062,11 @@
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>237</v>
+        <v>556</v>
       </c>
       <c r="T1196" t="n">
         <v>18</v>
@@ -96087,68 +96087,548 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1197" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1197" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1197" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1197" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1197" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1197" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1197" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1197" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1197" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1198" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1198" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1198" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1198" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1198" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1198" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1198" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1198" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1198" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1198" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1199" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1199" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1199" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1199" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1199" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1199" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1199" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1199" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1199" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1199" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1200" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1200" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1200" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1200" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1200" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1200" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1200" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1200" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1200" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1200" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1201" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1197" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1197" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1197" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1197" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1197" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1197" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1197" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1197" t="inlineStr">
+      <c r="E1201" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1201" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1201" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1201" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1201" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1201" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>5731</v>
+      </c>
+      <c r="Q1201" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1201" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1201" t="n">
+        <v>318</v>
+      </c>
+      <c r="T1201" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1202" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1202" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1202" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1202" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1202" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1202" t="n">
+        <v>640</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>4258</v>
+      </c>
+      <c r="Q1202" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1202" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1202" t="n">
+        <v>237</v>
+      </c>
+      <c r="T1202" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1203" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1203" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1203" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1203" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1203" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1197" t="n">
+      <c r="M1203" t="n">
         <v>580</v>
       </c>
-      <c r="N1197" t="n">
+      <c r="N1203" t="n">
         <v>2500</v>
       </c>
-      <c r="O1197" t="n">
+      <c r="O1203" t="n">
         <v>3000</v>
       </c>
-      <c r="P1197" t="n">
+      <c r="P1203" t="n">
         <v>2759</v>
       </c>
-      <c r="Q1197" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1197" t="inlineStr">
+      <c r="Q1203" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1203" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S1197" t="n">
+      <c r="S1203" t="n">
         <v>153</v>
       </c>
-      <c r="T1197" t="n">
+      <c r="T1203" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1206"/>
+  <dimension ref="A1:T1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92684,29 +92684,29 @@
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="N1154" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O1154" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1154" t="n">
-        <v>3796</v>
+        <v>10000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>211</v>
+        <v>556</v>
       </c>
       <c r="T1154" t="n">
         <v>18</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92764,16 +92764,16 @@
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="N1155" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1155" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P1155" t="n">
-        <v>3778</v>
+        <v>6257</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92782,11 +92782,11 @@
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="T1155" t="n">
         <v>18</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>620</v>
+        <v>330</v>
       </c>
       <c r="N1156" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O1156" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="P1156" t="n">
-        <v>3110</v>
+        <v>6000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="T1156" t="n">
         <v>18</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92924,16 +92924,16 @@
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N1157" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O1157" t="n">
-        <v>3200</v>
+        <v>5500</v>
       </c>
       <c r="P1157" t="n">
-        <v>3110</v>
+        <v>5280</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92942,11 +92942,11 @@
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="T1157" t="n">
         <v>18</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93000,20 +93000,20 @@
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="N1158" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O1158" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P1158" t="n">
-        <v>2278</v>
+        <v>5000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93022,11 +93022,11 @@
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="T1158" t="n">
         <v>18</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93084,16 +93084,16 @@
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N1159" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O1159" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="P1159" t="n">
-        <v>2090</v>
+        <v>3500</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93164,16 +93164,16 @@
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="N1160" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1160" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1160" t="n">
-        <v>5750</v>
+        <v>3796</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="T1160" t="n">
         <v>18</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93244,16 +93244,16 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N1161" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1161" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1161" t="n">
-        <v>5750</v>
+        <v>3778</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93266,7 +93266,7 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="T1161" t="n">
         <v>18</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93324,16 +93324,16 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="N1162" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1162" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1162" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93342,11 +93342,11 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1162" t="n">
         <v>18</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93404,16 +93404,16 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="N1163" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1163" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1163" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93426,7 +93426,7 @@
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1163" t="n">
         <v>18</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93484,16 +93484,16 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>160</v>
+        <v>540</v>
       </c>
       <c r="N1164" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1164" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P1164" t="n">
-        <v>3750</v>
+        <v>2278</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="T1164" t="n">
         <v>18</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93564,16 +93564,16 @@
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N1165" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1165" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P1165" t="n">
-        <v>3750</v>
+        <v>2090</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93586,7 +93586,7 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="T1165" t="n">
         <v>18</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93640,33 +93640,33 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1166" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="O1166" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P1166" t="n">
-        <v>22000</v>
+        <v>5750</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>1222</v>
+        <v>319</v>
       </c>
       <c r="T1166" t="n">
         <v>18</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N1167" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O1167" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1167" t="n">
-        <v>19583</v>
+        <v>5750</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93742,11 +93742,11 @@
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>1088</v>
+        <v>319</v>
       </c>
       <c r="T1167" t="n">
         <v>18</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93800,20 +93800,20 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1168" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O1168" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P1168" t="n">
-        <v>17533</v>
+        <v>4750</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>974</v>
+        <v>264</v>
       </c>
       <c r="T1168" t="n">
         <v>18</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N1169" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O1169" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P1169" t="n">
-        <v>10514</v>
+        <v>4750</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>584</v>
+        <v>264</v>
       </c>
       <c r="T1169" t="n">
         <v>18</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93960,33 +93960,33 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N1170" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1170" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1170" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1170" t="n">
         <v>18</v>
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94040,33 +94040,33 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N1171" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1171" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1171" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1171" t="n">
         <v>18</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94120,33 +94120,33 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="N1172" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O1172" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P1172" t="n">
-        <v>14517</v>
+        <v>22000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>806</v>
+        <v>1222</v>
       </c>
       <c r="T1172" t="n">
         <v>18</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94200,20 +94200,20 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="N1173" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O1173" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P1173" t="n">
-        <v>12585</v>
+        <v>19583</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>699</v>
+        <v>1088</v>
       </c>
       <c r="T1173" t="n">
         <v>18</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N1174" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O1174" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P1174" t="n">
-        <v>7524</v>
+        <v>17533</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>418</v>
+        <v>974</v>
       </c>
       <c r="T1174" t="n">
         <v>18</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="N1175" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O1175" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P1175" t="n">
-        <v>17474</v>
+        <v>10514</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>971</v>
+        <v>584</v>
       </c>
       <c r="T1175" t="n">
         <v>18</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,33 +94440,33 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N1176" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O1176" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P1176" t="n">
-        <v>18571</v>
+        <v>25000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>1032</v>
+        <v>1389</v>
       </c>
       <c r="T1176" t="n">
         <v>18</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94520,33 +94520,33 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="N1177" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O1177" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P1177" t="n">
-        <v>14444</v>
+        <v>25000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>802</v>
+        <v>1389</v>
       </c>
       <c r="T1177" t="n">
         <v>18</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N1178" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1178" t="n">
         <v>15000</v>
       </c>
-      <c r="O1178" t="n">
-        <v>16000</v>
-      </c>
       <c r="P1178" t="n">
-        <v>15440</v>
+        <v>14517</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94622,11 +94622,11 @@
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>858</v>
+        <v>806</v>
       </c>
       <c r="T1178" t="n">
         <v>18</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94680,20 +94680,20 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="N1179" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1179" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1179" t="n">
-        <v>10556</v>
+        <v>12585</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94702,11 +94702,11 @@
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N1180" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O1180" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1180" t="n">
-        <v>12545</v>
+        <v>7524</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>697</v>
+        <v>418</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94844,16 +94844,16 @@
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="N1181" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O1181" t="n">
-        <v>4200</v>
+        <v>18000</v>
       </c>
       <c r="P1181" t="n">
-        <v>4104</v>
+        <v>17474</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94866,7 +94866,7 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>228</v>
+        <v>971</v>
       </c>
       <c r="T1181" t="n">
         <v>18</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N1182" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O1182" t="n">
-        <v>4200</v>
+        <v>19000</v>
       </c>
       <c r="P1182" t="n">
-        <v>4086</v>
+        <v>18571</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>227</v>
+        <v>1032</v>
       </c>
       <c r="T1182" t="n">
         <v>18</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="N1183" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1183" t="n">
-        <v>4200</v>
+        <v>15000</v>
       </c>
       <c r="P1183" t="n">
-        <v>4079</v>
+        <v>14444</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>227</v>
+        <v>802</v>
       </c>
       <c r="T1183" t="n">
         <v>18</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95080,20 +95080,20 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="N1184" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1184" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1184" t="n">
-        <v>3094</v>
+        <v>15440</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="T1184" t="n">
         <v>18</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95160,20 +95160,20 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N1185" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O1185" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P1185" t="n">
-        <v>3112</v>
+        <v>10556</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95182,11 +95182,11 @@
       </c>
       <c r="R1185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>173</v>
+        <v>586</v>
       </c>
       <c r="T1185" t="n">
         <v>18</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95240,20 +95240,20 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="N1186" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1186" t="n">
-        <v>3200</v>
+        <v>13000</v>
       </c>
       <c r="P1186" t="n">
-        <v>3092</v>
+        <v>12545</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95262,11 +95262,11 @@
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>172</v>
+        <v>697</v>
       </c>
       <c r="T1186" t="n">
         <v>18</v>
@@ -95320,20 +95320,20 @@
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="N1187" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1187" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1187" t="n">
-        <v>2054</v>
+        <v>4104</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="T1187" t="n">
         <v>18</v>
@@ -95400,20 +95400,20 @@
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="N1188" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="O1188" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="P1188" t="n">
-        <v>1909</v>
+        <v>4086</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95426,7 +95426,7 @@
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95480,20 +95480,20 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="N1189" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1189" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1189" t="n">
-        <v>2044</v>
+        <v>4079</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95506,7 +95506,7 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="T1189" t="n">
         <v>18</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -95560,20 +95560,20 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>170</v>
+        <v>530</v>
       </c>
       <c r="N1190" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1190" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1190" t="n">
-        <v>15000</v>
+        <v>3094</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95582,11 +95582,11 @@
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>833</v>
+        <v>172</v>
       </c>
       <c r="T1190" t="n">
         <v>18</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -95640,20 +95640,20 @@
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="N1191" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1191" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1191" t="n">
-        <v>15000</v>
+        <v>3112</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95666,7 +95666,7 @@
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>833</v>
+        <v>173</v>
       </c>
       <c r="T1191" t="n">
         <v>18</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -95720,20 +95720,20 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="N1192" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1192" t="n">
-        <v>16000</v>
+        <v>3200</v>
       </c>
       <c r="P1192" t="n">
-        <v>16000</v>
+        <v>3092</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95742,11 +95742,11 @@
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>889</v>
+        <v>172</v>
       </c>
       <c r="T1192" t="n">
         <v>18</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -95800,20 +95800,20 @@
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="N1193" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O1193" t="n">
-        <v>15000</v>
+        <v>2100</v>
       </c>
       <c r="P1193" t="n">
-        <v>15000</v>
+        <v>2054</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95822,11 +95822,11 @@
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>833</v>
+        <v>114</v>
       </c>
       <c r="T1193" t="n">
         <v>18</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -95880,20 +95880,20 @@
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N1194" t="n">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="O1194" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1194" t="n">
-        <v>13000</v>
+        <v>1909</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95902,11 +95902,11 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>722</v>
+        <v>106</v>
       </c>
       <c r="T1194" t="n">
         <v>18</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -95960,20 +95960,20 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N1195" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="O1195" t="n">
-        <v>13000</v>
+        <v>2100</v>
       </c>
       <c r="P1195" t="n">
-        <v>13000</v>
+        <v>2044</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>722</v>
+        <v>114</v>
       </c>
       <c r="T1195" t="n">
         <v>18</v>
@@ -96040,20 +96040,20 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N1196" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1196" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1196" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96062,11 +96062,11 @@
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T1196" t="n">
         <v>18</v>
@@ -96120,20 +96120,20 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N1197" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1197" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1197" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96142,11 +96142,11 @@
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T1197" t="n">
         <v>18</v>
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N1198" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1198" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1198" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T1198" t="n">
         <v>18</v>
@@ -96280,20 +96280,20 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N1199" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1199" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1199" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T1199" t="n">
         <v>18</v>
@@ -96360,20 +96360,20 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1200" t="n">
         <v>150</v>
       </c>
       <c r="N1200" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1200" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1200" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96382,11 +96382,11 @@
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1200" t="n">
         <v>18</v>
@@ -96440,20 +96440,20 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1201" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1201" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1201" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96462,11 +96462,11 @@
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1201" t="n">
         <v>18</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96520,20 +96520,20 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N1202" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O1202" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P1202" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96546,7 +96546,7 @@
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T1202" t="n">
         <v>18</v>
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96604,16 +96604,16 @@
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N1203" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O1203" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P1203" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96622,11 +96622,11 @@
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T1203" t="n">
         <v>18</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96680,20 +96680,20 @@
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="N1204" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O1204" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1204" t="n">
-        <v>5731</v>
+        <v>10000</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96702,11 +96702,11 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="T1204" t="n">
         <v>18</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -96760,20 +96760,20 @@
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="N1205" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1205" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1205" t="n">
-        <v>4258</v>
+        <v>10000</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96782,11 +96782,11 @@
       </c>
       <c r="R1205" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>237</v>
+        <v>556</v>
       </c>
       <c r="T1205" t="n">
         <v>18</v>
@@ -96807,68 +96807,548 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1206" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1206" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1206" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1206" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1206" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1206" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1206" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1206" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1206" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1207" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1207" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1207" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1207" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1207" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1207" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1207" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1207" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1207" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1207" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1208" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1208" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1208" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1208" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1208" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1208" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1208" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1208" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1208" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1208" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1209" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1209" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1209" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1209" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1209" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1209" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1209" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1209" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1209" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1210" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1206" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1206" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1206" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1206" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1206" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1206" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1206" t="inlineStr">
+      <c r="E1210" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1210" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1210" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1210" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>5731</v>
+      </c>
+      <c r="Q1210" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1210" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1210" t="n">
+        <v>318</v>
+      </c>
+      <c r="T1210" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1211" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1211" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1211" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1211" t="n">
+        <v>640</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>4258</v>
+      </c>
+      <c r="Q1211" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1211" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1211" t="n">
+        <v>237</v>
+      </c>
+      <c r="T1211" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1212" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1212" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1206" t="n">
+      <c r="M1212" t="n">
         <v>580</v>
       </c>
-      <c r="N1206" t="n">
+      <c r="N1212" t="n">
         <v>2500</v>
       </c>
-      <c r="O1206" t="n">
+      <c r="O1212" t="n">
         <v>3000</v>
       </c>
-      <c r="P1206" t="n">
+      <c r="P1212" t="n">
         <v>2759</v>
       </c>
-      <c r="Q1206" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1206" t="inlineStr">
+      <c r="Q1212" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1212" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S1206" t="n">
+      <c r="S1212" t="n">
         <v>153</v>
       </c>
-      <c r="T1206" t="n">
+      <c r="T1212" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1230"/>
+  <dimension ref="A1:T1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -92995,41 +92995,41 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="N1158" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="O1158" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="P1158" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>1333</v>
+        <v>389</v>
       </c>
       <c r="T1158" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1159">
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93084,16 +93084,16 @@
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="N1159" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O1159" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P1159" t="n">
-        <v>17571</v>
+        <v>6764</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>976</v>
+        <v>376</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93160,20 +93160,20 @@
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N1160" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O1160" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="P1160" t="n">
-        <v>18400</v>
+        <v>6000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>1022</v>
+        <v>333</v>
       </c>
       <c r="T1160" t="n">
         <v>18</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93244,16 +93244,16 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>135</v>
+        <v>520</v>
       </c>
       <c r="N1161" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O1161" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P1161" t="n">
-        <v>14556</v>
+        <v>5788</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93262,11 +93262,11 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>809</v>
+        <v>322</v>
       </c>
       <c r="T1161" t="n">
         <v>18</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93320,20 +93320,20 @@
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="N1162" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O1162" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="P1162" t="n">
-        <v>15421</v>
+        <v>4500</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93342,11 +93342,11 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>857</v>
+        <v>250</v>
       </c>
       <c r="T1162" t="n">
         <v>18</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93395,41 +93395,41 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>35</v>
+        <v>600</v>
       </c>
       <c r="N1163" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="O1163" t="n">
-        <v>30000</v>
+        <v>4500</v>
       </c>
       <c r="P1163" t="n">
-        <v>30000</v>
+        <v>4250</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>1250</v>
+        <v>236</v>
       </c>
       <c r="T1163" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93475,41 +93475,41 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="N1164" t="n">
-        <v>15000</v>
+        <v>32000</v>
       </c>
       <c r="O1164" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="P1164" t="n">
-        <v>15526</v>
+        <v>32000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>863</v>
+        <v>1333</v>
       </c>
       <c r="T1164" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1165">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93560,20 +93560,20 @@
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>380</v>
+        <v>140</v>
       </c>
       <c r="N1165" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1165" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P1165" t="n">
-        <v>12526</v>
+        <v>17571</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93586,7 +93586,7 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>696</v>
+        <v>976</v>
       </c>
       <c r="T1165" t="n">
         <v>18</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93640,20 +93640,20 @@
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="N1166" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O1166" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P1166" t="n">
-        <v>8788</v>
+        <v>18400</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93662,11 +93662,11 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>488</v>
+        <v>1022</v>
       </c>
       <c r="T1166" t="n">
         <v>18</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="N1167" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O1167" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P1167" t="n">
-        <v>17565</v>
+        <v>14556</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93746,7 +93746,7 @@
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>976</v>
+        <v>809</v>
       </c>
       <c r="T1167" t="n">
         <v>18</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93800,20 +93800,20 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>240</v>
+        <v>95</v>
       </c>
       <c r="N1168" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O1168" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P1168" t="n">
-        <v>18583</v>
+        <v>15421</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>1032</v>
+        <v>857</v>
       </c>
       <c r="T1168" t="n">
         <v>18</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93875,41 +93875,41 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="N1169" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="O1169" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="P1169" t="n">
-        <v>13444</v>
+        <v>30000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>747</v>
+        <v>1250</v>
       </c>
       <c r="T1169" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1170">
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93960,20 +93960,20 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="N1170" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1170" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1170" t="n">
-        <v>14471</v>
+        <v>15526</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93986,7 +93986,7 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="T1170" t="n">
         <v>18</v>
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94040,20 +94040,20 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="N1171" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O1171" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="P1171" t="n">
-        <v>7300</v>
+        <v>12526</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>406</v>
+        <v>696</v>
       </c>
       <c r="T1171" t="n">
         <v>18</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94120,33 +94120,33 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="N1172" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O1172" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1172" t="n">
-        <v>10000</v>
+        <v>8788</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="T1172" t="n">
         <v>18</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94204,16 +94204,16 @@
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>680</v>
+        <v>230</v>
       </c>
       <c r="N1173" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O1173" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="P1173" t="n">
-        <v>6257</v>
+        <v>17565</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>348</v>
+        <v>976</v>
       </c>
       <c r="T1173" t="n">
         <v>18</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="N1174" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O1174" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="P1174" t="n">
-        <v>6000</v>
+        <v>18583</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>333</v>
+        <v>1032</v>
       </c>
       <c r="T1174" t="n">
         <v>18</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94364,16 +94364,16 @@
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="N1175" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="O1175" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="P1175" t="n">
-        <v>5280</v>
+        <v>13444</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>293</v>
+        <v>747</v>
       </c>
       <c r="T1175" t="n">
         <v>18</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="N1176" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O1176" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P1176" t="n">
-        <v>5000</v>
+        <v>14471</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>278</v>
+        <v>804</v>
       </c>
       <c r="T1176" t="n">
         <v>18</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94524,16 +94524,16 @@
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="N1177" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O1177" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="P1177" t="n">
-        <v>3500</v>
+        <v>7300</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="T1177" t="n">
         <v>18</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94604,29 +94604,29 @@
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="N1178" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O1178" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P1178" t="n">
-        <v>3796</v>
+        <v>10000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>211</v>
+        <v>556</v>
       </c>
       <c r="T1178" t="n">
         <v>18</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94684,16 +94684,16 @@
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="N1179" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O1179" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P1179" t="n">
-        <v>3778</v>
+        <v>6257</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94702,11 +94702,11 @@
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>620</v>
+        <v>330</v>
       </c>
       <c r="N1180" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O1180" t="n">
-        <v>3200</v>
+        <v>6000</v>
       </c>
       <c r="P1180" t="n">
-        <v>3110</v>
+        <v>6000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94844,16 +94844,16 @@
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="N1181" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O1181" t="n">
-        <v>3200</v>
+        <v>5500</v>
       </c>
       <c r="P1181" t="n">
-        <v>3110</v>
+        <v>5280</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94862,11 +94862,11 @@
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="T1181" t="n">
         <v>18</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="N1182" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O1182" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P1182" t="n">
-        <v>2278</v>
+        <v>5000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="T1182" t="n">
         <v>18</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -95004,16 +95004,16 @@
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N1183" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O1183" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="P1183" t="n">
-        <v>2090</v>
+        <v>3500</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95026,7 +95026,7 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="T1183" t="n">
         <v>18</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95084,16 +95084,16 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="N1184" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1184" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1184" t="n">
-        <v>5750</v>
+        <v>3796</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="T1184" t="n">
         <v>18</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95164,16 +95164,16 @@
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N1185" t="n">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="O1185" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1185" t="n">
-        <v>5750</v>
+        <v>3778</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="T1185" t="n">
         <v>18</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95244,16 +95244,16 @@
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="N1186" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1186" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1186" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95262,11 +95262,11 @@
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1186" t="n">
         <v>18</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95324,16 +95324,16 @@
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>160</v>
+        <v>620</v>
       </c>
       <c r="N1187" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O1187" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="P1187" t="n">
-        <v>4750</v>
+        <v>3110</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="T1187" t="n">
         <v>18</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95404,16 +95404,16 @@
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>160</v>
+        <v>540</v>
       </c>
       <c r="N1188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1188" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="P1188" t="n">
-        <v>3750</v>
+        <v>2278</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95484,16 +95484,16 @@
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N1189" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="O1189" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="P1189" t="n">
-        <v>3750</v>
+        <v>2090</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95506,7 +95506,7 @@
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="T1189" t="n">
         <v>18</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -95560,33 +95560,33 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1190" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="O1190" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="P1190" t="n">
-        <v>22000</v>
+        <v>5750</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>1222</v>
+        <v>319</v>
       </c>
       <c r="T1190" t="n">
         <v>18</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -95640,20 +95640,20 @@
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N1191" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="O1191" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1191" t="n">
-        <v>19583</v>
+        <v>5750</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95662,11 +95662,11 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>1088</v>
+        <v>319</v>
       </c>
       <c r="T1191" t="n">
         <v>18</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -95720,20 +95720,20 @@
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1192" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O1192" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P1192" t="n">
-        <v>17533</v>
+        <v>4750</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95742,11 +95742,11 @@
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>974</v>
+        <v>264</v>
       </c>
       <c r="T1192" t="n">
         <v>18</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -95800,20 +95800,20 @@
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N1193" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O1193" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P1193" t="n">
-        <v>10514</v>
+        <v>4750</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95822,11 +95822,11 @@
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>584</v>
+        <v>264</v>
       </c>
       <c r="T1193" t="n">
         <v>18</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -95880,33 +95880,33 @@
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Calibre 140</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N1194" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1194" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1194" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1194" t="n">
         <v>18</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -95960,33 +95960,33 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N1195" t="n">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="O1195" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="P1195" t="n">
-        <v>25000</v>
+        <v>3750</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos importada</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>1389</v>
+        <v>208</v>
       </c>
       <c r="T1195" t="n">
         <v>18</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -96040,33 +96040,33 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="N1196" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O1196" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P1196" t="n">
-        <v>14517</v>
+        <v>22000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>806</v>
+        <v>1222</v>
       </c>
       <c r="T1196" t="n">
         <v>18</v>
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -96120,20 +96120,20 @@
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>530</v>
+        <v>240</v>
       </c>
       <c r="N1197" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O1197" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P1197" t="n">
-        <v>12585</v>
+        <v>19583</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96142,11 +96142,11 @@
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>699</v>
+        <v>1088</v>
       </c>
       <c r="T1197" t="n">
         <v>18</v>
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="N1198" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O1198" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P1198" t="n">
-        <v>7524</v>
+        <v>17533</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>418</v>
+        <v>974</v>
       </c>
       <c r="T1198" t="n">
         <v>18</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -96280,20 +96280,20 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="N1199" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O1199" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P1199" t="n">
-        <v>17474</v>
+        <v>10514</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>971</v>
+        <v>584</v>
       </c>
       <c r="T1199" t="n">
         <v>18</v>
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -96360,33 +96360,33 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 140</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N1200" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O1200" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P1200" t="n">
-        <v>18571</v>
+        <v>25000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>1032</v>
+        <v>1389</v>
       </c>
       <c r="T1200" t="n">
         <v>18</v>
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -96440,33 +96440,33 @@
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="N1201" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="O1201" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P1201" t="n">
-        <v>14444</v>
+        <v>25000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos importada</t>
         </is>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>802</v>
+        <v>1389</v>
       </c>
       <c r="T1201" t="n">
         <v>18</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96520,20 +96520,20 @@
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="N1202" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1202" t="n">
         <v>15000</v>
       </c>
-      <c r="O1202" t="n">
-        <v>16000</v>
-      </c>
       <c r="P1202" t="n">
-        <v>15440</v>
+        <v>14517</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96542,11 +96542,11 @@
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>858</v>
+        <v>806</v>
       </c>
       <c r="T1202" t="n">
         <v>18</v>
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96600,20 +96600,20 @@
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="N1203" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1203" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1203" t="n">
-        <v>10556</v>
+        <v>12585</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96622,11 +96622,11 @@
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="T1203" t="n">
         <v>18</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96680,20 +96680,20 @@
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N1204" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O1204" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P1204" t="n">
-        <v>12545</v>
+        <v>7524</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96702,11 +96702,11 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>697</v>
+        <v>418</v>
       </c>
       <c r="T1204" t="n">
         <v>18</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -96764,16 +96764,16 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>540</v>
+        <v>380</v>
       </c>
       <c r="N1205" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="O1205" t="n">
-        <v>4200</v>
+        <v>18000</v>
       </c>
       <c r="P1205" t="n">
-        <v>4104</v>
+        <v>17474</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96786,7 +96786,7 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>228</v>
+        <v>971</v>
       </c>
       <c r="T1205" t="n">
         <v>18</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -96840,20 +96840,20 @@
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="N1206" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O1206" t="n">
-        <v>4200</v>
+        <v>19000</v>
       </c>
       <c r="P1206" t="n">
-        <v>4086</v>
+        <v>18571</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
@@ -96862,11 +96862,11 @@
       </c>
       <c r="R1206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>227</v>
+        <v>1032</v>
       </c>
       <c r="T1206" t="n">
         <v>18</v>
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -96920,20 +96920,20 @@
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="N1207" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O1207" t="n">
-        <v>4200</v>
+        <v>15000</v>
       </c>
       <c r="P1207" t="n">
-        <v>4079</v>
+        <v>14444</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
@@ -96942,11 +96942,11 @@
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>227</v>
+        <v>802</v>
       </c>
       <c r="T1207" t="n">
         <v>18</v>
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -97000,20 +97000,20 @@
       </c>
       <c r="L1208" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="N1208" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="O1208" t="n">
-        <v>3200</v>
+        <v>16000</v>
       </c>
       <c r="P1208" t="n">
-        <v>3094</v>
+        <v>15440</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97022,11 +97022,11 @@
       </c>
       <c r="R1208" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>172</v>
+        <v>858</v>
       </c>
       <c r="T1208" t="n">
         <v>18</v>
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -97080,20 +97080,20 @@
       </c>
       <c r="L1209" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>640</v>
+        <v>360</v>
       </c>
       <c r="N1209" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O1209" t="n">
-        <v>3200</v>
+        <v>11000</v>
       </c>
       <c r="P1209" t="n">
-        <v>3112</v>
+        <v>10556</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
@@ -97102,11 +97102,11 @@
       </c>
       <c r="R1209" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>173</v>
+        <v>586</v>
       </c>
       <c r="T1209" t="n">
         <v>18</v>
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -97160,20 +97160,20 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>520</v>
+        <v>220</v>
       </c>
       <c r="N1210" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1210" t="n">
-        <v>3200</v>
+        <v>13000</v>
       </c>
       <c r="P1210" t="n">
-        <v>3092</v>
+        <v>12545</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
@@ -97182,11 +97182,11 @@
       </c>
       <c r="R1210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>172</v>
+        <v>697</v>
       </c>
       <c r="T1210" t="n">
         <v>18</v>
@@ -97240,20 +97240,20 @@
       </c>
       <c r="L1211" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="N1211" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1211" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1211" t="n">
-        <v>2054</v>
+        <v>4104</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97266,7 +97266,7 @@
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="T1211" t="n">
         <v>18</v>
@@ -97320,20 +97320,20 @@
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1212" t="n">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="N1212" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="O1212" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="P1212" t="n">
-        <v>1909</v>
+        <v>4086</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
@@ -97346,7 +97346,7 @@
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="T1212" t="n">
         <v>18</v>
@@ -97400,20 +97400,20 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1213" t="n">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="N1213" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1213" t="n">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="P1213" t="n">
-        <v>2044</v>
+        <v>4079</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
@@ -97426,7 +97426,7 @@
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="T1213" t="n">
         <v>18</v>
@@ -97447,7 +97447,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -97480,20 +97480,20 @@
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>170</v>
+        <v>530</v>
       </c>
       <c r="N1214" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1214" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1214" t="n">
-        <v>15000</v>
+        <v>3094</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
@@ -97502,11 +97502,11 @@
       </c>
       <c r="R1214" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>833</v>
+        <v>172</v>
       </c>
       <c r="T1214" t="n">
         <v>18</v>
@@ -97527,7 +97527,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -97560,20 +97560,20 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1215" t="n">
-        <v>140</v>
+        <v>640</v>
       </c>
       <c r="N1215" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1215" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P1215" t="n">
-        <v>15000</v>
+        <v>3112</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
@@ -97586,7 +97586,7 @@
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>833</v>
+        <v>173</v>
       </c>
       <c r="T1215" t="n">
         <v>18</v>
@@ -97607,7 +97607,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -97640,20 +97640,20 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1216" t="n">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="N1216" t="n">
-        <v>16000</v>
+        <v>3000</v>
       </c>
       <c r="O1216" t="n">
-        <v>16000</v>
+        <v>3200</v>
       </c>
       <c r="P1216" t="n">
-        <v>16000</v>
+        <v>3092</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
@@ -97662,11 +97662,11 @@
       </c>
       <c r="R1216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>889</v>
+        <v>172</v>
       </c>
       <c r="T1216" t="n">
         <v>18</v>
@@ -97687,7 +97687,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -97720,20 +97720,20 @@
       </c>
       <c r="L1217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1217" t="n">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="N1217" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O1217" t="n">
-        <v>15000</v>
+        <v>2100</v>
       </c>
       <c r="P1217" t="n">
-        <v>15000</v>
+        <v>2054</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
@@ -97742,11 +97742,11 @@
       </c>
       <c r="R1217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>833</v>
+        <v>114</v>
       </c>
       <c r="T1217" t="n">
         <v>18</v>
@@ -97767,7 +97767,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -97800,20 +97800,20 @@
       </c>
       <c r="L1218" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1218" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N1218" t="n">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="O1218" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="P1218" t="n">
-        <v>13000</v>
+        <v>1909</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
@@ -97822,11 +97822,11 @@
       </c>
       <c r="R1218" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>722</v>
+        <v>106</v>
       </c>
       <c r="T1218" t="n">
         <v>18</v>
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -97880,20 +97880,20 @@
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1219" t="n">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="N1219" t="n">
-        <v>13000</v>
+        <v>2000</v>
       </c>
       <c r="O1219" t="n">
-        <v>13000</v>
+        <v>2100</v>
       </c>
       <c r="P1219" t="n">
-        <v>13000</v>
+        <v>2044</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
@@ -97902,11 +97902,11 @@
       </c>
       <c r="R1219" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>722</v>
+        <v>114</v>
       </c>
       <c r="T1219" t="n">
         <v>18</v>
@@ -97960,20 +97960,20 @@
       </c>
       <c r="L1220" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N1220" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O1220" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P1220" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q1220" t="inlineStr">
         <is>
@@ -97982,11 +97982,11 @@
       </c>
       <c r="R1220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1220" t="n">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="T1220" t="n">
         <v>18</v>
@@ -98040,20 +98040,20 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1221" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N1221" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O1221" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1221" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q1221" t="inlineStr">
         <is>
@@ -98062,11 +98062,11 @@
       </c>
       <c r="R1221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1221" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T1221" t="n">
         <v>18</v>
@@ -98120,20 +98120,20 @@
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1222" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N1222" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O1222" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P1222" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q1222" t="inlineStr">
         <is>
@@ -98142,11 +98142,11 @@
       </c>
       <c r="R1222" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1222" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="T1222" t="n">
         <v>18</v>
@@ -98200,20 +98200,20 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1223" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N1223" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1223" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1223" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1223" t="inlineStr">
         <is>
@@ -98222,11 +98222,11 @@
       </c>
       <c r="R1223" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1223" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="T1223" t="n">
         <v>18</v>
@@ -98280,20 +98280,20 @@
       </c>
       <c r="L1224" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1224" t="n">
         <v>150</v>
       </c>
       <c r="N1224" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1224" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1224" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1224" t="inlineStr">
         <is>
@@ -98302,11 +98302,11 @@
       </c>
       <c r="R1224" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1224" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1224" t="n">
         <v>18</v>
@@ -98360,20 +98360,20 @@
       </c>
       <c r="L1225" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1225" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N1225" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O1225" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P1225" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q1225" t="inlineStr">
         <is>
@@ -98382,11 +98382,11 @@
       </c>
       <c r="R1225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1225" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T1225" t="n">
         <v>18</v>
@@ -98407,7 +98407,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -98440,20 +98440,20 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1226" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="N1226" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O1226" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P1226" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q1226" t="inlineStr">
         <is>
@@ -98466,7 +98466,7 @@
         </is>
       </c>
       <c r="S1226" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T1226" t="n">
         <v>18</v>
@@ -98487,7 +98487,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -98524,16 +98524,16 @@
         </is>
       </c>
       <c r="M1227" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N1227" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O1227" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P1227" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q1227" t="inlineStr">
         <is>
@@ -98542,11 +98542,11 @@
       </c>
       <c r="R1227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1227" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T1227" t="n">
         <v>18</v>
@@ -98567,7 +98567,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -98600,20 +98600,20 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1228" t="n">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="N1228" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O1228" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P1228" t="n">
-        <v>5731</v>
+        <v>10000</v>
       </c>
       <c r="Q1228" t="inlineStr">
         <is>
@@ -98622,11 +98622,11 @@
       </c>
       <c r="R1228" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1228" t="n">
-        <v>318</v>
+        <v>556</v>
       </c>
       <c r="T1228" t="n">
         <v>18</v>
@@ -98647,7 +98647,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -98680,20 +98680,20 @@
       </c>
       <c r="L1229" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1229" t="n">
-        <v>640</v>
+        <v>150</v>
       </c>
       <c r="N1229" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O1229" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1229" t="n">
-        <v>4258</v>
+        <v>10000</v>
       </c>
       <c r="Q1229" t="inlineStr">
         <is>
@@ -98702,11 +98702,11 @@
       </c>
       <c r="R1229" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1229" t="n">
-        <v>237</v>
+        <v>556</v>
       </c>
       <c r="T1229" t="n">
         <v>18</v>
@@ -98727,68 +98727,548 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1230" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1230" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1230" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1230" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1230" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1230" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1230" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1230" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1231" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1231" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1231" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1231" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>3a plateado</t>
+        </is>
+      </c>
+      <c r="M1231" t="n">
+        <v>80</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1231" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1231" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1231" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1231" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1232" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1232" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1232" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1232" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1232" t="n">
+        <v>60</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1232" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1232" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1232" t="n">
+        <v>611</v>
+      </c>
+      <c r="T1232" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1233" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1233" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1233" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1233" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1233" t="n">
+        <v>45</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1233" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1233" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1233" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1233" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1234" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1230" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1230" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1230" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1230" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1230" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1230" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1230" t="inlineStr">
+      <c r="E1234" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1234" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1234" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1234" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1234" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M1234" t="n">
+        <v>650</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>5500</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>5731</v>
+      </c>
+      <c r="Q1234" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1234" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1234" t="n">
+        <v>318</v>
+      </c>
+      <c r="T1234" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1235" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1235" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1235" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1235" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1235" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1235" t="n">
+        <v>640</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>4258</v>
+      </c>
+      <c r="Q1235" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1235" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1235" t="n">
+        <v>237</v>
+      </c>
+      <c r="T1235" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1236" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1236" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1236" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1236" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1236" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1236" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1230" t="n">
+      <c r="M1236" t="n">
         <v>580</v>
       </c>
-      <c r="N1230" t="n">
+      <c r="N1236" t="n">
         <v>2500</v>
       </c>
-      <c r="O1230" t="n">
+      <c r="O1236" t="n">
         <v>3000</v>
       </c>
-      <c r="P1230" t="n">
+      <c r="P1236" t="n">
         <v>2759</v>
       </c>
-      <c r="Q1230" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1230" t="inlineStr">
+      <c r="Q1236" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1236" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S1230" t="n">
+      <c r="S1236" t="n">
         <v>153</v>
       </c>
-      <c r="T1230" t="n">
+      <c r="T1236" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Central Mapocho de Santiago - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1246"/>
+  <dimension ref="A1:T1251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -87715,41 +87715,41 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N1092" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O1092" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P1092" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>944</v>
+        <v>1042</v>
       </c>
       <c r="T1092" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -87800,20 +87800,20 @@
       </c>
       <c r="L1093" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>380</v>
+        <v>470</v>
       </c>
       <c r="N1093" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="O1093" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P1093" t="n">
-        <v>19526</v>
+        <v>6734</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>1085</v>
+        <v>374</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -87884,16 +87884,16 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N1094" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O1094" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="P1094" t="n">
-        <v>15000</v>
+        <v>5200</v>
       </c>
       <c r="Q1094" t="inlineStr">
         <is>
@@ -87906,7 +87906,7 @@
         </is>
       </c>
       <c r="S1094" t="n">
-        <v>833</v>
+        <v>289</v>
       </c>
       <c r="T1094" t="n">
         <v>18</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -87960,20 +87960,20 @@
       </c>
       <c r="L1095" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="N1095" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="O1095" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="P1095" t="n">
-        <v>17667</v>
+        <v>4273</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>982</v>
+        <v>237</v>
       </c>
       <c r="T1095" t="n">
         <v>18</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -88035,41 +88035,41 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N1096" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O1096" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P1096" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>667</v>
+        <v>917</v>
       </c>
       <c r="T1096" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1097">
@@ -88120,20 +88120,20 @@
       </c>
       <c r="L1097" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N1097" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1097" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P1097" t="n">
-        <v>12467</v>
+        <v>17000</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
@@ -88142,11 +88142,11 @@
       </c>
       <c r="R1097" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>693</v>
+        <v>944</v>
       </c>
       <c r="T1097" t="n">
         <v>18</v>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88200,20 +88200,20 @@
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="N1098" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="O1098" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P1098" t="n">
-        <v>5731</v>
+        <v>19526</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
@@ -88222,11 +88222,11 @@
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>318</v>
+        <v>1085</v>
       </c>
       <c r="T1098" t="n">
         <v>18</v>
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88284,16 +88284,16 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>640</v>
+        <v>120</v>
       </c>
       <c r="N1099" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O1099" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="P1099" t="n">
-        <v>4258</v>
+        <v>15000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
@@ -88306,7 +88306,7 @@
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>237</v>
+        <v>833</v>
       </c>
       <c r="T1099" t="n">
         <v>18</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88360,20 +88360,20 @@
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="N1100" t="n">
-        <v>2500</v>
+        <v>17000</v>
       </c>
       <c r="O1100" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="P1100" t="n">
-        <v>2759</v>
+        <v>17667</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
@@ -88382,11 +88382,11 @@
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>153</v>
+        <v>982</v>
       </c>
       <c r="T1100" t="n">
         <v>18</v>
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -88440,24 +88440,24 @@
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N1101" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O1101" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P1101" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
@@ -88466,10 +88466,10 @@
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>1125</v>
+        <v>667</v>
       </c>
       <c r="T1101" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -88520,36 +88520,36 @@
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N1102" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1102" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P1102" t="n">
-        <v>14000</v>
+        <v>12467</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>875</v>
+        <v>693</v>
       </c>
       <c r="T1102" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1103">
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -88600,24 +88600,24 @@
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>85</v>
+        <v>650</v>
       </c>
       <c r="N1103" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="O1103" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P1103" t="n">
-        <v>10000</v>
+        <v>5731</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
@@ -88626,10 +88626,10 @@
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>625</v>
+        <v>318</v>
       </c>
       <c r="T1103" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -88675,41 +88675,41 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>20</v>
+        <v>640</v>
       </c>
       <c r="N1104" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="O1104" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="P1104" t="n">
-        <v>24000</v>
+        <v>4258</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>1000</v>
+        <v>237</v>
       </c>
       <c r="T1104" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1105">
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -88760,20 +88760,20 @@
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1105" t="n">
-        <v>45</v>
+        <v>580</v>
       </c>
       <c r="N1105" t="n">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="O1105" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P1105" t="n">
-        <v>15000</v>
+        <v>2759</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88782,11 +88782,11 @@
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>833</v>
+        <v>153</v>
       </c>
       <c r="T1105" t="n">
         <v>18</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -88840,36 +88840,36 @@
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1106" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O1106" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P1106" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>722</v>
+        <v>1125</v>
       </c>
       <c r="T1106" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1107">
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -88920,36 +88920,36 @@
       </c>
       <c r="L1107" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N1107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1107" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>556</v>
+        <v>875</v>
       </c>
       <c r="T1107" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1108">
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -88995,41 +88995,41 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="N1108" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O1108" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1108" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T1108" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1109">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -89075,41 +89075,41 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="N1109" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O1109" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="P1109" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="T1109" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -89160,20 +89160,20 @@
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="N1110" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O1110" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P1110" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
@@ -89182,11 +89182,11 @@
       </c>
       <c r="R1110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>472</v>
+        <v>833</v>
       </c>
       <c r="T1110" t="n">
         <v>18</v>
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -89240,20 +89240,20 @@
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1111" t="n">
         <v>80</v>
       </c>
       <c r="N1111" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O1111" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P1111" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
@@ -89262,11 +89262,11 @@
       </c>
       <c r="R1111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="T1111" t="n">
         <v>18</v>
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -89320,20 +89320,20 @@
       </c>
       <c r="L1112" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N1112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1112" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89342,11 +89342,11 @@
       </c>
       <c r="R1112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="T1112" t="n">
         <v>18</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -89395,41 +89395,41 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="N1113" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O1113" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P1113" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="T1113" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1114">
@@ -89480,20 +89480,20 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N1114" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O1114" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P1114" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
@@ -89502,11 +89502,11 @@
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="T1114" t="n">
         <v>18</v>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89564,16 +89564,16 @@
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1115" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O1115" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P1115" t="n">
-        <v>16600</v>
+        <v>8500</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89582,11 +89582,11 @@
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>922</v>
+        <v>472</v>
       </c>
       <c r="T1115" t="n">
         <v>18</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89640,20 +89640,20 @@
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N1116" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O1116" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P1116" t="n">
-        <v>19440</v>
+        <v>7000</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89662,11 +89662,11 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>1080</v>
+        <v>389</v>
       </c>
       <c r="T1116" t="n">
         <v>18</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89724,16 +89724,16 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="N1117" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O1117" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P1117" t="n">
-        <v>14556</v>
+        <v>7000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>809</v>
+        <v>389</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89800,20 +89800,20 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="N1118" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O1118" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="P1118" t="n">
-        <v>15412</v>
+        <v>6000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89822,11 +89822,11 @@
       </c>
       <c r="R1118" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>856</v>
+        <v>333</v>
       </c>
       <c r="T1118" t="n">
         <v>18</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89884,16 +89884,16 @@
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N1119" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O1119" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P1119" t="n">
-        <v>11667</v>
+        <v>6000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
@@ -89902,11 +89902,11 @@
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>648</v>
+        <v>333</v>
       </c>
       <c r="T1119" t="n">
         <v>18</v>
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89964,16 +89964,16 @@
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N1120" t="n">
-        <v>3700</v>
+        <v>16000</v>
       </c>
       <c r="O1120" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="P1120" t="n">
-        <v>3882</v>
+        <v>16600</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89982,11 +89982,11 @@
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>216</v>
+        <v>922</v>
       </c>
       <c r="T1120" t="n">
         <v>18</v>
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -90040,20 +90040,20 @@
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N1121" t="n">
-        <v>3700</v>
+        <v>19000</v>
       </c>
       <c r="O1121" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="P1121" t="n">
-        <v>3880</v>
+        <v>19440</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
@@ -90062,11 +90062,11 @@
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>216</v>
+        <v>1080</v>
       </c>
       <c r="T1121" t="n">
         <v>18</v>
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90124,16 +90124,16 @@
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="N1122" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="O1122" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P1122" t="n">
-        <v>2912</v>
+        <v>14556</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90142,11 +90142,11 @@
       </c>
       <c r="R1122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>162</v>
+        <v>809</v>
       </c>
       <c r="T1122" t="n">
         <v>18</v>
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90200,20 +90200,20 @@
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="N1123" t="n">
-        <v>2700</v>
+        <v>15000</v>
       </c>
       <c r="O1123" t="n">
-        <v>3000</v>
+        <v>16000</v>
       </c>
       <c r="P1123" t="n">
-        <v>2842</v>
+        <v>15412</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90222,11 +90222,11 @@
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>158</v>
+        <v>856</v>
       </c>
       <c r="T1123" t="n">
         <v>18</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90284,16 +90284,16 @@
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="N1124" t="n">
-        <v>1700</v>
+        <v>11000</v>
       </c>
       <c r="O1124" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="P1124" t="n">
-        <v>1871</v>
+        <v>11667</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90302,11 +90302,11 @@
       </c>
       <c r="R1124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>104</v>
+        <v>648</v>
       </c>
       <c r="T1124" t="n">
         <v>18</v>
@@ -90360,20 +90360,20 @@
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="N1125" t="n">
-        <v>1700</v>
+        <v>3700</v>
       </c>
       <c r="O1125" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P1125" t="n">
-        <v>1861</v>
+        <v>3882</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
@@ -90382,11 +90382,11 @@
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="T1125" t="n">
         <v>18</v>
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90444,16 +90444,16 @@
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>680</v>
+        <v>300</v>
       </c>
       <c r="N1126" t="n">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="O1126" t="n">
         <v>4000</v>
       </c>
       <c r="P1126" t="n">
-        <v>3779</v>
+        <v>3880</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
@@ -90462,11 +90462,11 @@
       </c>
       <c r="R1126" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="T1126" t="n">
         <v>18</v>
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90520,20 +90520,20 @@
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="N1127" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="O1127" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P1127" t="n">
-        <v>3795</v>
+        <v>2912</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
@@ -90542,11 +90542,11 @@
       </c>
       <c r="R1127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="T1127" t="n">
         <v>18</v>
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90604,16 +90604,16 @@
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>520</v>
+        <v>380</v>
       </c>
       <c r="N1128" t="n">
+        <v>2700</v>
+      </c>
+      <c r="O1128" t="n">
         <v>3000</v>
       </c>
-      <c r="O1128" t="n">
-        <v>3200</v>
-      </c>
       <c r="P1128" t="n">
-        <v>3104</v>
+        <v>2842</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="T1128" t="n">
         <v>18</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90680,20 +90680,20 @@
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="N1129" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="O1129" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P1129" t="n">
-        <v>2894</v>
+        <v>1871</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90702,11 +90702,11 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="T1129" t="n">
         <v>18</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90764,16 +90764,16 @@
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="N1130" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="O1130" t="n">
         <v>2000</v>
       </c>
       <c r="P1130" t="n">
-        <v>1914</v>
+        <v>1861</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T1130" t="n">
         <v>18</v>
@@ -90840,20 +90840,20 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>410</v>
+        <v>680</v>
       </c>
       <c r="N1131" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="O1131" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P1131" t="n">
-        <v>1917</v>
+        <v>3779</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="T1131" t="n">
         <v>18</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90924,16 +90924,16 @@
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N1132" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O1132" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P1132" t="n">
-        <v>14550</v>
+        <v>3795</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
@@ -90942,11 +90942,11 @@
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>808</v>
+        <v>211</v>
       </c>
       <c r="T1132" t="n">
         <v>18</v>
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -91004,16 +91004,16 @@
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>980</v>
+        <v>520</v>
       </c>
       <c r="N1133" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="O1133" t="n">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="P1133" t="n">
-        <v>11510</v>
+        <v>3104</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91022,11 +91022,11 @@
       </c>
       <c r="R1133" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>639</v>
+        <v>172</v>
       </c>
       <c r="T1133" t="n">
         <v>18</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91080,20 +91080,20 @@
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="N1134" t="n">
-        <v>7000</v>
+        <v>2800</v>
       </c>
       <c r="O1134" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="P1134" t="n">
-        <v>7244</v>
+        <v>2894</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91102,11 +91102,11 @@
       </c>
       <c r="R1134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>402</v>
+        <v>161</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91160,20 +91160,20 @@
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="N1135" t="n">
-        <v>11000</v>
+        <v>1800</v>
       </c>
       <c r="O1135" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="P1135" t="n">
-        <v>11571</v>
+        <v>1914</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
@@ -91182,11 +91182,11 @@
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>643</v>
+        <v>106</v>
       </c>
       <c r="T1135" t="n">
         <v>18</v>
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91240,20 +91240,20 @@
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="N1136" t="n">
-        <v>8000</v>
+        <v>1800</v>
       </c>
       <c r="O1136" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="P1136" t="n">
-        <v>8551</v>
+        <v>1917</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91262,11 +91262,11 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="T1136" t="n">
         <v>18</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91320,20 +91320,20 @@
       </c>
       <c r="L1137" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="N1137" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="O1137" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P1137" t="n">
-        <v>5549</v>
+        <v>14550</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91346,7 +91346,7 @@
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>308</v>
+        <v>808</v>
       </c>
       <c r="T1137" t="n">
         <v>18</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91400,20 +91400,20 @@
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>380</v>
+        <v>980</v>
       </c>
       <c r="N1138" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O1138" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P1138" t="n">
-        <v>14474</v>
+        <v>11510</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91422,11 +91422,11 @@
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>804</v>
+        <v>639</v>
       </c>
       <c r="T1138" t="n">
         <v>18</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91480,20 +91480,20 @@
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="N1139" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O1139" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P1139" t="n">
-        <v>12519</v>
+        <v>7244</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91502,11 +91502,11 @@
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>696</v>
+        <v>402</v>
       </c>
       <c r="T1139" t="n">
         <v>18</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91560,20 +91560,20 @@
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="N1140" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O1140" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1140" t="n">
-        <v>7545</v>
+        <v>11571</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
@@ -91582,11 +91582,11 @@
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>419</v>
+        <v>643</v>
       </c>
       <c r="T1140" t="n">
         <v>18</v>
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91640,20 +91640,20 @@
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="N1141" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O1141" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="P1141" t="n">
-        <v>5500</v>
+        <v>8551</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
@@ -91666,7 +91666,7 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>306</v>
+        <v>475</v>
       </c>
       <c r="T1141" t="n">
         <v>18</v>
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91720,24 +91720,24 @@
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="N1142" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O1142" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P1142" t="n">
-        <v>8000</v>
+        <v>5549</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
@@ -91746,7 +91746,7 @@
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="T1142" t="n">
         <v>18</v>
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91800,20 +91800,20 @@
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N1143" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O1143" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P1143" t="n">
-        <v>6000</v>
+        <v>14474</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91822,11 +91822,11 @@
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>333</v>
+        <v>804</v>
       </c>
       <c r="T1143" t="n">
         <v>18</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91884,16 +91884,16 @@
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="N1144" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O1144" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="P1144" t="n">
-        <v>4500</v>
+        <v>12519</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91902,11 +91902,11 @@
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>250</v>
+        <v>696</v>
       </c>
       <c r="T1144" t="n">
         <v>18</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91964,16 +91964,16 @@
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="N1145" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="O1145" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P1145" t="n">
-        <v>3000</v>
+        <v>7545</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
@@ -91982,11 +91982,11 @@
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>167</v>
+        <v>419</v>
       </c>
       <c r="T1145" t="n">
         <v>18</v>
@@ -92035,41 +92035,41 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>25</v>
+        <v>410</v>
       </c>
       <c r="N1146" t="n">
-        <v>62000</v>
+        <v>5500</v>
       </c>
       <c r="O1146" t="n">
-        <v>62000</v>
+        <v>5500</v>
       </c>
       <c r="P1146" t="n">
-        <v>62000</v>
+        <v>5500</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>2583</v>
+        <v>306</v>
       </c>
       <c r="T1146" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92120,33 +92120,33 @@
       </c>
       <c r="L1147" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="N1147" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O1147" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P1147" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="T1147" t="n">
         <v>18</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92204,16 +92204,16 @@
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1148" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="O1148" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P1148" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
@@ -92222,11 +92222,11 @@
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>944</v>
+        <v>333</v>
       </c>
       <c r="T1148" t="n">
         <v>18</v>
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92280,20 +92280,20 @@
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="N1149" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="O1149" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="P1149" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
@@ -92302,11 +92302,11 @@
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>944</v>
+        <v>250</v>
       </c>
       <c r="T1149" t="n">
         <v>18</v>
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92360,20 +92360,20 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="N1150" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="O1150" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="P1150" t="n">
-        <v>13000</v>
+        <v>3000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
@@ -92382,11 +92382,11 @@
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>722</v>
+        <v>167</v>
       </c>
       <c r="T1150" t="n">
         <v>18</v>
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,41 +92435,41 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="N1151" t="n">
-        <v>14000</v>
+        <v>62000</v>
       </c>
       <c r="O1151" t="n">
-        <v>14000</v>
+        <v>62000</v>
       </c>
       <c r="P1151" t="n">
-        <v>14000</v>
+        <v>62000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>778</v>
+        <v>2583</v>
       </c>
       <c r="T1151" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1152">
@@ -92520,20 +92520,20 @@
       </c>
       <c r="L1152" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O1152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92542,11 +92542,11 @@
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T1152" t="n">
         <v>18</v>
@@ -92600,20 +92600,20 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N1153" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O1153" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P1153" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="T1153" t="n">
         <v>18</v>
@@ -92680,20 +92680,20 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1154" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1154" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1154" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92702,11 +92702,11 @@
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T1154" t="n">
         <v>18</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92760,33 +92760,33 @@
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="N1155" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O1155" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P1155" t="n">
-        <v>17545</v>
+        <v>13000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>975</v>
+        <v>722</v>
       </c>
       <c r="T1155" t="n">
         <v>18</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92840,20 +92840,20 @@
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N1156" t="n">
         <v>14000</v>
       </c>
       <c r="O1156" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P1156" t="n">
-        <v>14545</v>
+        <v>14000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="T1156" t="n">
         <v>18</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92920,20 +92920,20 @@
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="N1157" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O1157" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P1157" t="n">
-        <v>12452</v>
+        <v>15000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
@@ -92942,11 +92942,11 @@
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>692</v>
+        <v>833</v>
       </c>
       <c r="T1157" t="n">
         <v>18</v>
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -93004,16 +93004,16 @@
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>440</v>
+        <v>80</v>
       </c>
       <c r="N1158" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1158" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1158" t="n">
-        <v>7636</v>
+        <v>10000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93022,11 +93022,11 @@
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>424</v>
+        <v>556</v>
       </c>
       <c r="T1158" t="n">
         <v>18</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="N1159" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O1159" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P1159" t="n">
-        <v>6741</v>
+        <v>12000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>374</v>
+        <v>667</v>
       </c>
       <c r="T1159" t="n">
         <v>18</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93164,29 +93164,29 @@
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="N1160" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="O1160" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P1160" t="n">
-        <v>6000</v>
+        <v>17545</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>333</v>
+        <v>975</v>
       </c>
       <c r="T1160" t="n">
         <v>18</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93240,20 +93240,20 @@
       </c>
       <c r="L1161" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="N1161" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O1161" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P1161" t="n">
-        <v>4722</v>
+        <v>14545</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93262,11 +93262,11 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>262</v>
+        <v>808</v>
       </c>
       <c r="T1161" t="n">
         <v>18</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93324,16 +93324,16 @@
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>410</v>
+        <v>620</v>
       </c>
       <c r="N1162" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O1162" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P1162" t="n">
-        <v>5000</v>
+        <v>12452</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93342,11 +93342,11 @@
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>278</v>
+        <v>692</v>
       </c>
       <c r="T1162" t="n">
         <v>18</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93404,16 +93404,16 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="N1163" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O1163" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P1163" t="n">
-        <v>3766</v>
+        <v>7636</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93422,11 +93422,11 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>209</v>
+        <v>424</v>
       </c>
       <c r="T1163" t="n">
         <v>18</v>
@@ -93480,20 +93480,20 @@
       </c>
       <c r="L1164" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="N1164" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="O1164" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1164" t="n">
-        <v>4000</v>
+        <v>6741</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>222</v>
+        <v>374</v>
       </c>
       <c r="T1164" t="n">
         <v>18</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93564,16 +93564,16 @@
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="N1165" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O1165" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P1165" t="n">
-        <v>9283</v>
+        <v>6000</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93586,7 +93586,7 @@
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="T1165" t="n">
         <v>18</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93644,16 +93644,16 @@
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>630</v>
+        <v>450</v>
       </c>
       <c r="N1166" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="O1166" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P1166" t="n">
-        <v>7222</v>
+        <v>4722</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93662,11 +93662,11 @@
       </c>
       <c r="R1166" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>401</v>
+        <v>262</v>
       </c>
       <c r="T1166" t="n">
         <v>18</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93720,20 +93720,20 @@
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>540</v>
+        <v>410</v>
       </c>
       <c r="N1167" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="O1167" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P1167" t="n">
-        <v>5778</v>
+        <v>5000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
@@ -93746,7 +93746,7 @@
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="T1167" t="n">
         <v>18</v>
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93800,20 +93800,20 @@
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="N1168" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O1168" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P1168" t="n">
-        <v>4500</v>
+        <v>3766</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="T1168" t="n">
         <v>18</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93880,20 +93880,20 @@
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N1169" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="O1169" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="P1169" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="T1169" t="n">
         <v>18</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93960,20 +93960,20 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="N1170" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="O1170" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="P1170" t="n">
-        <v>2500</v>
+        <v>9283</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
@@ -93982,11 +93982,11 @@
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>139</v>
+        <v>516</v>
       </c>
       <c r="T1170" t="n">
         <v>18</v>
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94040,33 +94040,33 @@
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="N1171" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O1171" t="n">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="P1171" t="n">
-        <v>8300</v>
+        <v>7222</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="T1171" t="n">
         <v>18</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94120,20 +94120,20 @@
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="N1172" t="n">
         <v>5500</v>
       </c>
       <c r="O1172" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="P1172" t="n">
-        <v>6024</v>
+        <v>5778</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="T1172" t="n">
         <v>18</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94200,7 +94200,7 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1173" t="n">
@@ -94222,7 +94222,7 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1173" t="n">
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94280,20 +94280,20 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="N1174" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O1174" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="P1174" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
@@ -94302,11 +94302,11 @@
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>889</v>
+        <v>194</v>
       </c>
       <c r="T1174" t="n">
         <v>18</v>
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94360,20 +94360,20 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N1175" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="O1175" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="P1175" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
@@ -94382,11 +94382,11 @@
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>889</v>
+        <v>139</v>
       </c>
       <c r="T1175" t="n">
         <v>18</v>
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94440,33 +94440,33 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="N1176" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O1176" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="P1176" t="n">
-        <v>17000</v>
+        <v>8300</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>944</v>
+        <v>461</v>
       </c>
       <c r="T1176" t="n">
         <v>18</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94520,20 +94520,20 @@
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>150</v>
+        <v>630</v>
       </c>
       <c r="N1177" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="O1177" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P1177" t="n">
-        <v>14000</v>
+        <v>6024</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>778</v>
+        <v>335</v>
       </c>
       <c r="T1177" t="n">
         <v>18</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94600,20 +94600,20 @@
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N1178" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O1178" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="P1178" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94626,7 +94626,7 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>778</v>
+        <v>250</v>
       </c>
       <c r="T1178" t="n">
         <v>18</v>
@@ -94680,20 +94680,20 @@
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N1179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O1179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P1179" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94702,11 +94702,11 @@
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>833</v>
+        <v>889</v>
       </c>
       <c r="T1179" t="n">
         <v>18</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N1180" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O1180" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1180" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94840,20 +94840,20 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1181" t="n">
         <v>80</v>
       </c>
       <c r="N1181" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O1181" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1181" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94866,7 +94866,7 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="T1181" t="n">
         <v>18</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94920,20 +94920,20 @@
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N1182" t="n">
-        <v>4500</v>
+        <v>14000</v>
       </c>
       <c r="O1182" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="P1182" t="n">
-        <v>4786</v>
+        <v>14000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>266</v>
+        <v>778</v>
       </c>
       <c r="T1182" t="n">
         <v>18</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="N1183" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O1183" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P1183" t="n">
-        <v>3225</v>
+        <v>14000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>179</v>
+        <v>778</v>
       </c>
       <c r="T1183" t="n">
         <v>18</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95080,20 +95080,20 @@
       </c>
       <c r="L1184" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="N1184" t="n">
-        <v>2300</v>
+        <v>15000</v>
       </c>
       <c r="O1184" t="n">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="P1184" t="n">
-        <v>2410</v>
+        <v>15000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
@@ -95102,11 +95102,11 @@
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>134</v>
+        <v>833</v>
       </c>
       <c r="T1184" t="n">
         <v>18</v>
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95160,20 +95160,20 @@
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="N1185" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O1185" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P1185" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T1185" t="n">
         <v>18</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95240,20 +95240,20 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N1186" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O1186" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P1186" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95262,11 +95262,11 @@
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="T1186" t="n">
         <v>18</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95320,20 +95320,20 @@
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N1187" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="O1187" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P1187" t="n">
-        <v>13000</v>
+        <v>4786</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95342,11 +95342,11 @@
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>722</v>
+        <v>266</v>
       </c>
       <c r="T1187" t="n">
         <v>18</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95404,16 +95404,16 @@
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N1188" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1188" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P1188" t="n">
-        <v>14000</v>
+        <v>3225</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>778</v>
+        <v>179</v>
       </c>
       <c r="T1188" t="n">
         <v>18</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95480,20 +95480,20 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="N1189" t="n">
-        <v>10000</v>
+        <v>2300</v>
       </c>
       <c r="O1189" t="n">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P1189" t="n">
-        <v>10000</v>
+        <v>2410</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95502,11 +95502,11 @@
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>556</v>
+        <v>134</v>
       </c>
       <c r="T1189" t="n">
         <v>18</v>
@@ -95560,20 +95560,20 @@
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="N1190" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O1190" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P1190" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
@@ -95582,11 +95582,11 @@
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="T1190" t="n">
         <v>18</v>
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -95640,20 +95640,20 @@
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="N1191" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="O1191" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="P1191" t="n">
-        <v>5719</v>
+        <v>17000</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95662,11 +95662,11 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>318</v>
+        <v>944</v>
       </c>
       <c r="T1191" t="n">
         <v>18</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -95724,16 +95724,16 @@
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="N1192" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="O1192" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="P1192" t="n">
-        <v>4767</v>
+        <v>13000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
@@ -95742,11 +95742,11 @@
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>265</v>
+        <v>722</v>
       </c>
       <c r="T1192" t="n">
         <v>18</v>
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -95800,20 +95800,20 @@
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="N1193" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O1193" t="n">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="P1193" t="n">
-        <v>3278</v>
+        <v>14000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95822,11 +95822,11 @@
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>182</v>
+        <v>778</v>
       </c>
       <c r="T1193" t="n">
         <v>18</v>
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -95880,20 +95880,20 @@
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N1194" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1194" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1194" t="n">
-        <v>19484</v>
+        <v>10000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95902,11 +95902,11 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>1082</v>
+        <v>556</v>
       </c>
       <c r="T1194" t="n">
         <v>18</v>
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E1195" t="n">
         <v>13</v>
@@ -95960,20 +95960,20 @@
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N1195" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O1195" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P1195" t="n">
-        <v>16529</v>
+        <v>12000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
@@ -95982,11 +95982,11 @@
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>918</v>
+        <v>667</v>
       </c>
       <c r="T1195" t="n">
         <v>18</v>
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1196" t="n">
         <v>13</v>
@@ -96040,20 +96040,20 @@
       </c>
       <c r="L1196" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="N1196" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O1196" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P1196" t="n">
-        <v>7278</v>
+        <v>5719</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
@@ -96066,7 +96066,7 @@
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="T1196" t="n">
         <v>18</v>
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1197" t="n">
         <v>13</v>
@@ -96115,41 +96115,41 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>De Pica</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="N1197" t="n">
-        <v>28000</v>
+        <v>4500</v>
       </c>
       <c r="O1197" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="P1197" t="n">
-        <v>28000</v>
+        <v>4767</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>1167</v>
+        <v>265</v>
       </c>
       <c r="T1197" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1198">
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -96200,20 +96200,20 @@
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="N1198" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O1198" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1198" t="n">
-        <v>12676</v>
+        <v>3278</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>704</v>
+        <v>182</v>
       </c>
       <c r="T1198" t="n">
         <v>18</v>
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -96280,20 +96280,20 @@
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="N1199" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O1199" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P1199" t="n">
-        <v>9611</v>
+        <v>19484</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>534</v>
+        <v>1082</v>
       </c>
       <c r="T1199" t="n">
         <v>18</v>
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -96360,20 +96360,20 @@
       </c>
       <c r="L1200" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="N1200" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="O1200" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P1200" t="n">
-        <v>6600</v>
+        <v>16529</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96382,11 +96382,11 @@
       </c>
       <c r="R1200" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>367</v>
+        <v>918</v>
       </c>
       <c r="T1200" t="n">
         <v>18</v>
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1201" t="n">
         <v>13</v>
@@ -96435,38 +96435,38 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Sutil De Gase</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="N1201" t="n">
-        <v>28000</v>
+        <v>7000</v>
       </c>
       <c r="O1201" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="P1201" t="n">
-        <v>28000</v>
+        <v>7278</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>1556</v>
+        <v>404</v>
       </c>
       <c r="T1201" t="n">
         <v>18</v>
@@ -96487,7 +96487,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -96524,16 +96524,16 @@
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N1202" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="O1202" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="P1202" t="n">
-        <v>35040</v>
+        <v>28000</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96546,7 +96546,7 @@
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>1460</v>
+        <v>1167</v>
       </c>
       <c r="T1202" t="n">
         <v>24</v>
@@ -96567,7 +96567,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -96604,16 +96604,16 @@
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="N1203" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O1203" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P1203" t="n">
-        <v>6000</v>
+        <v>12676</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
@@ -96622,11 +96622,11 @@
       </c>
       <c r="R1203" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>333</v>
+        <v>704</v>
       </c>
       <c r="T1203" t="n">
         <v>18</v>
@@ -96647,7 +96647,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -96684,16 +96684,16 @@
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="N1204" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O1204" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P1204" t="n">
-        <v>5000</v>
+        <v>9611</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
@@ -96702,11 +96702,11 @@
       </c>
       <c r="R1204" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>278</v>
+        <v>534</v>
       </c>
       <c r="T1204" t="n">
         <v>18</v>
@@ -96727,7 +96727,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1205" t="n">
         <v>13</v>
@@ -96764,16 +96764,16 @@
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="N1205" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1205" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1205" t="n">
-        <v>4000</v>
+        <v>6600</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96782,11 +96782,11 @@
       </c>
       <c r="R1205" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>222</v>
+        <v>367</v>
       </c>
       <c r="T1205" t="n">
         <v>18</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -96844,20 +96844,20 @@
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N1206" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="O1206" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="P1206" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
-          <t>$/caja 24 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1206" t="inlineStr">
@@ -96866,10 +96866,10 @@
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>1375</v>
+        <v>1556</v>
       </c>
       <c r="T1206" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1207">
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -96915,41 +96915,41 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>De Pica</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>410</v>
+        <v>25</v>
       </c>
       <c r="N1207" t="n">
-        <v>4000</v>
+        <v>34000</v>
       </c>
       <c r="O1207" t="n">
-        <v>4200</v>
+        <v>36000</v>
       </c>
       <c r="P1207" t="n">
-        <v>4107</v>
+        <v>35040</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>228</v>
+        <v>1460</v>
       </c>
       <c r="T1207" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1208">
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -97004,16 +97004,16 @@
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N1208" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1208" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="P1208" t="n">
-        <v>4110</v>
+        <v>6000</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97022,11 +97022,11 @@
       </c>
       <c r="R1208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="T1208" t="n">
         <v>18</v>
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -97084,16 +97084,16 @@
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>560</v>
+        <v>410</v>
       </c>
       <c r="N1209" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O1209" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P1209" t="n">
-        <v>3107</v>
+        <v>5000</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
@@ -97106,7 +97106,7 @@
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="T1209" t="n">
         <v>18</v>
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -97160,20 +97160,20 @@
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="N1210" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1210" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="P1210" t="n">
-        <v>3160</v>
+        <v>4000</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
@@ -97182,11 +97182,11 @@
       </c>
       <c r="R1210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="T1210" t="n">
         <v>18</v>
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44432</v>
+        <v>44515</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -97235,41 +97235,41 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Sutil De Gase</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>365</v>
+        <v>34</v>
       </c>
       <c r="N1211" t="n">
-        <v>2000</v>
+        <v>32000</v>
       </c>
       <c r="O1211" t="n">
-        <v>2200</v>
+        <v>34000</v>
       </c>
       <c r="P1211" t="n">
-        <v>2107</v>
+        <v>33000</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 24 kilos</t>
         </is>
       </c>
       <c r="R1211" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>117</v>
+        <v>1375</v>
       </c>
       <c r="T1211" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1212">
@@ -97320,20 +97320,20 @@
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1212" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="N1212" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1212" t="n">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="P1212" t="n">
-        <v>2092</v>
+        <v>4107</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
@@ -97342,11 +97342,11 @@
       </c>
       <c r="R1212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="T1212" t="n">
         <v>18</v>
@@ -97367,7 +97367,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -97400,20 +97400,20 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1213" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="N1213" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O1213" t="n">
-        <v>12500</v>
+        <v>4200</v>
       </c>
       <c r="P1213" t="n">
-        <v>12219</v>
+        <v>4110</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
@@ -97422,11 +97422,11 @@
       </c>
       <c r="R1213" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>679</v>
+        <v>228</v>
       </c>
       <c r="T1213" t="n">
         <v>18</v>
@@ -97447,7 +97447,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -97480,20 +97480,20 @@
       </c>
       <c r="L1214" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="N1214" t="n">
-        <v>9500</v>
+        <v>3000</v>
       </c>
       <c r="O1214" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="P1214" t="n">
-        <v>9793</v>
+        <v>3107</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
@@ -97502,11 +97502,11 @@
       </c>
       <c r="R1214" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>544</v>
+        <v>173</v>
       </c>
       <c r="T1214" t="n">
         <v>18</v>
@@ -97527,7 +97527,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -97560,20 +97560,20 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1215" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="N1215" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O1215" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="P1215" t="n">
-        <v>6242</v>
+        <v>3160</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
@@ -97582,11 +97582,11 @@
       </c>
       <c r="R1215" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="T1215" t="n">
         <v>18</v>
@@ -97607,7 +97607,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -97640,20 +97640,20 @@
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1216" t="n">
-        <v>250</v>
+        <v>365</v>
       </c>
       <c r="N1216" t="n">
-        <v>15000</v>
+        <v>2000</v>
       </c>
       <c r="O1216" t="n">
-        <v>16000</v>
+        <v>2200</v>
       </c>
       <c r="P1216" t="n">
-        <v>15600</v>
+        <v>2107</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
@@ -97666,7 +97666,7 @@
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>867</v>
+        <v>117</v>
       </c>
       <c r="T1216" t="n">
         <v>18</v>
@@ -97687,7 +97687,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -97720,20 +97720,20 @@
       </c>
       <c r="L1217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1217" t="n">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="N1217" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O1217" t="n">
-        <v>17000</v>
+        <v>2200</v>
       </c>
       <c r="P1217" t="n">
-        <v>16556</v>
+        <v>2092</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
@@ -97742,11 +97742,11 @@
       </c>
       <c r="R1217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>920</v>
+        <v>116</v>
       </c>
       <c r="T1217" t="n">
         <v>18</v>
@@ -97767,7 +97767,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -97800,20 +97800,20 @@
       </c>
       <c r="L1218" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1218" t="n">
         <v>320</v>
       </c>
       <c r="N1218" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O1218" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="P1218" t="n">
-        <v>9281</v>
+        <v>12219</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
@@ -97822,11 +97822,11 @@
       </c>
       <c r="R1218" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>516</v>
+        <v>679</v>
       </c>
       <c r="T1218" t="n">
         <v>18</v>
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -97884,7 +97884,7 @@
         </is>
       </c>
       <c r="M1219" t="n">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="N1219" t="n">
         <v>9500</v>
@@ -97893,7 +97893,7 @@
         <v>10000</v>
       </c>
       <c r="P1219" t="n">
-        <v>9744</v>
+        <v>9793</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
@@ -97902,11 +97902,11 @@
       </c>
       <c r="R1219" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="T1219" t="n">
         <v>18</v>
@@ -97927,7 +97927,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -97964,7 +97964,7 @@
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="N1220" t="n">
         <v>6000</v>
@@ -97973,7 +97973,7 @@
         <v>6500</v>
       </c>
       <c r="P1220" t="n">
-        <v>6210</v>
+        <v>6242</v>
       </c>
       <c r="Q1220" t="inlineStr">
         <is>
@@ -97982,11 +97982,11 @@
       </c>
       <c r="R1220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1220" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T1220" t="n">
         <v>18</v>
@@ -98007,7 +98007,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -98040,33 +98040,33 @@
       </c>
       <c r="L1221" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1221" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N1221" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O1221" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P1221" t="n">
-        <v>22000</v>
+        <v>15600</v>
       </c>
       <c r="Q1221" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1221" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1221" t="n">
-        <v>1222</v>
+        <v>867</v>
       </c>
       <c r="T1221" t="n">
         <v>18</v>
@@ -98087,7 +98087,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -98127,13 +98127,13 @@
         <v>450</v>
       </c>
       <c r="N1222" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="O1222" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P1222" t="n">
-        <v>19378</v>
+        <v>16556</v>
       </c>
       <c r="Q1222" t="inlineStr">
         <is>
@@ -98146,7 +98146,7 @@
         </is>
       </c>
       <c r="S1222" t="n">
-        <v>1077</v>
+        <v>920</v>
       </c>
       <c r="T1222" t="n">
         <v>18</v>
@@ -98167,7 +98167,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -98200,20 +98200,20 @@
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1223" t="n">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="N1223" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O1223" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="P1223" t="n">
-        <v>14524</v>
+        <v>9281</v>
       </c>
       <c r="Q1223" t="inlineStr">
         <is>
@@ -98222,11 +98222,11 @@
       </c>
       <c r="R1223" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1223" t="n">
-        <v>807</v>
+        <v>516</v>
       </c>
       <c r="T1223" t="n">
         <v>18</v>
@@ -98247,7 +98247,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -98280,11 +98280,11 @@
       </c>
       <c r="L1224" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1224" t="n">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="N1224" t="n">
         <v>9500</v>
@@ -98293,7 +98293,7 @@
         <v>10000</v>
       </c>
       <c r="P1224" t="n">
-        <v>9729</v>
+        <v>9744</v>
       </c>
       <c r="Q1224" t="inlineStr">
         <is>
@@ -98306,7 +98306,7 @@
         </is>
       </c>
       <c r="S1224" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T1224" t="n">
         <v>18</v>
@@ -98327,7 +98327,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -98360,33 +98360,33 @@
       </c>
       <c r="L1225" t="inlineStr">
         <is>
-          <t>Calibre 165</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1225" t="n">
-        <v>70</v>
+        <v>345</v>
       </c>
       <c r="N1225" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O1225" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P1225" t="n">
-        <v>18000</v>
+        <v>6210</v>
       </c>
       <c r="Q1225" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1225" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1225" t="n">
-        <v>1000</v>
+        <v>345</v>
       </c>
       <c r="T1225" t="n">
         <v>18</v>
@@ -98407,7 +98407,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -98440,33 +98440,33 @@
       </c>
       <c r="L1226" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1226" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="N1226" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="O1226" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P1226" t="n">
-        <v>14517</v>
+        <v>22000</v>
       </c>
       <c r="Q1226" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1226" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1226" t="n">
-        <v>806</v>
+        <v>1222</v>
       </c>
       <c r="T1226" t="n">
         <v>18</v>
@@ -98487,7 +98487,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -98520,20 +98520,20 @@
       </c>
       <c r="L1227" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1227" t="n">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="N1227" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O1227" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P1227" t="n">
-        <v>12585</v>
+        <v>19378</v>
       </c>
       <c r="Q1227" t="inlineStr">
         <is>
@@ -98542,11 +98542,11 @@
       </c>
       <c r="R1227" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1227" t="n">
-        <v>699</v>
+        <v>1077</v>
       </c>
       <c r="T1227" t="n">
         <v>18</v>
@@ -98567,7 +98567,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -98600,20 +98600,20 @@
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1228" t="n">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="N1228" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O1228" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P1228" t="n">
-        <v>7524</v>
+        <v>14524</v>
       </c>
       <c r="Q1228" t="inlineStr">
         <is>
@@ -98622,11 +98622,11 @@
       </c>
       <c r="R1228" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1228" t="n">
-        <v>418</v>
+        <v>807</v>
       </c>
       <c r="T1228" t="n">
         <v>18</v>
@@ -98647,7 +98647,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -98680,20 +98680,20 @@
       </c>
       <c r="L1229" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1229" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N1229" t="n">
-        <v>4000</v>
+        <v>9500</v>
       </c>
       <c r="O1229" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P1229" t="n">
-        <v>4200</v>
+        <v>9729</v>
       </c>
       <c r="Q1229" t="inlineStr">
         <is>
@@ -98702,11 +98702,11 @@
       </c>
       <c r="R1229" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1229" t="n">
-        <v>233</v>
+        <v>540</v>
       </c>
       <c r="T1229" t="n">
         <v>18</v>
@@ -98727,7 +98727,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -98760,33 +98760,33 @@
       </c>
       <c r="L1230" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>Calibre 165</t>
         </is>
       </c>
       <c r="M1230" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="N1230" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="O1230" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="P1230" t="n">
-        <v>4271</v>
+        <v>18000</v>
       </c>
       <c r="Q1230" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1230" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1230" t="n">
-        <v>237</v>
+        <v>1000</v>
       </c>
       <c r="T1230" t="n">
         <v>18</v>
@@ -98807,7 +98807,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -98840,20 +98840,20 @@
       </c>
       <c r="L1231" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1231" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="N1231" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="O1231" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="P1231" t="n">
-        <v>3241</v>
+        <v>14517</v>
       </c>
       <c r="Q1231" t="inlineStr">
         <is>
@@ -98862,11 +98862,11 @@
       </c>
       <c r="R1231" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1231" t="n">
-        <v>180</v>
+        <v>806</v>
       </c>
       <c r="T1231" t="n">
         <v>18</v>
@@ -98887,7 +98887,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -98924,16 +98924,16 @@
         </is>
       </c>
       <c r="M1232" t="n">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="N1232" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1232" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P1232" t="n">
-        <v>3226</v>
+        <v>12585</v>
       </c>
       <c r="Q1232" t="inlineStr">
         <is>
@@ -98942,11 +98942,11 @@
       </c>
       <c r="R1232" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1232" t="n">
-        <v>179</v>
+        <v>699</v>
       </c>
       <c r="T1232" t="n">
         <v>18</v>
@@ -98967,7 +98967,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -99004,16 +99004,16 @@
         </is>
       </c>
       <c r="M1233" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="N1233" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="O1233" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="P1233" t="n">
-        <v>2300</v>
+        <v>7524</v>
       </c>
       <c r="Q1233" t="inlineStr">
         <is>
@@ -99022,11 +99022,11 @@
       </c>
       <c r="R1233" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S1233" t="n">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="T1233" t="n">
         <v>18</v>
@@ -99080,20 +99080,20 @@
       </c>
       <c r="L1234" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1234" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="N1234" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O1234" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="P1234" t="n">
-        <v>2284</v>
+        <v>4200</v>
       </c>
       <c r="Q1234" t="inlineStr">
         <is>
@@ -99102,11 +99102,11 @@
       </c>
       <c r="R1234" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1234" t="n">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="T1234" t="n">
         <v>18</v>
@@ -99127,7 +99127,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -99160,20 +99160,20 @@
       </c>
       <c r="L1235" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1235" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N1235" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1235" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="P1235" t="n">
-        <v>15486</v>
+        <v>4271</v>
       </c>
       <c r="Q1235" t="inlineStr">
         <is>
@@ -99186,7 +99186,7 @@
         </is>
       </c>
       <c r="S1235" t="n">
-        <v>860</v>
+        <v>237</v>
       </c>
       <c r="T1235" t="n">
         <v>18</v>
@@ -99207,7 +99207,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -99240,20 +99240,20 @@
       </c>
       <c r="L1236" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1236" t="n">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="N1236" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O1236" t="n">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="P1236" t="n">
-        <v>12463</v>
+        <v>3241</v>
       </c>
       <c r="Q1236" t="inlineStr">
         <is>
@@ -99262,11 +99262,11 @@
       </c>
       <c r="R1236" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1236" t="n">
-        <v>692</v>
+        <v>180</v>
       </c>
       <c r="T1236" t="n">
         <v>18</v>
@@ -99287,7 +99287,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -99320,20 +99320,20 @@
       </c>
       <c r="L1237" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1237" t="n">
-        <v>340</v>
+        <v>620</v>
       </c>
       <c r="N1237" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="O1237" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="P1237" t="n">
-        <v>8588</v>
+        <v>3226</v>
       </c>
       <c r="Q1237" t="inlineStr">
         <is>
@@ -99346,7 +99346,7 @@
         </is>
       </c>
       <c r="S1237" t="n">
-        <v>477</v>
+        <v>179</v>
       </c>
       <c r="T1237" t="n">
         <v>18</v>
@@ -99367,7 +99367,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -99400,33 +99400,33 @@
       </c>
       <c r="L1238" t="inlineStr">
         <is>
-          <t>Calibre 200</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1238" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N1238" t="n">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="O1238" t="n">
-        <v>17000</v>
+        <v>2500</v>
       </c>
       <c r="P1238" t="n">
-        <v>16600</v>
+        <v>2300</v>
       </c>
       <c r="Q1238" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
-          <t>EE.UU.</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1238" t="n">
-        <v>922</v>
+        <v>128</v>
       </c>
       <c r="T1238" t="n">
         <v>18</v>
@@ -99447,7 +99447,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E1239" t="n">
         <v>13</v>
@@ -99480,20 +99480,20 @@
       </c>
       <c r="L1239" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a amarillo</t>
         </is>
       </c>
       <c r="M1239" t="n">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="N1239" t="n">
-        <v>5500</v>
+        <v>2000</v>
       </c>
       <c r="O1239" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P1239" t="n">
-        <v>5736</v>
+        <v>2284</v>
       </c>
       <c r="Q1239" t="inlineStr">
         <is>
@@ -99502,11 +99502,11 @@
       </c>
       <c r="R1239" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1239" t="n">
-        <v>319</v>
+        <v>127</v>
       </c>
       <c r="T1239" t="n">
         <v>18</v>
@@ -99527,7 +99527,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -99560,20 +99560,20 @@
       </c>
       <c r="L1240" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M1240" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="N1240" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="O1240" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="P1240" t="n">
-        <v>4273</v>
+        <v>15486</v>
       </c>
       <c r="Q1240" t="inlineStr">
         <is>
@@ -99582,11 +99582,11 @@
       </c>
       <c r="R1240" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1240" t="n">
-        <v>237</v>
+        <v>860</v>
       </c>
       <c r="T1240" t="n">
         <v>18</v>
@@ -99607,7 +99607,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -99640,20 +99640,20 @@
       </c>
       <c r="L1241" t="inlineStr">
         <is>
-          <t>3a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M1241" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N1241" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O1241" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="P1241" t="n">
-        <v>3286</v>
+        <v>12463</v>
       </c>
       <c r="Q1241" t="inlineStr">
         <is>
@@ -99662,11 +99662,11 @@
       </c>
       <c r="R1241" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1241" t="n">
-        <v>183</v>
+        <v>692</v>
       </c>
       <c r="T1241" t="n">
         <v>18</v>
@@ -99687,7 +99687,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -99720,24 +99720,24 @@
       </c>
       <c r="L1242" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M1242" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N1242" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O1242" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P1242" t="n">
-        <v>21000</v>
+        <v>8588</v>
       </c>
       <c r="Q1242" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R1242" t="inlineStr">
@@ -99746,7 +99746,7 @@
         </is>
       </c>
       <c r="S1242" t="n">
-        <v>1167</v>
+        <v>477</v>
       </c>
       <c r="T1242" t="n">
         <v>18</v>
@@ -99767,7 +99767,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -99800,33 +99800,33 @@
       </c>
       <c r="L1243" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>Calibre 200</t>
         </is>
       </c>
       <c r="M1243" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N1243" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="O1243" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P1243" t="n">
-        <v>18556</v>
+        <v>16600</v>
       </c>
       <c r="Q1243" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R1243" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S1243" t="n">
-        <v>1031</v>
+        <v>922</v>
       </c>
       <c r="T1243" t="n">
         <v>18</v>
@@ -99847,7 +99847,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -99880,20 +99880,20 @@
       </c>
       <c r="L1244" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M1244" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="N1244" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="O1244" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P1244" t="n">
-        <v>13308</v>
+        <v>5736</v>
       </c>
       <c r="Q1244" t="inlineStr">
         <is>
@@ -99906,7 +99906,7 @@
         </is>
       </c>
       <c r="S1244" t="n">
-        <v>739</v>
+        <v>319</v>
       </c>
       <c r="T1244" t="n">
         <v>18</v>
@@ -99927,7 +99927,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1245" t="n">
         <v>13</v>
@@ -99960,20 +99960,20 @@
       </c>
       <c r="L1245" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M1245" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="N1245" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="O1245" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="P1245" t="n">
-        <v>16551</v>
+        <v>4273</v>
       </c>
       <c r="Q1245" t="inlineStr">
         <is>
@@ -99982,11 +99982,11 @@
       </c>
       <c r="R1245" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S1245" t="n">
-        <v>920</v>
+        <v>237</v>
       </c>
       <c r="T1245" t="n">
         <v>18</v>
@@ -100007,68 +100007,468 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1246" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1246" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1246" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1246" t="inlineStr">
+        <is>
+          <t>3a amarillo</t>
+        </is>
+      </c>
+      <c r="M1246" t="n">
+        <v>350</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>3286</v>
+      </c>
+      <c r="Q1246" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1246" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1246" t="n">
+        <v>183</v>
+      </c>
+      <c r="T1246" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1247" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E1246" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1246" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1246" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I1246" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J1246" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L1246" t="inlineStr">
+      <c r="E1247" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1247" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1247" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1247" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1247" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1247" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1247" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1247" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>21000</v>
+      </c>
+      <c r="Q1247" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1247" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1247" t="n">
+        <v>1167</v>
+      </c>
+      <c r="T1247" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1248" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1248" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1248" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1248" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1248" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1248" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1248" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M1248" t="n">
+        <v>450</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>18556</v>
+      </c>
+      <c r="Q1248" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1248" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1248" t="n">
+        <v>1031</v>
+      </c>
+      <c r="T1248" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1249" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1249" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1249" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1249" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1249" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1249" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1249" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M1249" t="n">
+        <v>260</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>13308</v>
+      </c>
+      <c r="Q1249" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1249" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S1249" t="n">
+        <v>739</v>
+      </c>
+      <c r="T1249" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1250" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1250" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1250" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1250" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1250" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1250" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1250" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M1250" t="n">
+        <v>490</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>16551</v>
+      </c>
+      <c r="Q1250" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1250" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1250" t="n">
+        <v>920</v>
+      </c>
+      <c r="T1250" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1251" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1251" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1251" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H1251" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I1251" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J1251" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L1251" t="inlineStr">
         <is>
           <t>3a amarillo</t>
         </is>
       </c>
-      <c r="M1246" t="n">
+      <c r="M1251" t="n">
         <v>260</v>
       </c>
-      <c r="N1246" t="n">
+      <c r="N1251" t="n">
         <v>8000</v>
       </c>
-      <c r="O1246" t="n">
+      <c r="O1251" t="n">
         <v>9000</v>
       </c>
-      <c r="P1246" t="n">
+      <c r="P1251" t="n">
         <v>8538</v>
       </c>
-      <c r="Q1246" t="inlineStr">
-        <is>
-          <t>$/malla 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1246" t="inlineStr">
+      <c r="Q1251" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1251" t="inlineStr">
         <is>
           <t>Provincia de Melipilla</t>
         </is>
       </c>
-      <c r="S1246" t="n">
+      <c r="S1251" t="n">
         <v>474</v>
       </c>
-      <c r="T1246" t="n">
+      <c r="T1251" t="n">
         <v>18</v>
       </c>
     </row>
